--- a/Caliperexcelcheck.xlsx
+++ b/Caliperexcelcheck.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="216">
   <si>
     <t>A</t>
   </si>
@@ -1283,28 +1283,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6444.3353627158649</c:v>
+                  <c:v>13260.8593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5207.2046923812049</c:v>
+                  <c:v>10503.049025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3064.85057065501</c:v>
+                  <c:v>6856.7621794999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1358.015231261405</c:v>
+                  <c:v>3078.9300130000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>931.87476866691054</c:v>
+                  <c:v>2112.2745595000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>571.92737055078396</c:v>
+                  <c:v>1221.8973859999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>378.911617287995</c:v>
+                  <c:v>971.6597951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>277.93362239015653</c:v>
+                  <c:v>665.98596754999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,28 +1534,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6444.3353627158649</c:v>
+                  <c:v>13260.8593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5207.2046923812049</c:v>
+                  <c:v>10503.049025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3064.85057065501</c:v>
+                  <c:v>6856.7621794999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1358.015231261405</c:v>
+                  <c:v>3078.9300130000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>931.87476866691054</c:v>
+                  <c:v>2112.2745595000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>571.92737055078396</c:v>
+                  <c:v>1221.8973859999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>378.911617287995</c:v>
+                  <c:v>971.6597951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>277.93362239015653</c:v>
+                  <c:v>665.98596754999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,10 +3223,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AF178"/>
+  <dimension ref="A1:AF208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3335,38 +3335,38 @@
         <v>182</v>
       </c>
       <c r="D2">
-        <v>0.93275744423602702</v>
+        <v>0.60214780599999995</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2">
-        <v>13.178137370074399</v>
+        <v>24.455511829999999</v>
       </c>
       <c r="H2">
-        <v>12.717462036355199</v>
+        <v>12.35351481</v>
       </c>
       <c r="K2" s="21">
         <v>1000</v>
       </c>
       <c r="L2" s="24">
         <f>U2</f>
-        <v>8637.3682516803601</v>
+        <v>20011.264630000001</v>
       </c>
       <c r="M2" s="24">
         <f>U14</f>
-        <v>8461.6610432432899</v>
+        <v>14744.367480000001</v>
       </c>
       <c r="N2" s="22">
         <f>AVERAGE(L2:M2)</f>
-        <v>8549.514647461825</v>
+        <v>17377.816055000003</v>
       </c>
       <c r="O2" s="22">
         <f>N2^2</f>
-        <v>73094200.707164288</v>
+        <v>301988490.84141588</v>
       </c>
       <c r="P2" s="22">
         <f>STDEV(L2:M2)</f>
-        <v>124.24375858921051</v>
+        <v>3724.2586905770845</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>57</v>
@@ -3376,11 +3376,11 @@
       </c>
       <c r="U2" s="12">
         <f t="array" ref="U2">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S2,IF($C$2:$C$20000=$T2,1)),0))</f>
-        <v>8637.3682516803601</v>
+        <v>20011.264630000001</v>
       </c>
       <c r="V2">
         <f>$L$18*(U2^2) + $L$19*U2+$L$20</f>
-        <v>1045.4363462061069</v>
+        <v>2529.2071136163227</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>57</v>
@@ -3415,38 +3415,38 @@
         <v>183</v>
       </c>
       <c r="D3">
-        <v>1.2205575876499299</v>
+        <v>0.861210637</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3">
-        <v>1623.9800871386101</v>
+        <v>1870.919881</v>
       </c>
       <c r="H3">
-        <v>13.033333333333299</v>
+        <v>12.7</v>
       </c>
       <c r="K3" s="21">
         <v>800</v>
       </c>
       <c r="L3" s="24">
         <f t="shared" ref="L3:L13" si="0">U3</f>
-        <v>6662.3064504160302</v>
+        <v>15165.86958</v>
       </c>
       <c r="M3" s="24">
         <f t="shared" ref="M3:M13" si="1">U15</f>
-        <v>6226.3642750156996</v>
+        <v>11355.84902</v>
       </c>
       <c r="N3" s="22">
         <f t="shared" ref="N3:N13" si="2">AVERAGE(L3:M3)</f>
-        <v>6444.3353627158649</v>
+        <v>13260.8593</v>
       </c>
       <c r="O3" s="22">
         <f t="shared" ref="O3:O13" si="3">N3^2</f>
-        <v>41529458.267150216</v>
+        <v>175850389.3743965</v>
       </c>
       <c r="P3" s="22">
         <f t="shared" ref="P3:P13" si="4">STDEV(L3:M3)</f>
-        <v>308.25766843078912</v>
+        <v>2694.0913744361646</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>58</v>
@@ -3456,11 +3456,11 @@
       </c>
       <c r="U3" s="12">
         <f t="array" ref="U3">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S3,IF($C$2:$C$20000=$T3,1)),0))</f>
-        <v>6662.3064504160302</v>
+        <v>15165.86958</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V33" si="5">$L$18*(U3^2) + $L$19*U3+$L$20</f>
-        <v>806.23706119340829</v>
+        <v>1874.9625217142984</v>
       </c>
       <c r="Y3" s="6" t="s">
         <v>58</v>
@@ -3495,38 +3495,38 @@
         <v>184</v>
       </c>
       <c r="D4">
-        <v>2.617604903972</v>
+        <v>1.0909822469999999</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4">
-        <v>17.8348759739252</v>
+        <v>42.690395080000002</v>
       </c>
       <c r="H4">
-        <v>14.0640712497884</v>
+        <v>12.94748942</v>
       </c>
       <c r="K4" s="21">
         <v>600</v>
       </c>
       <c r="L4" s="24">
         <f t="shared" si="0"/>
-        <v>5352.9794451669104</v>
+        <v>11466.017830000001</v>
       </c>
       <c r="M4" s="24">
         <f t="shared" si="1"/>
-        <v>5061.4299395955004</v>
+        <v>9540.0802199999998</v>
       </c>
       <c r="N4" s="22">
         <f t="shared" si="2"/>
-        <v>5207.2046923812049</v>
+        <v>10503.049025</v>
       </c>
       <c r="O4" s="22">
         <f t="shared" si="3"/>
-        <v>27114980.708356839</v>
+        <v>110314038.82155345</v>
       </c>
       <c r="P4" s="22">
         <f t="shared" si="4"/>
-        <v>206.15663244112915</v>
+        <v>1361.8435441732129</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>59</v>
@@ -3536,11 +3536,11 @@
       </c>
       <c r="U4" s="12">
         <f t="array" ref="U4">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S4,IF($C$2:$C$20000=$T4,1)),0))</f>
-        <v>5352.9794451669104</v>
+        <v>11466.017830000001</v>
       </c>
       <c r="V4">
         <f t="shared" si="5"/>
-        <v>650.67500300469248</v>
+        <v>1397.5250638465145</v>
       </c>
       <c r="Y4" s="6" t="s">
         <v>59</v>
@@ -3575,38 +3575,38 @@
         <v>184</v>
       </c>
       <c r="D5">
-        <v>5.7380824656898897</v>
+        <v>5.2608568480000004</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5">
-        <v>307.789625964094</v>
+        <v>581.75647059999994</v>
       </c>
       <c r="H5">
-        <v>15.3940556581175</v>
+        <v>15.10889704</v>
       </c>
       <c r="K5" s="21">
         <v>400</v>
       </c>
       <c r="L5" s="24">
         <f t="shared" si="0"/>
-        <v>2938.8403875864501</v>
+        <v>7804.6944329999997</v>
       </c>
       <c r="M5" s="24">
         <f t="shared" si="1"/>
-        <v>3190.8607537235698</v>
+        <v>5908.8299260000003</v>
       </c>
       <c r="N5" s="22">
         <f t="shared" si="2"/>
-        <v>3064.85057065501</v>
+        <v>6856.7621794999995</v>
       </c>
       <c r="O5" s="22">
         <f t="shared" si="3"/>
-        <v>9393309.020444341</v>
+        <v>47015187.586221583</v>
       </c>
       <c r="P5" s="22">
         <f t="shared" si="4"/>
-        <v>178.20530989267391</v>
+        <v>1340.5786491105939</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>60</v>
@@ -3616,11 +3616,11 @@
       </c>
       <c r="U5" s="12">
         <f t="array" ref="U5">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S5,IF($C$2:$C$20000=$T5,1)),0))</f>
-        <v>2938.8403875864501</v>
+        <v>7804.6944329999997</v>
       </c>
       <c r="V5">
         <f t="shared" si="5"/>
-        <v>370.14172676614061</v>
+        <v>943.92554403795077</v>
       </c>
       <c r="Y5" s="6" t="s">
         <v>60</v>
@@ -3655,38 +3655,38 @@
         <v>184</v>
       </c>
       <c r="D6">
-        <v>7.0773058046219504</v>
+        <v>5.9327260610000003</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6">
-        <v>907.10505645232695</v>
+        <v>1366.035603</v>
       </c>
       <c r="H6">
-        <v>15.809675785720399</v>
+        <v>15.32338788</v>
       </c>
       <c r="K6" s="21">
         <v>200</v>
       </c>
       <c r="L6" s="24">
         <f t="shared" si="0"/>
-        <v>1306.4722716042299</v>
+        <v>3597.2279279999998</v>
       </c>
       <c r="M6" s="24">
         <f t="shared" si="1"/>
-        <v>1409.5581909185801</v>
+        <v>2560.632098</v>
       </c>
       <c r="N6" s="22">
         <f t="shared" si="2"/>
-        <v>1358.015231261405</v>
+        <v>3078.9300130000001</v>
       </c>
       <c r="O6" s="22">
         <f t="shared" si="3"/>
-        <v>1844205.3683379674</v>
+        <v>9479810.0249521807</v>
       </c>
       <c r="P6" s="22">
         <f t="shared" si="4"/>
-        <v>72.89275259202627</v>
+        <v>732.98394074269538</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>61</v>
@@ -3696,11 +3696,11 @@
       </c>
       <c r="U6" s="12">
         <f t="array" ref="U6">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S6,IF($C$2:$C$20000=$T6,1)),0))</f>
-        <v>1306.4722716042299</v>
+        <v>3597.2279279999998</v>
       </c>
       <c r="V6">
         <f t="shared" si="5"/>
-        <v>185.07734764263648</v>
+        <v>445.83999738738822</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>61</v>
@@ -3735,38 +3735,38 @@
         <v>184</v>
       </c>
       <c r="D7">
-        <v>10.935283854590301</v>
+        <v>8.0089749500000007</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7">
-        <v>72.549939024260098</v>
+        <v>4064.3001260000001</v>
       </c>
       <c r="H7">
-        <v>16.773914481759</v>
+        <v>15.9008632</v>
       </c>
       <c r="K7" s="21">
         <v>150</v>
       </c>
       <c r="L7" s="24">
         <f t="shared" si="0"/>
-        <v>893.09915612569296</v>
+        <v>2503.3788610000001</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" si="1"/>
-        <v>970.65038120812801</v>
+        <v>1721.1702580000001</v>
       </c>
       <c r="N7" s="22">
         <f t="shared" si="2"/>
-        <v>931.87476866691054</v>
+        <v>2112.2745595000001</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" si="3"/>
-        <v>868390.58447800798</v>
+        <v>4461703.8147109197</v>
       </c>
       <c r="P7" s="22">
         <f t="shared" si="4"/>
-        <v>54.836997145114097</v>
+        <v>553.10500748375603</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>62</v>
@@ -3776,11 +3776,11 @@
       </c>
       <c r="U7" s="12">
         <f t="array" ref="U7">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S7,IF($C$2:$C$20000=$T7,1)),0))</f>
-        <v>893.09915612569296</v>
+        <v>2503.3788610000001</v>
       </c>
       <c r="V7">
         <f t="shared" si="5"/>
-        <v>138.80448510814719</v>
+        <v>320.40786025959119</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>62</v>
@@ -3813,42 +3813,42 @@
       </c>
       <c r="C8"/>
       <c r="D8">
-        <v>17.4905346823119</v>
+        <v>17.74088428</v>
       </c>
       <c r="E8">
-        <v>0.54068240795439504</v>
+        <v>0.60931500199999999</v>
       </c>
       <c r="F8">
-        <v>0.112707384366718</v>
+        <v>0.100146476</v>
       </c>
       <c r="G8">
-        <v>9.8831674495517206</v>
+        <v>20.81743732</v>
       </c>
       <c r="H8">
-        <v>18.004150059463498</v>
+        <v>17.798282100000002</v>
       </c>
       <c r="K8" s="21">
         <v>100</v>
       </c>
       <c r="L8" s="24">
         <f t="shared" si="0"/>
-        <v>543.66036778896603</v>
+        <v>1433.7039299999999</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="1"/>
-        <v>600.19437331260201</v>
+        <v>1010.090842</v>
       </c>
       <c r="N8" s="22">
         <f t="shared" si="2"/>
-        <v>571.92737055078396</v>
+        <v>1221.8973859999999</v>
       </c>
       <c r="O8" s="22">
         <f t="shared" si="3"/>
-        <v>327100.91718513373</v>
+        <v>1493033.2219136327</v>
       </c>
       <c r="P8" s="22">
         <f t="shared" si="4"/>
-        <v>39.97557867340074</v>
+        <v>299.53968712417395</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>63</v>
@@ -3858,11 +3858,11 @@
       </c>
       <c r="U8" s="12">
         <f t="array" ref="U8">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S8,IF($C$2:$C$20000=$T8,1)),0))</f>
-        <v>543.66036778896603</v>
+        <v>1433.7039299999999</v>
       </c>
       <c r="V8">
         <f t="shared" si="5"/>
-        <v>99.875001220754953</v>
+        <v>199.3677687432282</v>
       </c>
       <c r="Y8" s="6" t="s">
         <v>63</v>
@@ -3895,42 +3895,42 @@
       </c>
       <c r="C9"/>
       <c r="D9">
-        <v>32.061049559362402</v>
+        <v>30.30968128</v>
       </c>
       <c r="E9">
-        <v>1.9326477492004901</v>
+        <v>3.5104509400000001</v>
       </c>
       <c r="F9">
-        <v>0.40286805989993302</v>
+        <v>0.57697461999999999</v>
       </c>
       <c r="G9">
-        <v>35.326988718964799</v>
+        <v>119.93565270000001</v>
       </c>
       <c r="H9">
-        <v>19.982501866852999</v>
+        <v>19.49770947</v>
       </c>
       <c r="K9" s="21">
         <v>80</v>
       </c>
       <c r="L9" s="24">
         <f t="shared" si="0"/>
-        <v>404.432436798737</v>
+        <v>1110.755813</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="1"/>
-        <v>353.390797777253</v>
+        <v>832.5637772</v>
       </c>
       <c r="N9" s="22">
         <f t="shared" si="2"/>
-        <v>378.911617287995</v>
+        <v>971.6597951</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="3"/>
-        <v>143574.013715804</v>
+        <v>944122.75741377403</v>
       </c>
       <c r="P9" s="22">
         <f t="shared" si="4"/>
-        <v>36.091889074967234</v>
+        <v>196.71147498627101</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>64</v>
@@ -3940,11 +3940,11 @@
       </c>
       <c r="U9" s="12">
         <f t="array" ref="U9">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S9,IF($C$2:$C$20000=$T9,1)),0))</f>
-        <v>404.432436798737</v>
+        <v>1110.755813</v>
       </c>
       <c r="V9">
         <f t="shared" si="5"/>
-        <v>84.411836939735053</v>
+        <v>163.1390866884793</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>64</v>
@@ -3977,42 +3977,42 @@
       </c>
       <c r="C10"/>
       <c r="D10">
-        <v>55.054010103150901</v>
+        <v>55.127236060000001</v>
       </c>
       <c r="E10">
-        <v>0.81289568680802504</v>
+        <v>0.70694849299999996</v>
       </c>
       <c r="F10">
-        <v>0.16945131795530299</v>
+        <v>0.116193431</v>
       </c>
       <c r="G10">
-        <v>14.858970947728199</v>
+        <v>24.15311604</v>
       </c>
       <c r="H10">
-        <v>22.276724971220801</v>
+        <v>22.02210157</v>
       </c>
       <c r="K10" s="21">
         <v>60</v>
       </c>
       <c r="L10" s="24">
         <f t="shared" si="0"/>
-        <v>289.07867092055602</v>
+        <v>789.57091600000001</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="1"/>
-        <v>266.78857385975698</v>
+        <v>542.40101909999998</v>
       </c>
       <c r="N10" s="22">
         <f t="shared" si="2"/>
-        <v>277.93362239015653</v>
+        <v>665.98596754999994</v>
       </c>
       <c r="O10" s="22">
         <f t="shared" si="3"/>
-        <v>77247.098454914114</v>
+        <v>443537.30897350959</v>
       </c>
       <c r="P10" s="22">
         <f t="shared" si="4"/>
-        <v>15.761478784997335</v>
+        <v>174.77551020317</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>65</v>
@@ -4022,11 +4022,11 @@
       </c>
       <c r="U10" s="12">
         <f t="array" ref="U10">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S10,IF($C$2:$C$20000=$T10,1)),0))</f>
-        <v>289.07867092055602</v>
+        <v>789.57091600000001</v>
       </c>
       <c r="V10">
         <f t="shared" si="5"/>
-        <v>71.620781804216222</v>
+        <v>127.25302468837518</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>65</v>
@@ -4059,42 +4059,42 @@
       </c>
       <c r="C11"/>
       <c r="D11">
-        <v>127.91161488428899</v>
+        <v>125.53675130000001</v>
       </c>
       <c r="E11">
-        <v>0.85162321765283899</v>
+        <v>3.6506803410000002</v>
       </c>
       <c r="F11">
-        <v>0.177524224786162</v>
+        <v>0.60002259999999996</v>
       </c>
       <c r="G11">
-        <v>15.566873898917301</v>
+        <v>124.726634</v>
       </c>
       <c r="H11">
-        <v>27.513538579016799</v>
+        <v>27.384372389999999</v>
       </c>
       <c r="K11" s="21">
         <v>40</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" si="0"/>
-        <v>98.925525622818895</v>
+        <v>425.9240873</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="1"/>
-        <v>92.945679679885203</v>
+        <v>301.40553840000001</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="2"/>
-        <v>95.935602651352042</v>
+        <v>363.66481284999998</v>
       </c>
       <c r="O11" s="22">
         <f t="shared" si="3"/>
-        <v>9203.6398560781054</v>
+        <v>132252.0961052255</v>
       </c>
       <c r="P11" s="22">
         <f t="shared" si="4"/>
-        <v>4.2283896166992792</v>
+        <v>88.047910310699024</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>66</v>
@@ -4104,11 +4104,11 @@
       </c>
       <c r="U11" s="12">
         <f t="array" ref="U11">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S11,IF($C$2:$C$20000=$T11,1)),0))</f>
-        <v>98.925525622818895</v>
+        <v>425.9240873</v>
       </c>
       <c r="V11">
         <f t="shared" si="5"/>
-        <v>50.57622841049303</v>
+        <v>86.79700716761964</v>
       </c>
       <c r="Y11" s="6" t="s">
         <v>66</v>
@@ -4141,42 +4141,42 @@
       </c>
       <c r="C12"/>
       <c r="D12">
-        <v>151.220225122199</v>
+        <v>145.94172470000001</v>
       </c>
       <c r="E12">
-        <v>3.0564365433901499</v>
+        <v>13.104298099999999</v>
       </c>
       <c r="F12">
-        <v>0.63712627453825299</v>
+        <v>2.1538108760000001</v>
       </c>
       <c r="G12">
-        <v>55.868794162435101</v>
+        <v>447.71243720000001</v>
       </c>
       <c r="H12">
-        <v>28.9266470128665</v>
+        <v>28.753813860000001</v>
       </c>
       <c r="K12" s="21">
         <v>20</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" si="0"/>
-        <v>29.998606735694</v>
+        <v>1.6301037920000001</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="1"/>
-        <v>31.263906931276399</v>
+        <v>107.5040954</v>
       </c>
       <c r="N12" s="22">
         <f t="shared" si="2"/>
-        <v>30.6312568334852</v>
+        <v>54.567099595999998</v>
       </c>
       <c r="O12" s="22">
         <f t="shared" si="3"/>
-        <v>938.2738951989337</v>
+        <v>2977.5683583197833</v>
       </c>
       <c r="P12" s="22">
         <f t="shared" si="4"/>
-        <v>0.89470234853297859</v>
+        <v>74.864217417304417</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>67</v>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="U12" s="12">
         <f t="array" ref="U12">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S12,IF($C$2:$C$20000=$T12,1)),0))</f>
-        <v>29.998606735694</v>
+        <v>1.6301037920000001</v>
       </c>
       <c r="V12">
         <f t="shared" si="5"/>
-        <v>42.960476125104876</v>
+        <v>39.827965318703662</v>
       </c>
       <c r="Y12" s="6" t="s">
         <v>67</v>
@@ -4221,23 +4221,21 @@
       <c r="B13" t="s">
         <v>181</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
+      <c r="C13"/>
       <c r="D13">
-        <v>165.74490210879901</v>
+        <v>153.96665899999999</v>
       </c>
       <c r="E13">
-        <v>472.52797127495899</v>
+        <v>1.123344992</v>
       </c>
       <c r="F13">
-        <v>98.500322738453605</v>
+        <v>0.18463199199999999</v>
       </c>
       <c r="G13">
-        <v>8637.3682516803601</v>
+        <v>38.379432469999998</v>
       </c>
       <c r="H13">
-        <v>29.7745120731763</v>
+        <v>29.281791299999998</v>
       </c>
       <c r="K13" s="21">
         <v>10</v>
@@ -4246,9 +4244,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="24" t="e">
+      <c r="M13" s="24">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>37.041369109999998</v>
       </c>
       <c r="N13" s="22" t="e">
         <f t="shared" si="2"/>
@@ -4300,24 +4298,28 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>0.94585517735996705</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>157.75361319999999</v>
+      </c>
+      <c r="E14">
+        <v>585.71876789999999</v>
+      </c>
+      <c r="F14">
+        <v>96.268220009999993</v>
+      </c>
       <c r="G14">
-        <v>13.6463674039693</v>
+        <v>20011.264630000001</v>
       </c>
       <c r="H14">
-        <v>12.7333116595549</v>
+        <v>29.529280719999999</v>
       </c>
       <c r="L14" s="87" t="s">
         <v>138</v>
@@ -4331,11 +4333,11 @@
       </c>
       <c r="U14" s="12">
         <f t="array" ref="U14">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S14,IF($C$2:$C$20000=$T14,1)),0))</f>
-        <v>8461.6610432432899</v>
+        <v>14744.367480000001</v>
       </c>
       <c r="V14">
         <f t="shared" si="5"/>
-        <v>1023.935174501578</v>
+        <v>1819.6036304616971</v>
       </c>
       <c r="Y14" s="6" t="s">
         <v>69</v>
@@ -4370,15 +4372,15 @@
         <v>183</v>
       </c>
       <c r="D15">
-        <v>1.2205575876499299</v>
+        <v>0.861210637</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15">
-        <v>1663.49575620674</v>
+        <v>1873.96343</v>
       </c>
       <c r="H15">
-        <v>13.033333333333299</v>
+        <v>12.7</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -4390,11 +4392,11 @@
       </c>
       <c r="U15" s="12">
         <f t="array" ref="U15">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S15,IF($C$2:$C$20000=$T15,1)),0))</f>
-        <v>6226.3642750156996</v>
+        <v>11355.84902</v>
       </c>
       <c r="V15">
         <f t="shared" si="5"/>
-        <v>754.17594442136749</v>
+        <v>1383.6024466835242</v>
       </c>
       <c r="Y15" s="6" t="s">
         <v>70</v>
@@ -4429,15 +4431,15 @@
         <v>184</v>
       </c>
       <c r="D16">
-        <v>5.8066929579660798</v>
+        <v>1.091069947</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16">
-        <v>328.67669796240699</v>
+        <v>39.992939450000002</v>
       </c>
       <c r="H16">
-        <v>15.416838852795101</v>
+        <v>12.947576249999999</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>137</v>
@@ -4453,11 +4455,11 @@
       </c>
       <c r="U16" s="12">
         <f t="array" ref="U16">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S16,IF($C$2:$C$20000=$T16,1)),0))</f>
-        <v>5061.4299395955004</v>
+        <v>9540.0802199999998</v>
       </c>
       <c r="V16">
         <f t="shared" si="5"/>
-        <v>616.36251645474692</v>
+        <v>1156.5820477108246</v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>71</v>
@@ -4492,15 +4494,15 @@
         <v>184</v>
       </c>
       <c r="D17">
-        <v>7.1021388048923297</v>
+        <v>5.3132587960000004</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17">
-        <v>1007.39613169797</v>
+        <v>475.3164266</v>
       </c>
       <c r="H17">
-        <v>15.816867751166299</v>
+        <v>15.12624722</v>
       </c>
       <c r="K17" t="s">
         <v>139</v>
@@ -4513,11 +4515,11 @@
       </c>
       <c r="U17" s="12">
         <f t="array" ref="U17">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S17,IF($C$2:$C$20000=$T17,1)),0))</f>
-        <v>3190.8607537235698</v>
+        <v>5908.8299260000003</v>
       </c>
       <c r="V17">
         <f t="shared" si="5"/>
-        <v>399.04614185583949</v>
+        <v>716.42281359647529</v>
       </c>
       <c r="Y17" s="6" t="s">
         <v>72</v>
@@ -4552,15 +4554,15 @@
         <v>184</v>
       </c>
       <c r="D18">
-        <v>10.979614029214799</v>
+        <v>5.989627134</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18">
-        <v>63.065802623068201</v>
+        <v>1737.6295540000001</v>
       </c>
       <c r="H18">
-        <v>16.783604255563301</v>
+        <v>15.340813300000001</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>141</v>
@@ -4576,11 +4578,11 @@
       </c>
       <c r="U18" s="12">
         <f t="array" ref="U18">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S18,IF($C$2:$C$20000=$T18,1)),0))</f>
-        <v>1409.5581909185801</v>
+        <v>2560.632098</v>
       </c>
       <c r="V18">
         <f t="shared" si="5"/>
-        <v>196.6540222829212</v>
+        <v>326.93156933811554</v>
       </c>
       <c r="Y18" s="6" t="s">
         <v>73</v>
@@ -4611,21 +4613,19 @@
       <c r="B19" t="s">
         <v>185</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
       <c r="D19">
-        <v>32.072550932500299</v>
-      </c>
-      <c r="E19">
-        <v>1.2437343031013399</v>
-      </c>
-      <c r="F19">
-        <v>0.34545893054013799</v>
-      </c>
+        <v>8.1442132189999992</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19">
-        <v>23.2363928738331</v>
+        <v>3936.0623690000002</v>
       </c>
       <c r="H19">
-        <v>19.9838354425329</v>
+        <v>15.9349963</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>142</v>
@@ -4641,11 +4641,11 @@
       </c>
       <c r="U19" s="12">
         <f t="array" ref="U19">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S19,IF($C$2:$C$20000=$T19,1)),0))</f>
-        <v>970.65038120812801</v>
+        <v>1721.1702580000001</v>
       </c>
       <c r="V19">
         <f t="shared" si="5"/>
-        <v>147.46731559915497</v>
+        <v>231.73889542311665</v>
       </c>
       <c r="Y19" s="6" t="s">
         <v>74</v>
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C20"/>
       <c r="D20">
-        <v>151.916811321686</v>
+        <v>17.856963579999999</v>
       </c>
       <c r="E20">
-        <v>2.1782661172290601</v>
+        <v>0.44336725999999999</v>
       </c>
       <c r="F20">
-        <v>0.60503395412778405</v>
+        <v>9.5197406999999998E-2</v>
       </c>
       <c r="G20">
-        <v>40.696029013175199</v>
+        <v>14.96234175</v>
       </c>
       <c r="H20">
-        <v>28.9678177851195</v>
+        <v>17.816575780000001</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>143</v>
@@ -4706,11 +4706,11 @@
       </c>
       <c r="U20" s="12">
         <f t="array" ref="U20">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S20,IF($C$2:$C$20000=$T20,1)),0))</f>
-        <v>600.19437331260201</v>
+        <v>1010.090842</v>
       </c>
       <c r="V20">
         <f t="shared" si="5"/>
-        <v>106.16162211374055</v>
+        <v>151.87622741316457</v>
       </c>
       <c r="Y20" s="6" t="s">
         <v>75</v>
@@ -4741,23 +4741,21 @@
       <c r="B21" t="s">
         <v>185</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
+      <c r="C21"/>
       <c r="D21">
-        <v>167.656352008927</v>
+        <v>30.46918531</v>
       </c>
       <c r="E21">
-        <v>356.60178045478398</v>
+        <v>2.7478411290000002</v>
       </c>
       <c r="F21">
-        <v>99.049507115332105</v>
+        <v>0.59000150100000004</v>
       </c>
       <c r="G21">
-        <v>6662.3064504160302</v>
+        <v>92.731560790000003</v>
       </c>
       <c r="H21">
-        <v>29.884550677220101</v>
+        <v>19.516599339999999</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>76</v>
@@ -4767,11 +4765,11 @@
       </c>
       <c r="U21" s="12">
         <f t="array" ref="U21">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S21,IF($C$2:$C$20000=$T21,1)),0))</f>
-        <v>353.390797777253</v>
+        <v>832.5637772</v>
       </c>
       <c r="V21">
         <f t="shared" si="5"/>
-        <v>78.749763613776281</v>
+        <v>132.04825471305386</v>
       </c>
       <c r="Y21" s="6" t="s">
         <v>76</v>
@@ -4797,24 +4795,26 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C22"/>
       <c r="D22">
-        <v>0.94489044608273698</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>55.531497340000001</v>
+      </c>
+      <c r="E22">
+        <v>0.51599988600000002</v>
+      </c>
+      <c r="F22">
+        <v>0.110792689</v>
+      </c>
       <c r="G22">
-        <v>13.4270667937214</v>
+        <v>17.41347936</v>
       </c>
       <c r="H22">
-        <v>12.7321498443776</v>
+        <v>22.05838215</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>77</v>
@@ -4824,11 +4824,11 @@
       </c>
       <c r="U22" s="12">
         <f t="array" ref="U22">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S22,IF($C$2:$C$20000=$T22,1)),0))</f>
-        <v>266.78857385975698</v>
+        <v>542.40101909999998</v>
       </c>
       <c r="V22">
         <f t="shared" si="5"/>
-        <v>69.151281854316665</v>
+        <v>99.735011714504509</v>
       </c>
       <c r="Y22" s="6" t="s">
         <v>77</v>
@@ -4854,24 +4854,26 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" t="s">
-        <v>183</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C23"/>
       <c r="D23">
-        <v>1.2205575876499299</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>126.3382704</v>
+      </c>
+      <c r="E23">
+        <v>2.1775167579999999</v>
+      </c>
+      <c r="F23">
+        <v>0.467544554</v>
+      </c>
       <c r="G23">
-        <v>1631.3522386254899</v>
+        <v>73.484789750000004</v>
       </c>
       <c r="H23">
-        <v>13.033333333333299</v>
+        <v>27.43903925</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>78</v>
@@ -4881,11 +4883,11 @@
       </c>
       <c r="U23" s="12">
         <f t="array" ref="U23">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S23,IF($C$2:$C$20000=$T23,1)),0))</f>
-        <v>92.945679679885203</v>
+        <v>301.40553840000001</v>
       </c>
       <c r="V23">
         <f t="shared" si="5"/>
-        <v>49.91525026621914</v>
+        <v>72.98676314836473</v>
       </c>
       <c r="Y23" s="6" t="s">
         <v>78</v>
@@ -4911,24 +4913,26 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" t="s">
-        <v>184</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C24"/>
       <c r="D24">
-        <v>5.8346445009254797</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>147.02622389999999</v>
+      </c>
+      <c r="E24">
+        <v>9.4813634740000001</v>
+      </c>
+      <c r="F24">
+        <v>2.0357867939999998</v>
+      </c>
       <c r="G24">
-        <v>205.60161301126601</v>
+        <v>319.96814660000001</v>
       </c>
       <c r="H24">
-        <v>15.426068828926301</v>
+        <v>28.825466240000001</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>79</v>
@@ -4938,11 +4942,11 @@
       </c>
       <c r="U24" s="12">
         <f t="array" ref="U24">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S24,IF($C$2:$C$20000=$T24,1)),0))</f>
-        <v>31.263906931276399</v>
+        <v>107.5040954</v>
       </c>
       <c r="V24">
         <f t="shared" si="5"/>
-        <v>43.100219527526541</v>
+        <v>51.524542123529443</v>
       </c>
       <c r="Y24" s="6" t="s">
         <v>79</v>
@@ -4968,24 +4972,26 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" t="s">
-        <v>184</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C25"/>
       <c r="D25">
-        <v>6.1972066818948202</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25"/>
+        <v>153.04780170000001</v>
+      </c>
+      <c r="E25">
+        <v>0.97027141100000003</v>
+      </c>
+      <c r="F25">
+        <v>0.2083314</v>
+      </c>
       <c r="G25">
-        <v>214.430591253106</v>
+        <v>32.743808000000001</v>
       </c>
       <c r="H25">
-        <v>15.5431957412979</v>
+        <v>29.221588239999999</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>80</v>
@@ -4993,13 +4999,13 @@
       <c r="T25" t="s">
         <v>19</v>
       </c>
-      <c r="U25" s="12" t="e">
+      <c r="U25" s="12">
         <f t="array" ref="U25">INDEX($G$2:$G$20000,MATCH(1,IF($A$2:$A$20000=$S25,IF($C$2:$C$20000=$T25,1)),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V25" t="e">
+        <v>37.041369109999998</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>43.738327593861882</v>
       </c>
       <c r="Y25" s="6" t="s">
         <v>80</v>
@@ -5025,24 +5031,28 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>7.1976627754236002</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>159.3637646</v>
+      </c>
+      <c r="E26">
+        <v>449.3982398</v>
+      </c>
+      <c r="F26">
+        <v>96.492345659999998</v>
+      </c>
       <c r="G26">
-        <v>1245.1596051137401</v>
+        <v>15165.86958</v>
       </c>
       <c r="H26">
-        <v>15.844379230253701</v>
+        <v>29.634215309999998</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>81</v>
@@ -5087,21 +5097,19 @@
       <c r="B27" t="s">
         <v>186</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
       <c r="D27">
-        <v>11.200827719799999</v>
-      </c>
-      <c r="E27">
-        <v>3.9477134172504802</v>
-      </c>
-      <c r="F27">
-        <v>1.31826861178191</v>
-      </c>
+        <v>0.61195918299999996</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27">
-        <v>72.170023818067193</v>
+        <v>23.820421849999999</v>
       </c>
       <c r="H27">
-        <v>16.8315917773864</v>
+        <v>12.368490980000001</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>82</v>
@@ -5146,21 +5154,19 @@
       <c r="B28" t="s">
         <v>186</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
       <c r="D28">
-        <v>32.450223163389197</v>
-      </c>
-      <c r="E28">
-        <v>1.0184134773326501</v>
-      </c>
-      <c r="F28">
-        <v>0.340081049226303</v>
-      </c>
+        <v>0.861210637</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28">
-        <v>18.618100441274802</v>
+        <v>1902.7247809999999</v>
       </c>
       <c r="H28">
-        <v>20.027483243528</v>
+        <v>12.7</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>83</v>
@@ -5205,21 +5211,19 @@
       <c r="B29" t="s">
         <v>186</v>
       </c>
-      <c r="C29"/>
+      <c r="C29" t="s">
+        <v>184</v>
+      </c>
       <c r="D29">
-        <v>153.24648087169001</v>
-      </c>
-      <c r="E29">
-        <v>1.6869146499235499</v>
-      </c>
-      <c r="F29">
-        <v>0.56331511401811296</v>
-      </c>
+        <v>1.0921365169999999</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29">
-        <v>30.839287860166401</v>
+        <v>39.314418740000001</v>
       </c>
       <c r="H29">
-        <v>29.046255496147499</v>
+        <v>12.94863177</v>
       </c>
       <c r="S29" s="6" t="s">
         <v>84</v>
@@ -5265,22 +5269,18 @@
         <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D30">
-        <v>169.96007741866799</v>
-      </c>
-      <c r="E30">
-        <v>292.80894836924301</v>
-      </c>
-      <c r="F30">
-        <v>97.778335224973702</v>
-      </c>
+        <v>5.1948032609999997</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30">
-        <v>5352.9794451669104</v>
+        <v>821.45297600000004</v>
       </c>
       <c r="H30">
-        <v>30.016735627227199</v>
+        <v>15.086864970000001</v>
       </c>
       <c r="S30" s="6" t="s">
         <v>85</v>
@@ -5320,24 +5320,24 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D31">
-        <v>0.94456303705682099</v>
+        <v>5.9722291470000002</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31">
-        <v>14.3025377715937</v>
+        <v>2099.6689449999999</v>
       </c>
       <c r="H31">
-        <v>12.731755348059</v>
+        <v>15.335496729999999</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>86</v>
@@ -5377,24 +5377,24 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D32">
-        <v>1.2205575876499299</v>
+        <v>8.6715763950000007</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32">
-        <v>1688.76824995949</v>
+        <v>3721.786979</v>
       </c>
       <c r="H32">
-        <v>13.033333333333299</v>
+        <v>16.06481659</v>
       </c>
       <c r="S32" s="6" t="s">
         <v>87</v>
@@ -5434,24 +5434,26 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" t="s">
-        <v>184</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C33"/>
       <c r="D33">
-        <v>6.2075944049162004</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>30.434623200000001</v>
+      </c>
+      <c r="E33">
+        <v>2.0626332349999998</v>
+      </c>
+      <c r="F33">
+        <v>0.58949890199999999</v>
+      </c>
       <c r="G33">
-        <v>427.44076448270999</v>
+        <v>69.683801090000003</v>
       </c>
       <c r="H33">
-        <v>15.546483210619501</v>
+        <v>19.512510429999999</v>
       </c>
       <c r="S33" s="6" t="s">
         <v>88</v>
@@ -5491,24 +5493,26 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" t="s">
-        <v>184</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C34"/>
       <c r="D34">
-        <v>7.2105109729324601</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>126.0443282</v>
+      </c>
+      <c r="E34">
+        <v>0.91956343100000004</v>
+      </c>
+      <c r="F34">
+        <v>0.26281048099999998</v>
+      </c>
       <c r="G34">
-        <v>1462.95621458249</v>
+        <v>31.066441730000001</v>
       </c>
       <c r="H34">
-        <v>15.8480611958938</v>
+        <v>27.419000629999999</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>89</v>
@@ -5548,26 +5552,26 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35"/>
       <c r="D35">
-        <v>11.3802467021096</v>
+        <v>147.31440090000001</v>
       </c>
       <c r="E35">
-        <v>3.8531128559392802</v>
+        <v>6.4992120880000002</v>
       </c>
       <c r="F35">
-        <v>2.4020481072919302</v>
+        <v>1.8574695320000001</v>
       </c>
       <c r="G35">
-        <v>72.759088651617205</v>
+        <v>219.56875059999999</v>
       </c>
       <c r="H35">
-        <v>16.8700754793235</v>
+        <v>28.844489429999999</v>
       </c>
       <c r="S35" s="6" t="s">
         <v>90</v>
@@ -5607,26 +5611,26 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36"/>
       <c r="D36">
-        <v>154.45695433105899</v>
+        <v>153.86984770000001</v>
       </c>
       <c r="E36">
-        <v>0.92380004603886601</v>
+        <v>1.021687542</v>
       </c>
       <c r="F36">
-        <v>0.575901157082232</v>
+        <v>0.29199746900000001</v>
       </c>
       <c r="G36">
-        <v>17.444298145200499</v>
+        <v>34.516592770000003</v>
       </c>
       <c r="H36">
-        <v>29.117492547964599</v>
+        <v>29.275451159999999</v>
       </c>
       <c r="S36" s="6" t="s">
         <v>91</v>
@@ -5666,28 +5670,28 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
       </c>
       <c r="D37">
-        <v>173.57588699722101</v>
+        <v>160.72793429999999</v>
       </c>
       <c r="E37">
-        <v>155.63256616891701</v>
+        <v>339.39293029999999</v>
       </c>
       <c r="F37">
-        <v>97.022050735625797</v>
+        <v>96.998223620000005</v>
       </c>
       <c r="G37">
-        <v>2938.8403875864501</v>
+        <v>11466.017830000001</v>
       </c>
       <c r="H37">
-        <v>30.223278493970501</v>
+        <v>29.722988340000001</v>
       </c>
       <c r="S37" s="6" t="s">
         <v>92</v>
@@ -5727,24 +5731,24 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D38">
-        <v>0.94391498213148095</v>
+        <v>0.861210637</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38">
-        <v>13.910111792871099</v>
+        <v>1920.8637060000001</v>
       </c>
       <c r="H38">
-        <v>12.730974203236499</v>
+        <v>12.7</v>
       </c>
       <c r="S38" s="7" t="s">
         <v>93</v>
@@ -5784,24 +5788,24 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D39">
-        <v>1.2205575876499299</v>
+        <v>1.0758592600000001</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39">
-        <v>1674.39860751984</v>
+        <v>50.039837980000001</v>
       </c>
       <c r="H39">
-        <v>13.033333333333299</v>
+        <v>12.932440720000001</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>94</v>
@@ -5841,24 +5845,24 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
         <v>184</v>
       </c>
       <c r="D40">
-        <v>6.1223542651174299</v>
+        <v>5.1571273040000003</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40">
-        <v>439.81657521556002</v>
+        <v>675.04467439999996</v>
       </c>
       <c r="H40">
-        <v>15.519397291907699</v>
+        <v>15.07421594</v>
       </c>
       <c r="S40" s="7" t="s">
         <v>95</v>
@@ -5898,24 +5902,24 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
         <v>184</v>
       </c>
       <c r="D41">
-        <v>7.2359963204988604</v>
+        <v>5.932308398</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41">
-        <v>1183.2506797081601</v>
+        <v>2837.484563</v>
       </c>
       <c r="H41">
-        <v>15.8553518809042</v>
+        <v>15.323259569999999</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>96</v>
@@ -5955,26 +5959,24 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42"/>
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
       <c r="D42">
-        <v>11.1916841386012</v>
-      </c>
-      <c r="E42">
-        <v>4.4048230158372901</v>
-      </c>
-      <c r="F42">
-        <v>5.9252351190257802</v>
-      </c>
+        <v>8.6946816919999996</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
       <c r="G42">
-        <v>82.287267956896798</v>
+        <v>3623.5096060000001</v>
       </c>
       <c r="H42">
-        <v>16.829620188994198</v>
+        <v>16.070390459999999</v>
       </c>
       <c r="S42" s="7" t="s">
         <v>97</v>
@@ -6014,28 +6016,26 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C43"/>
       <c r="D43">
-        <v>176.13127830200099</v>
+        <v>30.10996712</v>
       </c>
       <c r="E43">
-        <v>69.935231468980007</v>
+        <v>1.3599410999999999</v>
       </c>
       <c r="F43">
-        <v>94.0747648809742</v>
+        <v>0.56731377100000002</v>
       </c>
       <c r="G43">
-        <v>1306.4722716042299</v>
+        <v>45.721600359999996</v>
       </c>
       <c r="H43">
-        <v>30.368590125554501</v>
+        <v>19.473986740000001</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>98</v>
@@ -6075,24 +6075,26 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" t="s">
-        <v>182</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C44"/>
       <c r="D44">
-        <v>0.94390847309650405</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+        <v>125.4283288</v>
+      </c>
+      <c r="E44">
+        <v>0.65387113200000002</v>
+      </c>
+      <c r="F44">
+        <v>0.27276923800000002</v>
+      </c>
       <c r="G44">
-        <v>9.2903744403247792</v>
+        <v>21.98333044</v>
       </c>
       <c r="H44">
-        <v>12.730966355421801</v>
+        <v>27.376971279999999</v>
       </c>
       <c r="S44" s="7" t="s">
         <v>99</v>
@@ -6132,24 +6134,26 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" t="s">
-        <v>183</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C45"/>
       <c r="D45">
-        <v>1.2205575876499299</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>146.46227189999999</v>
+      </c>
+      <c r="E45">
+        <v>4.4337537459999998</v>
+      </c>
+      <c r="F45">
+        <v>1.84958713</v>
+      </c>
       <c r="G45">
-        <v>1684.8901733355401</v>
+        <v>149.06404169999999</v>
       </c>
       <c r="H45">
-        <v>13.033333333333299</v>
+        <v>28.788218520000001</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>100</v>
@@ -6189,24 +6193,26 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" t="s">
-        <v>184</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C46"/>
       <c r="D46">
-        <v>2.6363967824388599</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46"/>
+        <v>153.52863669999999</v>
+      </c>
+      <c r="E46">
+        <v>1.1258377939999999</v>
+      </c>
+      <c r="F46">
+        <v>0.46965510799999999</v>
+      </c>
       <c r="G46">
-        <v>14.4306237755846</v>
+        <v>37.850981709999999</v>
       </c>
       <c r="H46">
-        <v>14.0748195905841</v>
+        <v>29.25309996</v>
       </c>
       <c r="S46" s="7" t="s">
         <v>101</v>
@@ -6246,24 +6252,28 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>6.1225563974322101</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>160.90626209999999</v>
+      </c>
+      <c r="E47">
+        <v>232.14245890000001</v>
+      </c>
+      <c r="F47">
+        <v>96.840674750000005</v>
+      </c>
       <c r="G47">
-        <v>533.25349711907597</v>
+        <v>7804.6944329999997</v>
       </c>
       <c r="H47">
-        <v>15.519461818383499</v>
+        <v>29.734584309999999</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>102</v>
@@ -6303,24 +6313,24 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48">
-        <v>7.1776204674203203</v>
+        <v>0.861210637</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48">
-        <v>1335.56471730773</v>
+        <v>1904.8924030000001</v>
       </c>
       <c r="H48">
-        <v>15.8386269617345</v>
+        <v>12.7</v>
       </c>
       <c r="S48" s="7" t="s">
         <v>103</v>
@@ -6360,26 +6370,24 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49"/>
+        <v>188</v>
+      </c>
+      <c r="C49" t="s">
+        <v>184</v>
+      </c>
       <c r="D49">
-        <v>11.192140993668801</v>
-      </c>
-      <c r="E49">
-        <v>4.4127653081118803</v>
-      </c>
-      <c r="F49">
-        <v>8.4815363583281602</v>
-      </c>
+        <v>1.076549462</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
       <c r="G49">
-        <v>82.768576556645201</v>
+        <v>34.948794579999998</v>
       </c>
       <c r="H49">
-        <v>16.829718722666701</v>
+        <v>12.93313088</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>104</v>
@@ -6419,28 +6427,24 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D50">
-        <v>176.435215569424</v>
-      </c>
-      <c r="E50">
-        <v>47.6151353183933</v>
-      </c>
-      <c r="F50">
-        <v>91.518463641671801</v>
-      </c>
+        <v>5.1286447920000002</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
       <c r="G50">
-        <v>893.09915612569296</v>
+        <v>806.34040430000005</v>
       </c>
       <c r="H50">
-        <v>30.385838232365799</v>
+        <v>15.064613189999999</v>
       </c>
       <c r="S50" s="7" t="s">
         <v>105</v>
@@ -6480,24 +6484,24 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D51">
-        <v>0.94293777189051897</v>
+        <v>5.9576977800000002</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51">
-        <v>15.1564201823637</v>
+        <v>3672.7946139999999</v>
       </c>
       <c r="H51">
-        <v>12.7297955476309</v>
+        <v>15.33104848</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>106</v>
@@ -6537,24 +6541,24 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D52">
-        <v>1.2205575876499299</v>
+        <v>7.1707308530000002</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52">
-        <v>1688.4157595802401</v>
+        <v>702.66786249999996</v>
       </c>
       <c r="H52">
-        <v>13.033333333333299</v>
+        <v>15.680744799999999</v>
       </c>
       <c r="S52" s="7" t="s">
         <v>107</v>
@@ -6594,24 +6598,24 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
         <v>184</v>
       </c>
       <c r="D53">
-        <v>2.67320356774299</v>
+        <v>8.7362605589999998</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53">
-        <v>15.921105217133601</v>
+        <v>2837.2664420000001</v>
       </c>
       <c r="H53">
-        <v>14.095715583292</v>
+        <v>16.080397730000001</v>
       </c>
       <c r="S53" s="7" t="s">
         <v>108</v>
@@ -6651,24 +6655,26 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" t="s">
-        <v>184</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C54"/>
       <c r="D54">
-        <v>6.2593712909591002</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54"/>
+        <v>29.999202270000001</v>
+      </c>
+      <c r="E54">
+        <v>0.49376792200000003</v>
+      </c>
+      <c r="F54">
+        <v>0.43748863199999999</v>
+      </c>
       <c r="G54">
-        <v>546.76232812840203</v>
+        <v>16.22476356</v>
       </c>
       <c r="H54">
-        <v>15.5628148808539</v>
+        <v>19.460795470000001</v>
       </c>
       <c r="S54" s="7" t="s">
         <v>109</v>
@@ -6708,24 +6714,26 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55" t="s">
-        <v>184</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C55"/>
       <c r="D55">
-        <v>7.3339440328560404</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55"/>
+        <v>146.17717519999999</v>
+      </c>
+      <c r="E55">
+        <v>2.2465758199999999</v>
+      </c>
+      <c r="F55">
+        <v>1.990512826</v>
+      </c>
       <c r="G55">
-        <v>1606.3330472391799</v>
+        <v>73.820432420000003</v>
       </c>
       <c r="H55">
-        <v>15.8832158768732</v>
+        <v>28.76937839</v>
       </c>
       <c r="S55" s="7" t="s">
         <v>110</v>
@@ -6765,26 +6773,26 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C56"/>
       <c r="D56">
-        <v>11.4180978734609</v>
+        <v>153.7705053</v>
       </c>
       <c r="E56">
-        <v>3.9880714944659501</v>
+        <v>0.64945898400000002</v>
       </c>
       <c r="F56">
-        <v>12.0935561195624</v>
+        <v>0.57543414599999998</v>
       </c>
       <c r="G56">
-        <v>74.793005809451401</v>
+        <v>21.340629880000002</v>
       </c>
       <c r="H56">
-        <v>16.878145285564699</v>
+        <v>29.268944560000001</v>
       </c>
       <c r="S56" s="7" t="s">
         <v>111</v>
@@ -6824,28 +6832,28 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
       </c>
       <c r="D57">
-        <v>177.918236860375</v>
+        <v>162.45360109999999</v>
       </c>
       <c r="E57">
-        <v>28.988758935211401</v>
+        <v>109.47436930000001</v>
       </c>
       <c r="F57">
-        <v>87.906443880437607</v>
+        <v>96.996564399999997</v>
       </c>
       <c r="G57">
-        <v>543.66036778896603</v>
+        <v>3597.2279279999998</v>
       </c>
       <c r="H57">
-        <v>30.469892800908799</v>
+        <v>29.835119550000002</v>
       </c>
       <c r="S57" s="7" t="s">
         <v>112</v>
@@ -6885,24 +6893,24 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D58">
-        <v>0.92869709870204098</v>
+        <v>0.861210637</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58">
-        <v>15.5978366201804</v>
+        <v>1953.257171</v>
       </c>
       <c r="H58">
-        <v>12.7125148568082</v>
+        <v>12.7</v>
       </c>
       <c r="S58" s="7" t="s">
         <v>113</v>
@@ -6942,24 +6950,24 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59">
-        <v>1.2205575876499299</v>
+        <v>1.077243612</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59">
-        <v>1653.9156977100499</v>
+        <v>37.269677999999999</v>
       </c>
       <c r="H59">
-        <v>13.033333333333299</v>
+        <v>12.933824660000001</v>
       </c>
       <c r="S59" s="7" t="s">
         <v>114</v>
@@ -6999,24 +7007,24 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
         <v>184</v>
       </c>
       <c r="D60">
-        <v>2.6458652377715102</v>
+        <v>5.8745982149999998</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60">
-        <v>15.060093733053399</v>
+        <v>4755.7350299999998</v>
       </c>
       <c r="H60">
-        <v>14.0802146777836</v>
+        <v>15.305474759999999</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>115</v>
@@ -7056,24 +7064,24 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
         <v>184</v>
       </c>
       <c r="D61">
-        <v>6.2162686585809004</v>
+        <v>8.6394619899999991</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61">
-        <v>538.33593305325496</v>
+        <v>3341.6015430000002</v>
       </c>
       <c r="H61">
-        <v>15.549225596609</v>
+        <v>16.057054010000002</v>
       </c>
       <c r="S61" s="7" t="s">
         <v>116</v>
@@ -7113,24 +7121,26 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62" t="s">
-        <v>184</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C62"/>
       <c r="D62">
-        <v>7.2875344176745402</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62"/>
+        <v>29.887868019999999</v>
+      </c>
+      <c r="E62">
+        <v>0.35814221299999999</v>
+      </c>
+      <c r="F62">
+        <v>0.46034276099999999</v>
+      </c>
       <c r="G62">
-        <v>1484.1987104826401</v>
+        <v>11.890139639999999</v>
       </c>
       <c r="H62">
-        <v>15.8700440731341</v>
+        <v>19.447511550000002</v>
       </c>
       <c r="S62" s="7" t="s">
         <v>18</v>
@@ -7170,26 +7180,26 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C63"/>
       <c r="D63">
-        <v>11.283558580053599</v>
+        <v>145.38494600000001</v>
       </c>
       <c r="E63">
-        <v>4.2395238645926696</v>
+        <v>1.5706748109999999</v>
       </c>
       <c r="F63">
-        <v>16.117819531443001</v>
+        <v>2.0188873369999998</v>
       </c>
       <c r="G63">
-        <v>77.711010760232497</v>
+        <v>52.145606209999997</v>
       </c>
       <c r="H63">
-        <v>16.849384685684299</v>
+        <v>28.716989049999999</v>
       </c>
       <c r="S63" s="7" t="s">
         <v>20</v>
@@ -7229,28 +7239,26 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C64"/>
       <c r="D64">
-        <v>178.02129255945999</v>
+        <v>152.99370450000001</v>
       </c>
       <c r="E64">
-        <v>22.063809885497399</v>
+        <v>0.466084304</v>
       </c>
       <c r="F64">
-        <v>83.882180468556896</v>
+        <v>0.59908753400000003</v>
       </c>
       <c r="G64">
-        <v>404.432436798737</v>
+        <v>15.473762239999999</v>
       </c>
       <c r="H64">
-        <v>30.475727346512901</v>
+        <v>29.218041889999999</v>
       </c>
       <c r="S64" s="7" t="s">
         <v>21</v>
@@ -7290,24 +7298,28 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>0.92801730331537302</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65"/>
+        <v>162.72454809999999</v>
+      </c>
+      <c r="E65">
+        <v>75.404130940000002</v>
+      </c>
+      <c r="F65">
+        <v>96.921682369999999</v>
+      </c>
       <c r="G65">
-        <v>15.216803055640501</v>
+        <v>2503.3788610000001</v>
       </c>
       <c r="H65">
-        <v>12.7116850066529</v>
+        <v>29.85270882</v>
       </c>
       <c r="S65" s="7" t="s">
         <v>22</v>
@@ -7347,24 +7359,24 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
         <v>183</v>
       </c>
       <c r="D66">
-        <v>1.2205575876499299</v>
+        <v>0.861210637</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66">
-        <v>1650.46215862391</v>
+        <v>1947.7412280000001</v>
       </c>
       <c r="H66">
-        <v>13.033333333333299</v>
+        <v>12.7</v>
       </c>
       <c r="S66" s="7" t="s">
         <v>23</v>
@@ -7404,24 +7416,24 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
         <v>184</v>
       </c>
       <c r="D67">
-        <v>2.6506267670452899</v>
+        <v>1.0776332179999999</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67">
-        <v>15.4038866716058</v>
+        <v>36.284838360000002</v>
       </c>
       <c r="H67">
-        <v>14.0829226098696</v>
+        <v>12.93421391</v>
       </c>
       <c r="S67" s="7" t="s">
         <v>24</v>
@@ -7461,24 +7473,24 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
         <v>184</v>
       </c>
       <c r="D68">
-        <v>6.1833493996697904</v>
+        <v>5.0134346499999998</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68">
-        <v>524.77695662968199</v>
+        <v>1985.1397019999999</v>
       </c>
       <c r="H68">
-        <v>15.538804509581301</v>
+        <v>15.02540956</v>
       </c>
       <c r="S68" s="7" t="s">
         <v>37</v>
@@ -7518,24 +7530,24 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
         <v>184</v>
       </c>
       <c r="D69">
-        <v>7.2538624576939004</v>
+        <v>5.8886390720000001</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69">
-        <v>1481.3673459658601</v>
+        <v>3512.0204469999999</v>
       </c>
       <c r="H69">
-        <v>15.8604528362618</v>
+        <v>15.309812170000001</v>
       </c>
       <c r="S69" s="7" t="s">
         <v>38</v>
@@ -7575,26 +7587,24 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70"/>
+        <v>190</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
       <c r="D70">
-        <v>11.329620243643999</v>
-      </c>
-      <c r="E70">
-        <v>4.3490180399465403</v>
-      </c>
-      <c r="F70">
-        <v>21.542597020192801</v>
-      </c>
+        <v>8.4563816979999995</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
       <c r="G70">
-        <v>79.374349369902902</v>
+        <v>3324.1083979999999</v>
       </c>
       <c r="H70">
-        <v>16.859255534901202</v>
+        <v>16.012453900000001</v>
       </c>
       <c r="S70" s="7" t="s">
         <v>39</v>
@@ -7634,28 +7644,26 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C71"/>
       <c r="D71">
-        <v>178.22021828363401</v>
+        <v>145.02947019999999</v>
       </c>
       <c r="E71">
-        <v>15.8389752454963</v>
+        <v>1.0181167090000001</v>
       </c>
       <c r="F71">
-        <v>78.457402979807199</v>
+        <v>2.2635432180000001</v>
       </c>
       <c r="G71">
-        <v>289.07867092055602</v>
+        <v>33.204097160000003</v>
       </c>
       <c r="H71">
-        <v>30.4869872705742</v>
+        <v>28.693464299999999</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>40</v>
@@ -7695,24 +7703,28 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>0.92733613364864598</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72"/>
+        <v>162.90674050000001</v>
+      </c>
+      <c r="E72">
+        <v>43.960777479999997</v>
+      </c>
+      <c r="F72">
+        <v>97.736456779999997</v>
+      </c>
       <c r="G72">
-        <v>14.081022341232501</v>
+        <v>1433.7039299999999</v>
       </c>
       <c r="H72">
-        <v>12.710853023206599</v>
+        <v>29.864533869999999</v>
       </c>
       <c r="S72" s="7" t="s">
         <v>41</v>
@@ -7752,24 +7764,24 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
         <v>183</v>
       </c>
       <c r="D73">
-        <v>1.2205575876499299</v>
+        <v>0.861210637</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73">
-        <v>1664.2700317198301</v>
+        <v>1972.0589540000001</v>
       </c>
       <c r="H73">
-        <v>13.033333333333299</v>
+        <v>12.7</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>42</v>
@@ -7809,24 +7821,24 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
         <v>184</v>
       </c>
       <c r="D74">
-        <v>2.6554066272999699</v>
+        <v>1.078023951</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74">
-        <v>15.5152574484355</v>
+        <v>37.175470359999998</v>
       </c>
       <c r="H74">
-        <v>14.085637503220701</v>
+        <v>12.93460419</v>
       </c>
       <c r="S74" s="7" t="s">
         <v>25</v>
@@ -7866,24 +7878,24 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
         <v>184</v>
       </c>
       <c r="D75">
-        <v>6.20380766686195</v>
+        <v>5.173013482</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75">
-        <v>563.91414100186603</v>
+        <v>690.63427960000001</v>
       </c>
       <c r="H75">
-        <v>15.5452852227418</v>
+        <v>15.079556800000001</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>26</v>
@@ -7923,24 +7935,24 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
         <v>184</v>
       </c>
       <c r="D76">
-        <v>7.2795258500550499</v>
+        <v>5.9027386719999999</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76">
-        <v>1593.6981132968599</v>
+        <v>3955.8160549999998</v>
       </c>
       <c r="H76">
-        <v>15.867765532868599</v>
+        <v>15.31416099</v>
       </c>
       <c r="S76" s="7" t="s">
         <v>27</v>
@@ -7980,26 +7992,24 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77"/>
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>184</v>
+      </c>
       <c r="D77">
-        <v>11.4556015181254</v>
-      </c>
-      <c r="E77">
-        <v>3.3573916643262698</v>
-      </c>
-      <c r="F77">
-        <v>38.393434198912701</v>
-      </c>
+        <v>8.5475224539999992</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
       <c r="G77">
-        <v>61.650744676397998</v>
+        <v>3366.8334020000002</v>
       </c>
       <c r="H77">
-        <v>16.886124406953101</v>
+        <v>16.034731010000002</v>
       </c>
       <c r="S77" s="7" t="s">
         <v>28</v>
@@ -8039,28 +8049,26 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" t="s">
-        <v>19</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C78"/>
       <c r="D78">
-        <v>178.71818803687501</v>
+        <v>87.028674559999999</v>
       </c>
       <c r="E78">
-        <v>5.3873110026243998</v>
+        <v>0.56441078200000006</v>
       </c>
       <c r="F78">
-        <v>61.606565801087299</v>
+        <v>1.5886808640000001</v>
       </c>
       <c r="G78">
-        <v>98.925525622818895</v>
+        <v>18.355653199999999</v>
       </c>
       <c r="H78">
-        <v>30.5151606717844</v>
+        <v>24.631298879999999</v>
       </c>
       <c r="S78" s="7" t="s">
         <v>29</v>
@@ -8100,24 +8108,26 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" t="s">
-        <v>182</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C79"/>
       <c r="D79">
-        <v>0.94355711930810704</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79"/>
+        <v>145.43219049999999</v>
+      </c>
+      <c r="E79">
+        <v>0.80840259400000003</v>
+      </c>
+      <c r="F79">
+        <v>2.275459245</v>
+      </c>
       <c r="G79">
-        <v>14.7049140092806</v>
+        <v>26.29070553</v>
       </c>
       <c r="H79">
-        <v>12.730542675149501</v>
+        <v>28.72011479</v>
       </c>
       <c r="S79" s="7" t="s">
         <v>30</v>
@@ -8157,24 +8167,28 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>1.2205575876499299</v>
-      </c>
-      <c r="E80"/>
-      <c r="F80"/>
+        <v>163.08926220000001</v>
+      </c>
+      <c r="E80">
+        <v>34.154194889999999</v>
+      </c>
+      <c r="F80">
+        <v>96.135859890000006</v>
+      </c>
       <c r="G80">
-        <v>1618.8661729355199</v>
+        <v>1110.755813</v>
       </c>
       <c r="H80">
-        <v>13.033333333333299</v>
+        <v>29.876378299999999</v>
       </c>
       <c r="S80" s="7" t="s">
         <v>43</v>
@@ -8214,24 +8228,24 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D81">
-        <v>2.6685777289201802</v>
+        <v>0.861210637</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81">
-        <v>18.359554039855102</v>
+        <v>1939.5374429999999</v>
       </c>
       <c r="H81">
-        <v>14.093100636976599</v>
+        <v>12.7</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>44</v>
@@ -8271,24 +8285,24 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
         <v>184</v>
       </c>
       <c r="D82">
-        <v>6.1334755390153202</v>
+        <v>1.076570987</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82">
-        <v>553.21847406947802</v>
+        <v>41.561590729999999</v>
       </c>
       <c r="H82">
-        <v>15.522945411733399</v>
+        <v>12.933152400000001</v>
       </c>
       <c r="S82" s="7" t="s">
         <v>45</v>
@@ -8328,24 +8342,24 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
         <v>184</v>
       </c>
       <c r="D83">
-        <v>7.1913123906579903</v>
+        <v>5.1292910269999998</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83">
-        <v>1463.08315087604</v>
+        <v>679.90380879999998</v>
       </c>
       <c r="H83">
-        <v>15.842557773149601</v>
+        <v>15.064831460000001</v>
       </c>
       <c r="S83" s="7" t="s">
         <v>46</v>
@@ -8385,26 +8399,24 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84"/>
+        <v>192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
       <c r="D84">
-        <v>11.2168227114768</v>
-      </c>
-      <c r="E84">
-        <v>4.1963501289943101</v>
-      </c>
-      <c r="F84">
-        <v>71.3712567072468</v>
-      </c>
+        <v>5.850400102</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
       <c r="G84">
-        <v>74.7863166852636</v>
+        <v>3743.5911590000001</v>
       </c>
       <c r="H84">
-        <v>16.835038263863201</v>
+        <v>15.29798385</v>
       </c>
       <c r="S84" s="7" t="s">
         <v>47</v>
@@ -8444,28 +8456,24 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D85">
-        <v>175.08613305468799</v>
-      </c>
-      <c r="E85">
-        <v>1.6832578849251401</v>
-      </c>
-      <c r="F85">
-        <v>28.6287432927532</v>
-      </c>
+        <v>8.4630741629999999</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
       <c r="G85">
-        <v>29.998606735694</v>
+        <v>3247.5342820000001</v>
       </c>
       <c r="H85">
-        <v>30.309222553041899</v>
+        <v>16.014094790000001</v>
       </c>
       <c r="S85" s="7" t="s">
         <v>48</v>
@@ -8505,24 +8513,26 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" t="s">
-        <v>182</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C86"/>
       <c r="D86">
-        <v>0.92901190730528505</v>
-      </c>
-      <c r="E86"/>
-      <c r="F86"/>
+        <v>143.68400629999999</v>
+      </c>
+      <c r="E86">
+        <v>0.52810289099999996</v>
+      </c>
+      <c r="F86">
+        <v>2.063081307</v>
+      </c>
       <c r="G86">
-        <v>11.342316376781</v>
+        <v>16.632634750000001</v>
       </c>
       <c r="H86">
-        <v>12.712899001017799</v>
+        <v>28.604324219999999</v>
       </c>
       <c r="S86" s="7" t="s">
         <v>31</v>
@@ -8562,24 +8572,28 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="D87">
-        <v>1.2205575876499299</v>
-      </c>
-      <c r="E87"/>
-      <c r="F87"/>
+        <v>161.96506500000001</v>
+      </c>
+      <c r="E87">
+        <v>25.069671159999999</v>
+      </c>
+      <c r="F87">
+        <v>97.936918689999999</v>
+      </c>
       <c r="G87">
-        <v>1555.40598914462</v>
+        <v>789.57091600000001</v>
       </c>
       <c r="H87">
-        <v>13.033333333333299</v>
+        <v>29.80339369</v>
       </c>
       <c r="S87" s="7" t="s">
         <v>32</v>
@@ -8619,24 +8633,24 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D88">
-        <v>6.1535784318509403</v>
+        <v>0.861210637</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88">
-        <v>535.71670057861604</v>
+        <v>2005.782637</v>
       </c>
       <c r="H88">
-        <v>15.5293481324226</v>
+        <v>12.7</v>
       </c>
       <c r="S88" s="7" t="s">
         <v>33</v>
@@ -8676,24 +8690,24 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C89" t="s">
         <v>184</v>
       </c>
       <c r="D89">
-        <v>7.2165225081140898</v>
+        <v>1.0934124869999999</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89">
-        <v>1459.84006923428</v>
+        <v>93.138580570000002</v>
       </c>
       <c r="H89">
-        <v>15.849782464738199</v>
+        <v>12.949893530000001</v>
       </c>
       <c r="S89" s="7" t="s">
         <v>34</v>
@@ -8733,26 +8747,24 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90"/>
+        <v>66</v>
+      </c>
+      <c r="C90" t="s">
+        <v>184</v>
+      </c>
       <c r="D90">
-        <v>11.3409536080732</v>
-      </c>
-      <c r="E90">
-        <v>4.2842853161108998</v>
-      </c>
-      <c r="F90">
-        <v>100</v>
-      </c>
+        <v>1.6664761079999999</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
       <c r="G90">
-        <v>73.195839958343399</v>
+        <v>290.19948829999998</v>
       </c>
       <c r="H90">
-        <v>16.861680356260798</v>
+        <v>13.433021030000001</v>
       </c>
       <c r="S90" s="7" t="s">
         <v>35</v>
@@ -8792,24 +8804,24 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D91">
-        <v>0.94833315352351799</v>
+        <v>5.1317410399999996</v>
       </c>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91">
-        <v>13.0185865399765</v>
+        <v>792.37032639999995</v>
       </c>
       <c r="H91">
-        <v>12.733405148615001</v>
+        <v>15.065658770000001</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>36</v>
@@ -8849,24 +8861,24 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D92">
-        <v>1.24218555224095</v>
+        <v>5.9072541410000001</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92">
-        <v>1582.7141636518299</v>
+        <v>3702.1768969999998</v>
       </c>
       <c r="H92">
-        <v>13.05</v>
+        <v>15.3155523</v>
       </c>
       <c r="S92" s="7" t="s">
         <v>52</v>
@@ -8906,24 +8918,24 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s">
         <v>184</v>
       </c>
       <c r="D93">
-        <v>5.7707010432624504</v>
+        <v>8.4678048809999993</v>
       </c>
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93">
-        <v>383.818972158522</v>
+        <v>3306.4638880000002</v>
       </c>
       <c r="H93">
-        <v>15.382804168100099</v>
+        <v>16.01525419</v>
       </c>
       <c r="S93" s="7" t="s">
         <v>53</v>
@@ -8963,24 +8975,28 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D94">
-        <v>7.1896795721976199</v>
-      </c>
-      <c r="E94"/>
-      <c r="F94"/>
+        <v>162.82695770000001</v>
+      </c>
+      <c r="E94">
+        <v>13.28371712</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
       <c r="G94">
-        <v>936.49964549415199</v>
+        <v>425.9240873</v>
       </c>
       <c r="H94">
-        <v>15.8160392278901</v>
+        <v>29.859355870000002</v>
       </c>
       <c r="S94" s="7" t="s">
         <v>54</v>
@@ -9020,26 +9036,24 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95"/>
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
       <c r="D95">
-        <v>11.2165898652176</v>
-      </c>
-      <c r="E95">
-        <v>4.14576647234228</v>
-      </c>
-      <c r="F95">
-        <v>0.83159585986745599</v>
-      </c>
+        <v>0.861210637</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
       <c r="G95">
-        <v>71.806076961823095</v>
+        <v>1950.1240769999999</v>
       </c>
       <c r="H95">
-        <v>16.7991495558752</v>
+        <v>12.7</v>
       </c>
       <c r="S95" s="7" t="s">
         <v>55</v>
@@ -9079,26 +9093,24 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96"/>
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>184</v>
+      </c>
       <c r="D96">
-        <v>31.977249712310101</v>
-      </c>
-      <c r="E96">
-        <v>1.8103254541089999</v>
-      </c>
-      <c r="F96">
-        <v>0.36313168208897201</v>
-      </c>
+        <v>1.076429493</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
       <c r="G96">
-        <v>31.3554489262524</v>
+        <v>42.016060660000001</v>
       </c>
       <c r="H96">
-        <v>19.898446522065299</v>
+        <v>12.933010940000001</v>
       </c>
       <c r="S96" s="7" t="s">
         <v>56</v>
@@ -9138,26 +9150,24 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97"/>
+        <v>67</v>
+      </c>
+      <c r="C97" t="s">
+        <v>184</v>
+      </c>
       <c r="D97">
-        <v>128.13125398791399</v>
-      </c>
-      <c r="E97">
-        <v>0.93954820746163903</v>
-      </c>
-      <c r="F97">
-        <v>0.188463196053963</v>
-      </c>
+        <v>5.075944947</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
       <c r="G97">
-        <v>16.2732926093198</v>
+        <v>787.64628230000005</v>
       </c>
       <c r="H97">
-        <v>27.3134311992406</v>
+        <v>15.04675304</v>
       </c>
       <c r="S97" s="7" t="s">
         <v>117</v>
@@ -9197,1862 +9207,2542 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98"/>
+        <v>67</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
       <c r="D98">
-        <v>150.93091531768201</v>
-      </c>
-      <c r="E98">
-        <v>3.0967360714574199</v>
-      </c>
-      <c r="F98">
-        <v>0.62117172139492105</v>
-      </c>
+        <v>5.8453165770000002</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98"/>
       <c r="G98">
-        <v>53.636515747085397</v>
+        <v>3387.0670639999998</v>
       </c>
       <c r="H98">
-        <v>28.663125039355702</v>
+        <v>15.29640762</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D99">
-        <v>165.85793504002299</v>
-      </c>
-      <c r="E99">
-        <v>488.53902256843401</v>
-      </c>
-      <c r="F99">
-        <v>97.9956375405947</v>
-      </c>
+        <v>8.3871853850000004</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
       <c r="G99">
-        <v>8461.6610432432899</v>
+        <v>3231.0097959999998</v>
       </c>
       <c r="H99">
-        <v>29.512932272020699</v>
+        <v>15.995440439999999</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>0.94839326593336803</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100"/>
+        <v>162.57417899999999</v>
+      </c>
+      <c r="E100">
+        <v>5.3131073000000001E-2</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
       <c r="G100">
-        <v>12.256658534625901</v>
+        <v>1.6301037920000001</v>
       </c>
       <c r="H100">
-        <v>12.733476963896599</v>
+        <v>29.842947729999999</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="C101" t="s">
         <v>183</v>
       </c>
       <c r="D101">
-        <v>1.24218555224095</v>
+        <v>0.861210637</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101">
-        <v>1600.5248627399801</v>
+        <v>1966.8634770000001</v>
       </c>
       <c r="H101">
-        <v>13.05</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="C102" t="s">
         <v>184</v>
       </c>
       <c r="D102">
-        <v>5.6685050062973801</v>
+        <v>1.076815783</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102">
-        <v>418.87168736071698</v>
+        <v>37.076822970000002</v>
       </c>
       <c r="H102">
-        <v>15.3489567885402</v>
+        <v>12.933397100000001</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="C103" t="s">
         <v>184</v>
       </c>
       <c r="D103">
-        <v>7.0709293884500299</v>
+        <v>5.1366433689999997</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103">
-        <v>873.79448588206697</v>
+        <v>826.08396570000002</v>
       </c>
       <c r="H103">
-        <v>15.7820935747869</v>
+        <v>15.0673134</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104"/>
+        <v>68</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
       <c r="D104">
-        <v>11.2909189493129</v>
-      </c>
-      <c r="E104">
-        <v>4.1448641646020796</v>
-      </c>
-      <c r="F104">
-        <v>1.13969486403801</v>
-      </c>
+        <v>5.8592005800000004</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
       <c r="G104">
-        <v>72.492443161158405</v>
+        <v>3663.267683</v>
       </c>
       <c r="H104">
-        <v>16.814958218913699</v>
+        <v>15.300710499999999</v>
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105"/>
+        <v>68</v>
+      </c>
+      <c r="C105" t="s">
+        <v>184</v>
+      </c>
       <c r="D105">
-        <v>31.6734563198799</v>
-      </c>
-      <c r="E105">
-        <v>1.2897796099654599</v>
-      </c>
-      <c r="F105">
-        <v>0.354644962740222</v>
-      </c>
+        <v>8.4772712590000001</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105"/>
       <c r="G105">
-        <v>22.557862297236099</v>
+        <v>3200.5444649999999</v>
       </c>
       <c r="H105">
-        <v>19.863574829804001</v>
+        <v>16.017572999999999</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="C106"/>
       <c r="D106">
-        <v>149.71681769620599</v>
+        <v>163.2688278</v>
       </c>
       <c r="E106">
-        <v>2.24556035002073</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.61745174176334305</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>39.274183561684097</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>28.5929469833914</v>
+        <v>29.888028980000001</v>
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="D107">
-        <v>165.49505433191999</v>
-      </c>
-      <c r="E107">
-        <v>356.00171595677199</v>
-      </c>
-      <c r="F107">
-        <v>97.888208431458395</v>
-      </c>
+        <v>0.63422439600000002</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
       <c r="G107">
-        <v>6226.3642750156996</v>
+        <v>25.003831349999999</v>
       </c>
       <c r="H107">
-        <v>29.4925387702115</v>
+        <v>12.367032</v>
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D108">
-        <v>0.94845338119240696</v>
+        <v>0.87498721599999996</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108">
-        <v>12.762538358304701</v>
+        <v>2015.674708</v>
       </c>
       <c r="H108">
-        <v>12.7335487791783</v>
+        <v>12.68333333</v>
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C109" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D109">
-        <v>1.24218555224095</v>
+        <v>1.091305988</v>
       </c>
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109">
-        <v>1555.5482754166601</v>
+        <v>50.691274980000003</v>
       </c>
       <c r="H109">
-        <v>13.05</v>
+        <v>12.916397480000001</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C110" t="s">
         <v>184</v>
       </c>
       <c r="D110">
-        <v>2.6410558542123002</v>
+        <v>5.0949035900000004</v>
       </c>
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110">
-        <v>16.533248760409499</v>
+        <v>748.11586829999999</v>
       </c>
       <c r="H110">
-        <v>14.0659749721118</v>
+        <v>15.030622190000001</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
         <v>184</v>
       </c>
       <c r="D111">
-        <v>5.7170643910757999</v>
+        <v>5.7576266479999996</v>
       </c>
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111">
-        <v>440.24697761037601</v>
+        <v>1801.204686</v>
       </c>
       <c r="H111">
-        <v>15.365090510222</v>
+        <v>15.247038890000001</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
         <v>184</v>
       </c>
       <c r="D112">
-        <v>7.1268622275612703</v>
+        <v>8.1393425920000002</v>
       </c>
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112">
-        <v>985.559855216801</v>
+        <v>2951.938674</v>
       </c>
       <c r="H112">
-        <v>15.7981290229254</v>
+        <v>15.912936439999999</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C113"/>
       <c r="D113">
-        <v>11.2868946159176</v>
+        <v>17.011354860000001</v>
       </c>
       <c r="E113">
-        <v>4.4305428499770398</v>
+        <v>0.52121556700000005</v>
       </c>
       <c r="F113">
-        <v>1.45108687476598</v>
+        <v>0.103876045</v>
       </c>
       <c r="G113">
-        <v>75.201352377715097</v>
+        <v>15.82057483</v>
       </c>
       <c r="H113">
-        <v>16.8141039950372</v>
+        <v>17.6609175</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C114"/>
       <c r="D114">
-        <v>31.515521966942298</v>
+        <v>29.220937670000001</v>
       </c>
       <c r="E114">
-        <v>0.94357094561034605</v>
+        <v>3.1039350240000001</v>
       </c>
       <c r="F114">
-        <v>0.30903739359902299</v>
+        <v>0.61860104500000002</v>
       </c>
       <c r="G114">
-        <v>16.0156020553069</v>
+        <v>94.214446870000003</v>
       </c>
       <c r="H114">
-        <v>19.8453735839609</v>
+        <v>19.342308809999999</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C115"/>
       <c r="D115">
-        <v>149.943724483973</v>
+        <v>53.173225819999999</v>
       </c>
       <c r="E115">
-        <v>1.7538443831355699</v>
+        <v>0.57304831599999995</v>
       </c>
       <c r="F115">
-        <v>0.57441732332263495</v>
+        <v>0.114206091</v>
       </c>
       <c r="G115">
-        <v>29.768692897877699</v>
+        <v>17.393866070000001</v>
       </c>
       <c r="H115">
-        <v>28.6060758024988</v>
+        <v>21.806129739999999</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
-      </c>
-      <c r="C116" t="s">
-        <v>19</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C116"/>
       <c r="D116">
-        <v>166.31807917016701</v>
+        <v>122.3480867</v>
       </c>
       <c r="E116">
-        <v>298.19785842282101</v>
+        <v>1.041240757</v>
       </c>
       <c r="F116">
-        <v>97.665458408312404</v>
+        <v>0.207514853</v>
       </c>
       <c r="G116">
-        <v>5061.4299395955004</v>
+        <v>31.6050179</v>
       </c>
       <c r="H116">
-        <v>29.538774137552299</v>
+        <v>27.066720369999999</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" t="s">
-        <v>182</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C117"/>
       <c r="D117">
-        <v>0.94783543670417003</v>
-      </c>
-      <c r="E117"/>
-      <c r="F117"/>
+        <v>143.17589570000001</v>
+      </c>
+      <c r="E117">
+        <v>10.76796027</v>
+      </c>
+      <c r="F117">
+        <v>2.1460086700000001</v>
+      </c>
       <c r="G117">
-        <v>12.2165425858592</v>
+        <v>326.84235100000001</v>
       </c>
       <c r="H117">
-        <v>12.7328104039208</v>
+        <v>28.448457779999998</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C118" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="D118">
-        <v>1.24218555224095</v>
-      </c>
-      <c r="E118"/>
-      <c r="F118"/>
+        <v>155.532107</v>
+      </c>
+      <c r="E118">
+        <v>485.75945769999998</v>
+      </c>
+      <c r="F118">
+        <v>96.809793299999995</v>
+      </c>
       <c r="G118">
-        <v>1530.8328457990499</v>
+        <v>14744.367480000001</v>
       </c>
       <c r="H118">
-        <v>13.05</v>
+        <v>29.247534829999999</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D119">
-        <v>2.6749101131156698</v>
+        <v>0.87498721599999996</v>
       </c>
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119">
-        <v>17.3956884375831</v>
+        <v>2049.398322</v>
       </c>
       <c r="H119">
-        <v>14.0850397345743</v>
+        <v>12.68333333</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C120" t="s">
         <v>184</v>
       </c>
       <c r="D120">
-        <v>5.7333851923197203</v>
+        <v>1.0749925410000001</v>
       </c>
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120">
-        <v>504.44214648684402</v>
+        <v>49.287086649999999</v>
       </c>
       <c r="H120">
-        <v>15.3704923081585</v>
+        <v>12.900067180000001</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
         <v>184</v>
       </c>
       <c r="D121">
-        <v>7.14931017468371</v>
+        <v>5.1050236580000004</v>
       </c>
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121">
-        <v>1064.1026766261</v>
+        <v>591.81244879999997</v>
       </c>
       <c r="H121">
-        <v>15.804541229109001</v>
+        <v>15.034061919999999</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>196</v>
-      </c>
-      <c r="C122"/>
+        <v>194</v>
+      </c>
+      <c r="C122" t="s">
+        <v>184</v>
+      </c>
       <c r="D122">
-        <v>11.3283145105597</v>
-      </c>
-      <c r="E122">
-        <v>4.5794821454494201</v>
-      </c>
-      <c r="F122">
-        <v>2.3251390885647001</v>
-      </c>
+        <v>5.7165827570000003</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122"/>
       <c r="G122">
-        <v>76.382458932842198</v>
+        <v>1926.456169</v>
       </c>
       <c r="H122">
-        <v>16.822886774415899</v>
+        <v>15.234123930000001</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>196</v>
-      </c>
-      <c r="C123"/>
+        <v>194</v>
+      </c>
+      <c r="C123" t="s">
+        <v>184</v>
+      </c>
       <c r="D123">
-        <v>150.57158843251199</v>
-      </c>
-      <c r="E123">
-        <v>1.06883011281384</v>
-      </c>
-      <c r="F123">
-        <v>0.542676790826225</v>
-      </c>
+        <v>8.158174249</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123"/>
       <c r="G123">
-        <v>17.827315317587399</v>
+        <v>2978.9754579999999</v>
       </c>
       <c r="H123">
-        <v>28.642372775683398</v>
+        <v>15.917669119999999</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
-      </c>
-      <c r="C124" t="s">
-        <v>19</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C124"/>
       <c r="D124">
-        <v>168.494155702093</v>
+        <v>29.163517729999999</v>
       </c>
       <c r="E124">
-        <v>191.30687928153901</v>
+        <v>2.3000604199999999</v>
       </c>
       <c r="F124">
-        <v>97.132184120609097</v>
+        <v>0.60152945300000005</v>
       </c>
       <c r="G124">
-        <v>3190.8607537235698</v>
+        <v>70.18827478</v>
       </c>
       <c r="H124">
-        <v>29.660718320990402</v>
+        <v>19.335395089999999</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>197</v>
-      </c>
-      <c r="C125" t="s">
-        <v>182</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C125"/>
       <c r="D125">
-        <v>0.94653042860718895</v>
-      </c>
-      <c r="E125"/>
-      <c r="F125"/>
+        <v>122.413236</v>
+      </c>
+      <c r="E125">
+        <v>0.91892131700000002</v>
+      </c>
+      <c r="F125">
+        <v>0.24032335499999999</v>
+      </c>
       <c r="G125">
-        <v>11.2495474053928</v>
+        <v>28.041655500000001</v>
       </c>
       <c r="H125">
-        <v>12.7312498800871</v>
+        <v>27.07112605</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
-      </c>
-      <c r="C126" t="s">
-        <v>183</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C126"/>
       <c r="D126">
-        <v>1.24218555224095</v>
-      </c>
-      <c r="E126"/>
-      <c r="F126"/>
+        <v>143.5302538</v>
+      </c>
+      <c r="E126">
+        <v>7.0200694160000001</v>
+      </c>
+      <c r="F126">
+        <v>1.8359424310000001</v>
+      </c>
       <c r="G126">
-        <v>1534.8030278526001</v>
+        <v>214.22331209999999</v>
       </c>
       <c r="H126">
-        <v>13.05</v>
+        <v>28.471560109999999</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D127">
-        <v>2.6840045268363499</v>
-      </c>
-      <c r="E127"/>
-      <c r="F127"/>
+        <v>156.95077000000001</v>
+      </c>
+      <c r="E127">
+        <v>372.12966039999998</v>
+      </c>
+      <c r="F127">
+        <v>97.322204760000005</v>
+      </c>
       <c r="G127">
-        <v>16.4953733999055</v>
+        <v>11355.84902</v>
       </c>
       <c r="H127">
-        <v>14.0901319702421</v>
+        <v>29.338495479999999</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D128">
-        <v>5.7679816999265796</v>
+        <v>0.87498721599999996</v>
       </c>
       <c r="E128"/>
       <c r="F128"/>
       <c r="G128">
-        <v>290.98396565826903</v>
+        <v>2031.1292249999999</v>
       </c>
       <c r="H128">
-        <v>15.3819087719945</v>
+        <v>12.68333333</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B129" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C129" t="s">
         <v>184</v>
       </c>
       <c r="D129">
-        <v>6.0791132137378403</v>
+        <v>1.0926064099999999</v>
       </c>
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129">
-        <v>270.73956178537998</v>
+        <v>43.629378770000002</v>
       </c>
       <c r="H129">
-        <v>15.482566704598501</v>
+        <v>12.917691550000001</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C130" t="s">
         <v>184</v>
       </c>
       <c r="D130">
-        <v>7.1969066978811798</v>
+        <v>5.1333186130000001</v>
       </c>
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130">
-        <v>1099.02539031586</v>
+        <v>760.03071069999999</v>
       </c>
       <c r="H130">
-        <v>15.8180931466121</v>
+        <v>15.0436554</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
-      </c>
-      <c r="C131"/>
+        <v>195</v>
+      </c>
+      <c r="C131" t="s">
+        <v>184</v>
+      </c>
       <c r="D131">
-        <v>11.4161698154583</v>
-      </c>
-      <c r="E131">
-        <v>4.6721778419706403</v>
-      </c>
-      <c r="F131">
-        <v>5.2445249392630897</v>
-      </c>
+        <v>5.8030870390000002</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131"/>
       <c r="G131">
-        <v>78.016210470968602</v>
+        <v>2302.0838119999999</v>
       </c>
       <c r="H131">
-        <v>16.8414487947536</v>
+        <v>15.26127374</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D132">
-        <v>172.06453333875501</v>
-      </c>
-      <c r="E132">
-        <v>84.414591619118596</v>
-      </c>
-      <c r="F132">
-        <v>94.755475060736899</v>
-      </c>
+        <v>8.2779399090000005</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
       <c r="G132">
-        <v>1409.5581909185801</v>
+        <v>2918.8150380000002</v>
       </c>
       <c r="H132">
-        <v>29.859874744880901</v>
+        <v>15.94760853</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s">
-        <v>198</v>
-      </c>
-      <c r="C133" t="s">
-        <v>182</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C133"/>
       <c r="D133">
-        <v>0.94693334819407904</v>
-      </c>
-      <c r="E133"/>
-      <c r="F133"/>
+        <v>29.389316869999998</v>
+      </c>
+      <c r="E133">
+        <v>1.962802808</v>
+      </c>
+      <c r="F133">
+        <v>0.59691054099999996</v>
+      </c>
       <c r="G133">
-        <v>12.667488915836699</v>
+        <v>58.691079889999997</v>
       </c>
       <c r="H133">
-        <v>12.7317318614309</v>
+        <v>19.36254258</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B134" t="s">
-        <v>198</v>
-      </c>
-      <c r="C134" t="s">
-        <v>183</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C134"/>
       <c r="D134">
-        <v>1.24218555224095</v>
-      </c>
-      <c r="E134"/>
-      <c r="F134"/>
+        <v>123.2823628</v>
+      </c>
+      <c r="E134">
+        <v>0.84124196900000003</v>
+      </c>
+      <c r="F134">
+        <v>0.25583120100000001</v>
+      </c>
       <c r="G134">
-        <v>1530.8840193348699</v>
+        <v>25.154538909999999</v>
       </c>
       <c r="H134">
-        <v>13.05</v>
+        <v>27.129843560000001</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
-      </c>
-      <c r="C135" t="s">
-        <v>184</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C135"/>
       <c r="D135">
-        <v>5.7572813035370798</v>
-      </c>
-      <c r="E135"/>
-      <c r="F135"/>
+        <v>144.2623696</v>
+      </c>
+      <c r="E135">
+        <v>5.770784967</v>
+      </c>
+      <c r="F135">
+        <v>1.754961</v>
+      </c>
       <c r="G135">
-        <v>270.19847770690001</v>
+        <v>172.55610200000001</v>
       </c>
       <c r="H135">
-        <v>15.378382697953199</v>
+        <v>28.519252999999999</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>198</v>
-      </c>
-      <c r="C136" t="s">
-        <v>184</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C136"/>
       <c r="D136">
-        <v>6.0675499715248504</v>
-      </c>
-      <c r="E136"/>
-      <c r="F136"/>
+        <v>150.97781570000001</v>
+      </c>
+      <c r="E136">
+        <v>1.203714781</v>
+      </c>
+      <c r="F136">
+        <v>0.36606328399999999</v>
+      </c>
       <c r="G136">
-        <v>293.171276628898</v>
+        <v>35.99308096</v>
       </c>
       <c r="H136">
-        <v>15.4788884259225</v>
+        <v>28.9544897</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C137" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D137">
-        <v>7.1821838031664802</v>
-      </c>
-      <c r="E137"/>
-      <c r="F137"/>
+        <v>158.274012</v>
+      </c>
+      <c r="E137">
+        <v>319.04841900000002</v>
+      </c>
+      <c r="F137">
+        <v>97.026233970000007</v>
+      </c>
       <c r="G137">
-        <v>1158.70502890384</v>
+        <v>9540.0802199999998</v>
       </c>
       <c r="H137">
-        <v>15.8139075191531</v>
+        <v>29.423206140000001</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
-      </c>
-      <c r="C138"/>
+        <v>196</v>
+      </c>
+      <c r="C138" t="s">
+        <v>182</v>
+      </c>
       <c r="D138">
-        <v>11.388989105739901</v>
-      </c>
-      <c r="E138">
-        <v>3.5395215446797299</v>
-      </c>
-      <c r="F138">
-        <v>5.7178002113669404</v>
-      </c>
+        <v>0.16266978000000001</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138"/>
       <c r="G138">
-        <v>58.865671009771603</v>
+        <v>42.039885060000003</v>
       </c>
       <c r="H138">
-        <v>16.835715753506701</v>
+        <v>11.27145378</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="D139">
-        <v>171.90873347119199</v>
-      </c>
-      <c r="E139">
-        <v>58.364032511707101</v>
-      </c>
-      <c r="F139">
-        <v>94.282199788633093</v>
-      </c>
+        <v>0.64352577399999999</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139"/>
       <c r="G139">
-        <v>970.65038120812801</v>
+        <v>26.58019041</v>
       </c>
       <c r="H139">
-        <v>29.851207525518799</v>
+        <v>12.38078771</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B140" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C140" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D140">
-        <v>0.94665141245720397</v>
+        <v>0.87498721599999996</v>
       </c>
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140">
-        <v>10.902344390506901</v>
+        <v>2035.487421</v>
       </c>
       <c r="H140">
-        <v>12.7313946197667</v>
+        <v>12.68333333</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B141" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D141">
-        <v>1.24218555224095</v>
+        <v>1.0935668569999999</v>
       </c>
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141">
-        <v>1518.92008891365</v>
+        <v>49.786155049999998</v>
       </c>
       <c r="H141">
-        <v>13.05</v>
+        <v>12.91864659</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C142" t="s">
         <v>184</v>
       </c>
       <c r="D142">
-        <v>5.8158182289531704</v>
+        <v>5.1617911860000003</v>
       </c>
       <c r="E142"/>
       <c r="F142"/>
       <c r="G142">
-        <v>251.335692100053</v>
+        <v>757.2420813</v>
       </c>
       <c r="H142">
-        <v>15.3976185911926</v>
+        <v>15.05327402</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C143" t="s">
         <v>184</v>
       </c>
       <c r="D143">
-        <v>6.1285212328593897</v>
+        <v>5.8367866270000004</v>
       </c>
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143">
-        <v>333.42526045475103</v>
+        <v>1876.800688</v>
       </c>
       <c r="H143">
-        <v>15.4982308165295</v>
+        <v>15.27177919</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C144" t="s">
         <v>184</v>
       </c>
       <c r="D144">
-        <v>7.1924832972913997</v>
+        <v>8.3315050540000009</v>
       </c>
       <c r="E144"/>
       <c r="F144"/>
       <c r="G144">
-        <v>1339.30021045387</v>
+        <v>2796.3967590000002</v>
       </c>
       <c r="H144">
-        <v>15.8168361967628</v>
+        <v>15.96091088</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C145"/>
       <c r="D145">
-        <v>11.487703897394599</v>
+        <v>29.616605190000001</v>
       </c>
       <c r="E145">
-        <v>4.4115962096019699</v>
+        <v>1.0376134159999999</v>
       </c>
       <c r="F145">
-        <v>10.802586328199499</v>
+        <v>0.50492997900000003</v>
       </c>
       <c r="G145">
-        <v>72.688783951353003</v>
+        <v>30.737174339999999</v>
       </c>
       <c r="H145">
-        <v>16.856495858576601</v>
+        <v>19.389761230000001</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
-      </c>
-      <c r="C146" t="s">
-        <v>19</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C146"/>
       <c r="D146">
-        <v>172.83216116852799</v>
+        <v>145.7714235</v>
       </c>
       <c r="E146">
-        <v>36.426737089209702</v>
+        <v>3.6628272320000002</v>
       </c>
       <c r="F146">
-        <v>89.197413671800504</v>
+        <v>1.7824280699999999</v>
       </c>
       <c r="G146">
-        <v>600.19437331260201</v>
+        <v>108.5037621</v>
       </c>
       <c r="H146">
-        <v>29.9025477439186</v>
+        <v>28.617402630000001</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
-      </c>
-      <c r="C147" t="s">
-        <v>182</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C147"/>
       <c r="D147">
-        <v>0.94739573461850302</v>
-      </c>
-      <c r="E147"/>
-      <c r="F147"/>
+        <v>153.3112635</v>
+      </c>
+      <c r="E147">
+        <v>1.3281040040000001</v>
+      </c>
+      <c r="F147">
+        <v>0.64629033999999996</v>
+      </c>
       <c r="G147">
-        <v>11.1001067875546</v>
+        <v>39.34236362</v>
       </c>
       <c r="H147">
-        <v>12.7322847893765</v>
+        <v>29.104837239999998</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B148" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C148" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="D148">
-        <v>1.24218555224095</v>
-      </c>
-      <c r="E148"/>
-      <c r="F148"/>
+        <v>161.18423609999999</v>
+      </c>
+      <c r="E148">
+        <v>199.4679515</v>
+      </c>
+      <c r="F148">
+        <v>97.066351609999998</v>
+      </c>
       <c r="G148">
-        <v>1600.9555324834701</v>
+        <v>5908.8299260000003</v>
       </c>
       <c r="H148">
-        <v>13.05</v>
+        <v>29.609079940000001</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B149" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C149" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D149">
-        <v>6.0543028243420096</v>
+        <v>0.63158446499999998</v>
       </c>
       <c r="E149"/>
       <c r="F149"/>
       <c r="G149">
-        <v>589.04508158507997</v>
+        <v>25.226700910000002</v>
       </c>
       <c r="H149">
-        <v>15.474668712653299</v>
+        <v>12.36310035</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D150">
-        <v>7.1653182768563601</v>
+        <v>0.87498721599999996</v>
       </c>
       <c r="E150"/>
       <c r="F150"/>
       <c r="G150">
-        <v>1369.86348643009</v>
+        <v>2061.3083780000002</v>
       </c>
       <c r="H150">
-        <v>15.809105776467501</v>
+        <v>12.68333333</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>200</v>
-      </c>
-      <c r="C151"/>
+        <v>197</v>
+      </c>
+      <c r="C151" t="s">
+        <v>184</v>
+      </c>
       <c r="D151">
-        <v>11.437114721493</v>
-      </c>
-      <c r="E151">
-        <v>4.2776230811431697</v>
-      </c>
-      <c r="F151">
-        <v>17.348916412589599</v>
-      </c>
+        <v>1.0942187619999999</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151"/>
       <c r="G151">
-        <v>74.178669480260993</v>
+        <v>42.040105730000001</v>
       </c>
       <c r="H151">
-        <v>16.8458606742917</v>
+        <v>12.91929448</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B152" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D152">
-        <v>172.28587185193899</v>
-      </c>
-      <c r="E152">
-        <v>20.378804902099699</v>
-      </c>
-      <c r="F152">
-        <v>82.651083587410398</v>
-      </c>
+        <v>5.1312192369999998</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152"/>
       <c r="G152">
-        <v>353.390797777253</v>
+        <v>748.54724969999995</v>
       </c>
       <c r="H152">
-        <v>29.872184309856401</v>
+        <v>15.042944800000001</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B153" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C153" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D153">
-        <v>0.96119008313617404</v>
+        <v>5.8597203130000004</v>
       </c>
       <c r="E153"/>
       <c r="F153"/>
       <c r="G153">
-        <v>12.5556046512284</v>
+        <v>1963.1337619999999</v>
       </c>
       <c r="H153">
-        <v>12.748688234421399</v>
+        <v>15.27890594</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B154" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C154" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D154">
-        <v>1.24218555224095</v>
+        <v>8.3679664480000007</v>
       </c>
       <c r="E154"/>
       <c r="F154"/>
       <c r="G154">
-        <v>1530.5641086368701</v>
+        <v>2632.6071529999999</v>
       </c>
       <c r="H154">
-        <v>13.05</v>
+        <v>15.969935019999999</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
-      </c>
-      <c r="C155" t="s">
-        <v>184</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C155"/>
       <c r="D155">
-        <v>2.6799292858822001</v>
-      </c>
-      <c r="E155"/>
-      <c r="F155"/>
+        <v>29.77130537</v>
+      </c>
+      <c r="E155">
+        <v>0.45603642100000003</v>
+      </c>
+      <c r="F155">
+        <v>0.51111581399999995</v>
+      </c>
       <c r="G155">
-        <v>15.9800439205614</v>
+        <v>13.52216758</v>
       </c>
       <c r="H155">
-        <v>14.087851636993101</v>
+        <v>19.40822601</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
-      </c>
-      <c r="C156" t="s">
-        <v>184</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C156"/>
       <c r="D156">
-        <v>6.1150652776139003</v>
-      </c>
-      <c r="E156"/>
-      <c r="F156"/>
+        <v>146.44697239999999</v>
+      </c>
+      <c r="E156">
+        <v>1.7573993489999999</v>
+      </c>
+      <c r="F156">
+        <v>1.9696553990000001</v>
+      </c>
       <c r="G156">
-        <v>613.43801559483904</v>
+        <v>52.109540799999998</v>
       </c>
       <c r="H156">
-        <v>15.4939732096935</v>
+        <v>28.661273820000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>201</v>
-      </c>
-      <c r="C157" t="s">
-        <v>184</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C157"/>
       <c r="D157">
-        <v>7.2345317505703202</v>
-      </c>
-      <c r="E157"/>
-      <c r="F157"/>
+        <v>154.80121299999999</v>
+      </c>
+      <c r="E157">
+        <v>0.65269301300000004</v>
+      </c>
+      <c r="F157">
+        <v>0.73152429299999999</v>
+      </c>
       <c r="G157">
-        <v>1250.9084798362001</v>
+        <v>19.35333206</v>
       </c>
       <c r="H157">
-        <v>15.8287640603364</v>
+        <v>29.200613579999999</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B158" t="s">
-        <v>201</v>
-      </c>
-      <c r="C158"/>
+        <v>197</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
       <c r="D158">
-        <v>11.456198873414101</v>
+        <v>163.50357790000001</v>
       </c>
       <c r="E158">
-        <v>4.4379248330488004</v>
+        <v>86.357567410000001</v>
       </c>
       <c r="F158">
-        <v>21.591555288398499</v>
+        <v>96.787704489999996</v>
       </c>
       <c r="G158">
-        <v>73.466324501059802</v>
+        <v>2560.632098</v>
       </c>
       <c r="H158">
-        <v>16.8498761547974</v>
+        <v>29.75680771</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B159" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="D159">
-        <v>173.20865470608101</v>
-      </c>
-      <c r="E159">
-        <v>16.116059230495601</v>
-      </c>
-      <c r="F159">
-        <v>78.408444711601504</v>
-      </c>
+        <v>0.63071292599999995</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159"/>
       <c r="G159">
-        <v>266.78857385975698</v>
+        <v>26.346540709999999</v>
       </c>
       <c r="H159">
-        <v>29.923458872404201</v>
+        <v>12.36179967</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B160" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D160">
-        <v>0.94751649032589802</v>
+        <v>0.87498721599999996</v>
       </c>
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160">
-        <v>10.335670021473501</v>
+        <v>2025.5800079999999</v>
       </c>
       <c r="H160">
-        <v>12.7324291574523</v>
+        <v>12.68333333</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="C161" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D161">
-        <v>1.24218555224095</v>
+        <v>1.0951836239999999</v>
       </c>
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161">
-        <v>1534.24896607082</v>
+        <v>42.533950400000002</v>
       </c>
       <c r="H161">
-        <v>13.05</v>
+        <v>12.92025288</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="C162" t="s">
         <v>184</v>
       </c>
       <c r="D162">
-        <v>6.1034129421636703</v>
+        <v>5.2099132370000003</v>
       </c>
       <c r="E162"/>
       <c r="F162"/>
       <c r="G162">
-        <v>607.37869385919703</v>
+        <v>484.4799764</v>
       </c>
       <c r="H162">
-        <v>15.4902812111561</v>
+        <v>15.06945159</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B163" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="C163" t="s">
         <v>184</v>
       </c>
       <c r="D163">
-        <v>7.2197152358971399</v>
+        <v>5.8937526890000003</v>
       </c>
       <c r="E163"/>
       <c r="F163"/>
       <c r="G163">
-        <v>1293.2732802308201</v>
+        <v>1986.54729</v>
       </c>
       <c r="H163">
-        <v>15.824566308574701</v>
+        <v>15.289448309999999</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
-      </c>
-      <c r="C164"/>
+        <v>198</v>
+      </c>
+      <c r="C164" t="s">
+        <v>184</v>
+      </c>
       <c r="D164">
-        <v>11.5084568241108</v>
-      </c>
-      <c r="E164">
-        <v>4.8195899289130999</v>
-      </c>
-      <c r="F164">
-        <v>46.213307311973203</v>
-      </c>
+        <v>8.4220858080000003</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164"/>
       <c r="G164">
-        <v>79.858549460932295</v>
+        <v>2428.0949989999999</v>
       </c>
       <c r="H164">
-        <v>16.8608501105725</v>
+        <v>15.98328412</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B165" t="s">
-        <v>78</v>
-      </c>
-      <c r="C165" t="s">
-        <v>19</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C165"/>
       <c r="D165">
-        <v>173.652793797442</v>
+        <v>147.44743560000001</v>
       </c>
       <c r="E165">
-        <v>5.6094189632170197</v>
+        <v>1.2534329280000001</v>
       </c>
       <c r="F165">
-        <v>53.786692688026903</v>
+        <v>2.0403431470000002</v>
       </c>
       <c r="G165">
-        <v>92.945679679885203</v>
+        <v>36.094301090000002</v>
       </c>
       <c r="H165">
-        <v>29.948111674512099</v>
+        <v>28.726171010000002</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>79</v>
-      </c>
-      <c r="C166" t="s">
-        <v>182</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C166"/>
       <c r="D166">
-        <v>0.94723553681707295</v>
-      </c>
-      <c r="E166"/>
-      <c r="F166"/>
+        <v>155.31896280000001</v>
+      </c>
+      <c r="E166">
+        <v>0.40860579299999999</v>
+      </c>
+      <c r="F166">
+        <v>0.665130149</v>
+      </c>
       <c r="G166">
-        <v>12.9283436738774</v>
+        <v>11.76635797</v>
       </c>
       <c r="H166">
-        <v>12.7320932455281</v>
+        <v>29.233855739999999</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B167" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="C167" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="D167">
-        <v>1.24218555224095</v>
-      </c>
-      <c r="E167"/>
-      <c r="F167"/>
+        <v>165.1269312</v>
+      </c>
+      <c r="E167">
+        <v>59.770418339999999</v>
+      </c>
+      <c r="F167">
+        <v>97.294526700000006</v>
+      </c>
       <c r="G167">
-        <v>1564.4364227389101</v>
+        <v>1721.1702580000001</v>
       </c>
       <c r="H167">
-        <v>13.05</v>
+        <v>29.860000249999999</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B168" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C168" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D168">
-        <v>2.6790868450141301</v>
+        <v>0.62984000100000004</v>
       </c>
       <c r="E168"/>
       <c r="F168"/>
       <c r="G168">
-        <v>17.007766247602401</v>
+        <v>26.588077219999999</v>
       </c>
       <c r="H168">
-        <v>14.087379935645099</v>
+        <v>12.360495569999999</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B169" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D169">
-        <v>6.1645322719762197</v>
+        <v>0.87498721599999996</v>
       </c>
       <c r="E169"/>
       <c r="F169"/>
       <c r="G169">
-        <v>588.867058276747</v>
+        <v>2021.1240009999999</v>
       </c>
       <c r="H169">
-        <v>15.5095943635457</v>
+        <v>12.68333333</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B170" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C170" t="s">
         <v>184</v>
       </c>
       <c r="D170">
-        <v>7.2300719187830698</v>
+        <v>1.0791264039999999</v>
       </c>
       <c r="E170"/>
       <c r="F170"/>
       <c r="G170">
-        <v>1482.9627889994099</v>
+        <v>42.738080199999999</v>
       </c>
       <c r="H170">
-        <v>15.827501118017601</v>
+        <v>12.90422233</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B171" t="s">
-        <v>79</v>
-      </c>
-      <c r="C171"/>
+        <v>199</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
       <c r="D171">
-        <v>11.607741076759099</v>
-      </c>
-      <c r="E171">
-        <v>4.3224973009805696</v>
-      </c>
-      <c r="F171">
-        <v>69.992543268261201</v>
-      </c>
+        <v>5.1377256229999997</v>
+      </c>
+      <c r="E171"/>
+      <c r="F171"/>
       <c r="G171">
-        <v>72.9232196578578</v>
+        <v>939.82816849999995</v>
       </c>
       <c r="H171">
-        <v>16.8816129881086</v>
+        <v>15.045146470000001</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B172" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D172">
-        <v>175.18285079057199</v>
-      </c>
-      <c r="E172">
-        <v>1.8531567032091201</v>
-      </c>
-      <c r="F172">
-        <v>30.007456731738799</v>
-      </c>
+        <v>5.8730082279999998</v>
+      </c>
+      <c r="E172"/>
+      <c r="F172"/>
       <c r="G172">
-        <v>31.263906931276399</v>
+        <v>1874.4863769999999</v>
       </c>
       <c r="H172">
-        <v>30.032913462577199</v>
+        <v>15.28302693</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B173" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="C173" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D173">
-        <v>0.94729598319434505</v>
+        <v>8.4765671000000005</v>
       </c>
       <c r="E173"/>
       <c r="F173"/>
       <c r="G173">
-        <v>12.095153971566001</v>
+        <v>2231.1107830000001</v>
       </c>
       <c r="H173">
-        <v>12.7321655223476</v>
+        <v>15.99666831</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B174" t="s">
-        <v>80</v>
-      </c>
-      <c r="C174" t="s">
-        <v>183</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C174"/>
       <c r="D174">
-        <v>1.24218555224095</v>
-      </c>
-      <c r="E174"/>
-      <c r="F174"/>
+        <v>147.9271224</v>
+      </c>
+      <c r="E174">
+        <v>0.76422026499999995</v>
+      </c>
+      <c r="F174">
+        <v>2.102965218</v>
+      </c>
       <c r="G174">
-        <v>1518.2356166561499</v>
+        <v>21.698163910000002</v>
       </c>
       <c r="H174">
-        <v>13.05</v>
+        <v>28.757255829999998</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B175" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="C175" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D175">
-        <v>2.67866569507144</v>
-      </c>
-      <c r="E175"/>
-      <c r="F175"/>
+        <v>165.95657019999999</v>
+      </c>
+      <c r="E175">
+        <v>35.57590836</v>
+      </c>
+      <c r="F175">
+        <v>97.897034779999998</v>
+      </c>
       <c r="G175">
-        <v>16.872872699540601</v>
+        <v>1010.090842</v>
       </c>
       <c r="H175">
-        <v>14.087144084971101</v>
+        <v>29.91267521</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B176" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C176" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D176">
-        <v>6.1098048226432402</v>
+        <v>0.628965687</v>
       </c>
       <c r="E176"/>
       <c r="F176"/>
       <c r="G176">
-        <v>581.43095284284595</v>
+        <v>26.294175330000002</v>
       </c>
       <c r="H176">
-        <v>15.492307038802901</v>
+        <v>12.35918803</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B177" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C177" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D177">
-        <v>7.16895396728615</v>
+        <v>0.87498721599999996</v>
       </c>
       <c r="E177"/>
       <c r="F177"/>
       <c r="G177">
-        <v>1367.59046094978</v>
+        <v>2038.2297659999999</v>
       </c>
       <c r="H177">
-        <v>15.810141516455399</v>
+        <v>12.68333333</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>76</v>
+      </c>
+      <c r="B178" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" t="s">
+        <v>184</v>
+      </c>
+      <c r="D178">
+        <v>1.080017963</v>
+      </c>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178">
+        <v>43.211284290000002</v>
+      </c>
+      <c r="H178">
+        <v>12.905116960000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>76</v>
+      </c>
+      <c r="B179" t="s">
+        <v>200</v>
+      </c>
+      <c r="C179" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179">
+        <v>5.1660570339999996</v>
+      </c>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179">
+        <v>589.50882790000003</v>
+      </c>
+      <c r="H179">
+        <v>15.0547121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" t="s">
+        <v>200</v>
+      </c>
+      <c r="C180" t="s">
+        <v>184</v>
+      </c>
+      <c r="D180">
+        <v>5.8519577580000002</v>
+      </c>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180">
+        <v>2012.7798419999999</v>
+      </c>
+      <c r="H180">
+        <v>15.276495730000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>76</v>
+      </c>
+      <c r="B181" t="s">
+        <v>200</v>
+      </c>
+      <c r="C181" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181">
+        <v>8.4617248909999994</v>
+      </c>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181">
+        <v>2130.8675229999999</v>
+      </c>
+      <c r="H181">
+        <v>15.993027440000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>76</v>
+      </c>
+      <c r="B182" t="s">
+        <v>200</v>
+      </c>
+      <c r="C182"/>
+      <c r="D182">
+        <v>147.6153693</v>
+      </c>
+      <c r="E182">
+        <v>0.57922712099999996</v>
+      </c>
+      <c r="F182">
+        <v>1.9301558139999999</v>
+      </c>
+      <c r="G182">
+        <v>16.38605454</v>
+      </c>
+      <c r="H182">
+        <v>28.737055779999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>76</v>
+      </c>
+      <c r="B183" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183">
+        <v>165.98083249999999</v>
+      </c>
+      <c r="E183">
+        <v>29.430118050000001</v>
+      </c>
+      <c r="F183">
+        <v>98.069844189999998</v>
+      </c>
+      <c r="G183">
+        <v>832.5637772</v>
+      </c>
+      <c r="H183">
+        <v>29.91421502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>77</v>
+      </c>
+      <c r="B184" t="s">
+        <v>201</v>
+      </c>
+      <c r="C184" t="s">
+        <v>182</v>
+      </c>
+      <c r="D184">
+        <v>0.64069878499999999</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184">
+        <v>27.264442450000001</v>
+      </c>
+      <c r="H184">
+        <v>12.376622729999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>77</v>
+      </c>
+      <c r="B185" t="s">
+        <v>201</v>
+      </c>
+      <c r="C185" t="s">
+        <v>183</v>
+      </c>
+      <c r="D185">
+        <v>0.87498721599999996</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185">
+        <v>2045.069898</v>
+      </c>
+      <c r="H185">
+        <v>12.68333333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>77</v>
+      </c>
+      <c r="B186" t="s">
+        <v>201</v>
+      </c>
+      <c r="C186" t="s">
+        <v>184</v>
+      </c>
+      <c r="D186">
+        <v>1.0797484230000001</v>
+      </c>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186">
+        <v>42.083001639999999</v>
+      </c>
+      <c r="H186">
+        <v>12.90484655</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>77</v>
+      </c>
+      <c r="B187" t="s">
+        <v>201</v>
+      </c>
+      <c r="C187" t="s">
+        <v>184</v>
+      </c>
+      <c r="D187">
+        <v>5.1574827589999996</v>
+      </c>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187">
+        <v>506.11408180000001</v>
+      </c>
+      <c r="H187">
+        <v>15.051820790000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>77</v>
+      </c>
+      <c r="B188" t="s">
+        <v>201</v>
+      </c>
+      <c r="C188" t="s">
+        <v>184</v>
+      </c>
+      <c r="D188">
+        <v>5.8417849899999998</v>
+      </c>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188">
+        <v>2290.9822300000001</v>
+      </c>
+      <c r="H188">
+        <v>15.273334009999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>77</v>
+      </c>
+      <c r="B189" t="s">
+        <v>201</v>
+      </c>
+      <c r="C189" t="s">
+        <v>184</v>
+      </c>
+      <c r="D189">
+        <v>8.4452935710000006</v>
+      </c>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189">
+        <v>1979.0460270000001</v>
+      </c>
+      <c r="H189">
+        <v>15.98899209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>77</v>
+      </c>
+      <c r="B190" t="s">
+        <v>201</v>
+      </c>
+      <c r="C190" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190">
+        <v>164.8449588</v>
+      </c>
+      <c r="E190">
+        <v>19.34385623</v>
+      </c>
+      <c r="F190">
+        <v>100</v>
+      </c>
+      <c r="G190">
+        <v>542.40101909999998</v>
+      </c>
+      <c r="H190">
+        <v>29.842087790000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>78</v>
+      </c>
+      <c r="B191" t="s">
+        <v>78</v>
+      </c>
+      <c r="C191" t="s">
+        <v>182</v>
+      </c>
+      <c r="D191">
+        <v>0.62864223900000005</v>
+      </c>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191">
+        <v>27.925073749999999</v>
+      </c>
+      <c r="H191">
+        <v>12.358703970000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>78</v>
+      </c>
+      <c r="B192" t="s">
+        <v>78</v>
+      </c>
+      <c r="C192" t="s">
+        <v>183</v>
+      </c>
+      <c r="D192">
+        <v>0.87498721599999996</v>
+      </c>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192">
+        <v>2077.0319549999999</v>
+      </c>
+      <c r="H192">
+        <v>12.68333333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>78</v>
+      </c>
+      <c r="B193" t="s">
+        <v>78</v>
+      </c>
+      <c r="C193" t="s">
+        <v>184</v>
+      </c>
+      <c r="D193">
+        <v>1.063409931</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193">
+        <v>46.023990249999997</v>
+      </c>
+      <c r="H193">
+        <v>12.8883624</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>78</v>
+      </c>
+      <c r="B194" t="s">
+        <v>78</v>
+      </c>
+      <c r="C194" t="s">
+        <v>184</v>
+      </c>
+      <c r="D194">
+        <v>5.7549442969999998</v>
+      </c>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194">
+        <v>2687.1083749999998</v>
+      </c>
+      <c r="H194">
+        <v>15.24619669</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>78</v>
+      </c>
+      <c r="B195" t="s">
+        <v>78</v>
+      </c>
+      <c r="C195" t="s">
+        <v>184</v>
+      </c>
+      <c r="D195">
+        <v>8.4123399840000008</v>
+      </c>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195">
+        <v>1844.760207</v>
+      </c>
+      <c r="H195">
+        <v>15.980884189999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>78</v>
+      </c>
+      <c r="B196" t="s">
+        <v>78</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196">
+        <v>164.502816</v>
+      </c>
+      <c r="E196">
+        <v>10.715375740000001</v>
+      </c>
+      <c r="F196">
+        <v>100</v>
+      </c>
+      <c r="G196">
+        <v>301.40553840000001</v>
+      </c>
+      <c r="H196">
+        <v>29.82034633</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>79</v>
+      </c>
+      <c r="B197" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" t="s">
+        <v>182</v>
+      </c>
+      <c r="D197">
+        <v>0.63957059400000005</v>
+      </c>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197">
+        <v>35.763420170000003</v>
+      </c>
+      <c r="H197">
+        <v>12.374956729999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>79</v>
+      </c>
+      <c r="B198" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" t="s">
+        <v>183</v>
+      </c>
+      <c r="D198">
+        <v>0.87498721599999996</v>
+      </c>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198">
+        <v>2091.8424479999999</v>
+      </c>
+      <c r="H198">
+        <v>12.68333333</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>79</v>
+      </c>
+      <c r="B199" t="s">
+        <v>79</v>
+      </c>
+      <c r="C199" t="s">
+        <v>184</v>
+      </c>
+      <c r="D199">
+        <v>1.063957397</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199">
+        <v>42.423649709999999</v>
+      </c>
+      <c r="H199">
+        <v>12.888917729999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>79</v>
+      </c>
+      <c r="B200" t="s">
+        <v>79</v>
+      </c>
+      <c r="C200" t="s">
+        <v>184</v>
+      </c>
+      <c r="D200">
+        <v>5.7770773130000004</v>
+      </c>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200">
+        <v>2856.7452870000002</v>
+      </c>
+      <c r="H200">
+        <v>15.25313834</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>79</v>
+      </c>
+      <c r="B201" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" t="s">
+        <v>184</v>
+      </c>
+      <c r="D201">
+        <v>8.4486458629999994</v>
+      </c>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201">
+        <v>1704.204778</v>
+      </c>
+      <c r="H201">
+        <v>15.98981577</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>79</v>
+      </c>
+      <c r="B202" t="s">
+        <v>79</v>
+      </c>
+      <c r="C202" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202">
+        <v>164.1549651</v>
+      </c>
+      <c r="E202">
+        <v>3.8426535259999999</v>
+      </c>
+      <c r="F202">
+        <v>100</v>
+      </c>
+      <c r="G202">
+        <v>107.5040954</v>
+      </c>
+      <c r="H202">
+        <v>29.798234659999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>80</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B203" t="s">
         <v>80</v>
       </c>
-      <c r="C178"/>
-      <c r="D178">
-        <v>11.5235498993656</v>
-      </c>
-      <c r="E178">
-        <v>4.3334126279936598</v>
-      </c>
-      <c r="F178">
+      <c r="C203" t="s">
+        <v>182</v>
+      </c>
+      <c r="D203">
+        <v>0.63845764900000002</v>
+      </c>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203">
+        <v>23.429062099999999</v>
+      </c>
+      <c r="H203">
+        <v>12.3733111</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>80</v>
+      </c>
+      <c r="B204" t="s">
+        <v>80</v>
+      </c>
+      <c r="C204" t="s">
+        <v>183</v>
+      </c>
+      <c r="D204">
+        <v>0.87498721599999996</v>
+      </c>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204">
+        <v>2088.2043410000001</v>
+      </c>
+      <c r="H204">
+        <v>12.68333333</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>80</v>
+      </c>
+      <c r="B205" t="s">
+        <v>80</v>
+      </c>
+      <c r="C205" t="s">
+        <v>184</v>
+      </c>
+      <c r="D205">
+        <v>1.0821341609999999</v>
+      </c>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205">
+        <v>41.510441870000001</v>
+      </c>
+      <c r="H205">
+        <v>12.90723828</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>80</v>
+      </c>
+      <c r="B206" t="s">
+        <v>80</v>
+      </c>
+      <c r="C206" t="s">
+        <v>184</v>
+      </c>
+      <c r="D206">
+        <v>5.7658795710000001</v>
+      </c>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206">
+        <v>2692.0309699999998</v>
+      </c>
+      <c r="H206">
+        <v>15.249628530000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>80</v>
+      </c>
+      <c r="B207" t="s">
+        <v>80</v>
+      </c>
+      <c r="C207" t="s">
+        <v>184</v>
+      </c>
+      <c r="D207">
+        <v>8.5206584900000006</v>
+      </c>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207">
+        <v>1619.438093</v>
+      </c>
+      <c r="H207">
+        <v>16.00746066</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>80</v>
+      </c>
+      <c r="B208" t="s">
+        <v>80</v>
+      </c>
+      <c r="C208" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208">
+        <v>164.77900260000001</v>
+      </c>
+      <c r="E208">
+        <v>1.343241076</v>
+      </c>
+      <c r="F208">
         <v>100</v>
       </c>
-      <c r="G178">
-        <v>70.843359887256199</v>
-      </c>
-      <c r="H178">
-        <v>16.8640137318292</v>
+      <c r="G208">
+        <v>37.041369109999998</v>
+      </c>
+      <c r="H208">
+        <v>29.837897170000002</v>
       </c>
     </row>
   </sheetData>
@@ -11203,23 +11893,23 @@
       </c>
       <c r="L2" s="23">
         <f>ProtStdCrvSmpls!L2</f>
-        <v>8637.3682516803601</v>
+        <v>20011.264630000001</v>
       </c>
       <c r="M2" s="23">
         <f>ProtStdCrvSmpls!M2</f>
-        <v>8461.6610432432899</v>
+        <v>14744.367480000001</v>
       </c>
       <c r="N2" s="22">
         <f>ProtStdCrvSmpls!N2</f>
-        <v>8549.514647461825</v>
+        <v>17377.816055000003</v>
       </c>
       <c r="O2" s="22">
         <f>ProtStdCrvSmpls!O2</f>
-        <v>73094200.707164288</v>
+        <v>301988490.84141588</v>
       </c>
       <c r="P2" s="22">
         <f>ProtStdCrvSmpls!P2</f>
-        <v>124.24375858921051</v>
+        <v>3724.2586905770845</v>
       </c>
       <c r="S2" s="32" t="s">
         <v>57</v>
@@ -11284,23 +11974,23 @@
       </c>
       <c r="L3" s="23">
         <f>ProtStdCrvSmpls!L3</f>
-        <v>6662.3064504160302</v>
+        <v>15165.86958</v>
       </c>
       <c r="M3" s="23">
         <f>ProtStdCrvSmpls!M3</f>
-        <v>6226.3642750156996</v>
+        <v>11355.84902</v>
       </c>
       <c r="N3" s="22">
         <f>ProtStdCrvSmpls!N3</f>
-        <v>6444.3353627158649</v>
+        <v>13260.8593</v>
       </c>
       <c r="O3" s="22">
         <f>ProtStdCrvSmpls!O3</f>
-        <v>41529458.267150216</v>
+        <v>175850389.3743965</v>
       </c>
       <c r="P3" s="22">
         <f>ProtStdCrvSmpls!P3</f>
-        <v>308.25766843078912</v>
+        <v>2694.0913744361646</v>
       </c>
       <c r="S3" s="32" t="s">
         <v>58</v>
@@ -11365,23 +12055,23 @@
       </c>
       <c r="L4" s="23">
         <f>ProtStdCrvSmpls!L4</f>
-        <v>5352.9794451669104</v>
+        <v>11466.017830000001</v>
       </c>
       <c r="M4" s="23">
         <f>ProtStdCrvSmpls!M4</f>
-        <v>5061.4299395955004</v>
+        <v>9540.0802199999998</v>
       </c>
       <c r="N4" s="22">
         <f>ProtStdCrvSmpls!N4</f>
-        <v>5207.2046923812049</v>
+        <v>10503.049025</v>
       </c>
       <c r="O4" s="22">
         <f>ProtStdCrvSmpls!O4</f>
-        <v>27114980.708356839</v>
+        <v>110314038.82155345</v>
       </c>
       <c r="P4" s="22">
         <f>ProtStdCrvSmpls!P4</f>
-        <v>206.15663244112915</v>
+        <v>1361.8435441732129</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>59</v>
@@ -11448,23 +12138,23 @@
       </c>
       <c r="L5" s="23">
         <f>ProtStdCrvSmpls!L5</f>
-        <v>2938.8403875864501</v>
+        <v>7804.6944329999997</v>
       </c>
       <c r="M5" s="23">
         <f>ProtStdCrvSmpls!M5</f>
-        <v>3190.8607537235698</v>
+        <v>5908.8299260000003</v>
       </c>
       <c r="N5" s="22">
         <f>ProtStdCrvSmpls!N5</f>
-        <v>3064.85057065501</v>
+        <v>6856.7621794999995</v>
       </c>
       <c r="O5" s="22">
         <f>ProtStdCrvSmpls!O5</f>
-        <v>9393309.020444341</v>
+        <v>47015187.586221583</v>
       </c>
       <c r="P5" s="22">
         <f>ProtStdCrvSmpls!P5</f>
-        <v>178.20530989267391</v>
+        <v>1340.5786491105939</v>
       </c>
       <c r="S5" s="32" t="s">
         <v>60</v>
@@ -11531,23 +12221,23 @@
       </c>
       <c r="L6" s="23">
         <f>ProtStdCrvSmpls!L6</f>
-        <v>1306.4722716042299</v>
+        <v>3597.2279279999998</v>
       </c>
       <c r="M6" s="23">
         <f>ProtStdCrvSmpls!M6</f>
-        <v>1409.5581909185801</v>
+        <v>2560.632098</v>
       </c>
       <c r="N6" s="22">
         <f>ProtStdCrvSmpls!N6</f>
-        <v>1358.015231261405</v>
+        <v>3078.9300130000001</v>
       </c>
       <c r="O6" s="22">
         <f>ProtStdCrvSmpls!O6</f>
-        <v>1844205.3683379674</v>
+        <v>9479810.0249521807</v>
       </c>
       <c r="P6" s="22">
         <f>ProtStdCrvSmpls!P6</f>
-        <v>72.89275259202627</v>
+        <v>732.98394074269538</v>
       </c>
       <c r="S6" s="32" t="s">
         <v>61</v>
@@ -11614,23 +12304,23 @@
       </c>
       <c r="L7" s="23">
         <f>ProtStdCrvSmpls!L7</f>
-        <v>893.09915612569296</v>
+        <v>2503.3788610000001</v>
       </c>
       <c r="M7" s="23">
         <f>ProtStdCrvSmpls!M7</f>
-        <v>970.65038120812801</v>
+        <v>1721.1702580000001</v>
       </c>
       <c r="N7" s="22">
         <f>ProtStdCrvSmpls!N7</f>
-        <v>931.87476866691054</v>
+        <v>2112.2745595000001</v>
       </c>
       <c r="O7" s="22">
         <f>ProtStdCrvSmpls!O7</f>
-        <v>868390.58447800798</v>
+        <v>4461703.8147109197</v>
       </c>
       <c r="P7" s="22">
         <f>ProtStdCrvSmpls!P7</f>
-        <v>54.836997145114097</v>
+        <v>553.10500748375603</v>
       </c>
       <c r="S7" s="32" t="s">
         <v>62</v>
@@ -11697,23 +12387,23 @@
       </c>
       <c r="L8" s="23">
         <f>ProtStdCrvSmpls!L8</f>
-        <v>543.66036778896603</v>
+        <v>1433.7039299999999</v>
       </c>
       <c r="M8" s="23">
         <f>ProtStdCrvSmpls!M8</f>
-        <v>600.19437331260201</v>
+        <v>1010.090842</v>
       </c>
       <c r="N8" s="22">
         <f>ProtStdCrvSmpls!N8</f>
-        <v>571.92737055078396</v>
+        <v>1221.8973859999999</v>
       </c>
       <c r="O8" s="22">
         <f>ProtStdCrvSmpls!O8</f>
-        <v>327100.91718513373</v>
+        <v>1493033.2219136327</v>
       </c>
       <c r="P8" s="22">
         <f>ProtStdCrvSmpls!P8</f>
-        <v>39.97557867340074</v>
+        <v>299.53968712417395</v>
       </c>
       <c r="S8" s="32" t="s">
         <v>63</v>
@@ -11780,23 +12470,23 @@
       </c>
       <c r="L9" s="23">
         <f>ProtStdCrvSmpls!L9</f>
-        <v>404.432436798737</v>
+        <v>1110.755813</v>
       </c>
       <c r="M9" s="23">
         <f>ProtStdCrvSmpls!M9</f>
-        <v>353.390797777253</v>
+        <v>832.5637772</v>
       </c>
       <c r="N9" s="22">
         <f>ProtStdCrvSmpls!N9</f>
-        <v>378.911617287995</v>
+        <v>971.6597951</v>
       </c>
       <c r="O9" s="22">
         <f>ProtStdCrvSmpls!O9</f>
-        <v>143574.013715804</v>
+        <v>944122.75741377403</v>
       </c>
       <c r="P9" s="22">
         <f>ProtStdCrvSmpls!P9</f>
-        <v>36.091889074967234</v>
+        <v>196.71147498627101</v>
       </c>
       <c r="S9" s="32" t="s">
         <v>64</v>
@@ -11863,23 +12553,23 @@
       </c>
       <c r="L10" s="23">
         <f>ProtStdCrvSmpls!L10</f>
-        <v>289.07867092055602</v>
+        <v>789.57091600000001</v>
       </c>
       <c r="M10" s="23">
         <f>ProtStdCrvSmpls!M10</f>
-        <v>266.78857385975698</v>
+        <v>542.40101909999998</v>
       </c>
       <c r="N10" s="22">
         <f>ProtStdCrvSmpls!N10</f>
-        <v>277.93362239015653</v>
+        <v>665.98596754999994</v>
       </c>
       <c r="O10" s="22">
         <f>ProtStdCrvSmpls!O10</f>
-        <v>77247.098454914114</v>
+        <v>443537.30897350959</v>
       </c>
       <c r="P10" s="22">
         <f>ProtStdCrvSmpls!P10</f>
-        <v>15.761478784997335</v>
+        <v>174.77551020317</v>
       </c>
       <c r="S10" s="32" t="s">
         <v>65</v>
@@ -11946,23 +12636,23 @@
       </c>
       <c r="L11" s="23">
         <f>ProtStdCrvSmpls!L11</f>
-        <v>98.925525622818895</v>
+        <v>425.9240873</v>
       </c>
       <c r="M11" s="23">
         <f>ProtStdCrvSmpls!M11</f>
-        <v>92.945679679885203</v>
+        <v>301.40553840000001</v>
       </c>
       <c r="N11" s="22">
         <f>ProtStdCrvSmpls!N11</f>
-        <v>95.935602651352042</v>
+        <v>363.66481284999998</v>
       </c>
       <c r="O11" s="22">
         <f>ProtStdCrvSmpls!O11</f>
-        <v>9203.6398560781054</v>
+        <v>132252.0961052255</v>
       </c>
       <c r="P11" s="22">
         <f>ProtStdCrvSmpls!P11</f>
-        <v>4.2283896166992792</v>
+        <v>88.047910310699024</v>
       </c>
       <c r="S11" s="32" t="s">
         <v>66</v>
@@ -12029,23 +12719,23 @@
       </c>
       <c r="L12" s="23">
         <f>ProtStdCrvSmpls!L12</f>
-        <v>29.998606735694</v>
+        <v>1.6301037920000001</v>
       </c>
       <c r="M12" s="23">
         <f>ProtStdCrvSmpls!M12</f>
-        <v>31.263906931276399</v>
+        <v>107.5040954</v>
       </c>
       <c r="N12" s="22">
         <f>ProtStdCrvSmpls!N12</f>
-        <v>30.6312568334852</v>
+        <v>54.567099595999998</v>
       </c>
       <c r="O12" s="22">
         <f>ProtStdCrvSmpls!O12</f>
-        <v>938.2738951989337</v>
+        <v>2977.5683583197833</v>
       </c>
       <c r="P12" s="22">
         <f>ProtStdCrvSmpls!P12</f>
-        <v>0.89470234853297859</v>
+        <v>74.864217417304417</v>
       </c>
       <c r="S12" s="32" t="s">
         <v>67</v>
@@ -12114,9 +12804,9 @@
         <f>ProtStdCrvSmpls!L13</f>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="23" t="e">
+      <c r="M13" s="23">
         <f>ProtStdCrvSmpls!M13</f>
-        <v>#N/A</v>
+        <v>37.041369109999998</v>
       </c>
       <c r="N13" s="22" t="e">
         <f>ProtStdCrvSmpls!N13</f>

--- a/Caliperexcelcheck.xlsx
+++ b/Caliperexcelcheck.xlsx
@@ -1455,66 +1455,90 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>ProtStdCrvSmpls!$N$3:$N$10</c:f>
+              <c:f>ProtStdCrvSmpls!$N$2:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>17377.816055000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>13260.8593</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10503.049025</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6856.7621794999995</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3078.9300130000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2112.2745595000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1221.8973859999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>971.6597951</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>665.98596754999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>363.66481284999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.567099595999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ProtStdCrvSmpls!$K$3:$K$10</c:f>
+              <c:f>ProtStdCrvSmpls!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,11 +1553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422231648"/>
-        <c:axId val="422232432"/>
+        <c:axId val="244879240"/>
+        <c:axId val="376360672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422231648"/>
+        <c:axId val="244879240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,12 +1591,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422232432"/>
+        <c:crossAx val="376360672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422232432"/>
+        <c:axId val="376360672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1626,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422231648"/>
+        <c:crossAx val="244879240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1780,11 +1804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422232040"/>
-        <c:axId val="482633728"/>
+        <c:axId val="376361456"/>
+        <c:axId val="242917864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422232040"/>
+        <c:axId val="376361456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1842,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482633728"/>
+        <c:crossAx val="242917864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482633728"/>
+        <c:axId val="242917864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1877,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422232040"/>
+        <c:crossAx val="376361456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3402,8 +3426,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AF208"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3557,7 +3581,7 @@
       </c>
       <c r="V2">
         <f>$L$18*(U2^2) + $L$19*U2+$L$20</f>
-        <v>1278.3292007043224</v>
+        <v>1155.1411961311624</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>57</v>
@@ -3614,7 +3638,7 @@
         <v>11355.84902</v>
       </c>
       <c r="N3" s="22">
-        <f t="shared" ref="N3:N13" si="2">AVERAGE(L3:M3)</f>
+        <f t="shared" ref="N3:N12" si="2">AVERAGE(L3:M3)</f>
         <v>13260.8593</v>
       </c>
       <c r="O3" s="22">
@@ -3637,7 +3661,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V33" si="5">$L$18*(U3^2) + $L$19*U3+$L$20</f>
-        <v>926.43725992229861</v>
+        <v>881.8780810156486</v>
       </c>
       <c r="Y3" s="6" t="s">
         <v>58</v>
@@ -3717,7 +3741,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="5"/>
-        <v>679.87055125451457</v>
+        <v>672.58722679544246</v>
       </c>
       <c r="Y4" s="6" t="s">
         <v>59</v>
@@ -3797,7 +3821,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="5"/>
-        <v>454.73761141875082</v>
+        <v>464.93678702044997</v>
       </c>
       <c r="Y5" s="6" t="s">
         <v>60</v>
@@ -3877,7 +3901,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="5"/>
-        <v>219.19797468018822</v>
+        <v>225.64991371348032</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>61</v>
@@ -3957,7 +3981,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="5"/>
-        <v>162.02201933319117</v>
+        <v>163.32459484866595</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>62</v>
@@ -4039,7 +4063,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="5"/>
-        <v>107.72964351122822</v>
+        <v>102.33038426382205</v>
       </c>
       <c r="Y8" s="6" t="s">
         <v>63</v>
@@ -4121,7 +4145,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="5"/>
-        <v>91.652923957279313</v>
+        <v>83.906481352777732</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>64</v>
@@ -4203,7 +4227,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="5"/>
-        <v>75.808799529975147</v>
+        <v>65.579030858972132</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>65</v>
@@ -4285,7 +4309,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="5"/>
-        <v>58.044344120099638</v>
+        <v>44.823637158267154</v>
       </c>
       <c r="Y11" s="6" t="s">
         <v>66</v>
@@ -4367,7 +4391,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="5"/>
-        <v>37.551246842082861</v>
+        <v>20.600078873378433</v>
       </c>
       <c r="Y12" s="6" t="s">
         <v>67</v>
@@ -4513,7 +4537,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="5"/>
-        <v>897.38009970969711</v>
+        <v>858.0624556602944</v>
       </c>
       <c r="Y14" s="6" t="s">
         <v>69</v>
@@ -4572,7 +4596,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="5"/>
-        <v>672.82246783552444</v>
+        <v>666.34687290269915</v>
       </c>
       <c r="Y15" s="6" t="s">
         <v>70</v>
@@ -4635,7 +4659,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="5"/>
-        <v>559.10604198282465</v>
+        <v>563.42531794991919</v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>71</v>
@@ -4695,7 +4719,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="5"/>
-        <v>345.53682621407523</v>
+        <v>357.20290335271216</v>
       </c>
       <c r="Y17" s="6" t="s">
         <v>72</v>
@@ -4744,7 +4768,7 @@
         <v>141</v>
       </c>
       <c r="L18">
-        <v>6.9999999999999997E-7</v>
+        <v>-2E-8</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>73</v>
@@ -4758,7 +4782,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="5"/>
-        <v>164.97312642291553</v>
+        <v>166.58795606097385</v>
       </c>
       <c r="Y18" s="6" t="s">
         <v>73</v>
@@ -4807,7 +4831,7 @@
         <v>142</v>
       </c>
       <c r="L19">
-        <v>4.8000000000000001E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>74</v>
@@ -4821,7 +4845,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="5"/>
-        <v>122.16287132391666</v>
+        <v>118.72657319065954</v>
       </c>
       <c r="Y19" s="6" t="s">
         <v>74</v>
@@ -4872,7 +4896,7 @@
         <v>143</v>
       </c>
       <c r="L20">
-        <v>37.472999999999999</v>
+        <v>20.507000000000001</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>75</v>
@@ -4886,7 +4910,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="5"/>
-        <v>86.671558872364585</v>
+        <v>78.162781408018148</v>
       </c>
       <c r="Y20" s="6" t="s">
         <v>75</v>
@@ -4945,7 +4969,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="5"/>
-        <v>77.921275015773872</v>
+        <v>68.032528429257894</v>
       </c>
       <c r="Y21" s="6" t="s">
         <v>76</v>
@@ -5004,7 +5028,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="5"/>
-        <v>63.714188122664503</v>
+        <v>51.47221421329958</v>
       </c>
       <c r="Y22" s="6" t="s">
         <v>77</v>
@@ -5063,7 +5087,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="5"/>
-        <v>52.004057552204735</v>
+        <v>37.715439336668439</v>
       </c>
       <c r="Y23" s="6" t="s">
         <v>78</v>
@@ -5122,7 +5146,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="5"/>
-        <v>42.641286570569441</v>
+        <v>26.645252704729444</v>
       </c>
       <c r="Y24" s="6" t="s">
         <v>79</v>
@@ -5181,7 +5205,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="5"/>
-        <v>39.251946161397882</v>
+        <v>22.62203473492049</v>
       </c>
       <c r="Y25" s="6" t="s">
         <v>80</v>
@@ -11935,8 +11959,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AD1721"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="L7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12099,7 +12123,7 @@
       </c>
       <c r="V2" s="32">
         <f>IFERROR(($L$18*(U2^2) + 'Prot 96-well Smpls Analysis'!$L$19*U2+$L$20),0)</f>
-        <v>1312.9272562804695</v>
+        <v>1180.6549336092723</v>
       </c>
       <c r="X2" s="38" t="s">
         <v>57</v>
@@ -12120,7 +12144,7 @@
       </c>
       <c r="AD2" s="51">
         <f>SUM(VLOOKUP(AC2,$S$2:$V$97,4,FALSE), VLOOKUP(AC2,$X$2:$AA$97,4,FALSE))</f>
-        <v>1312.9272562804695</v>
+        <v>1180.6549336092723</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -12180,7 +12204,7 @@
       </c>
       <c r="V3" s="32">
         <f>IFERROR(($L$18*(U3^2) + 'Prot 96-well Smpls Analysis'!$L$19*U3+$L$20),0)</f>
-        <v>1139.5291631647374</v>
+        <v>1050.483522983579</v>
       </c>
       <c r="X3" s="38" t="s">
         <v>58</v>
@@ -12201,7 +12225,7 @@
       </c>
       <c r="AD3" s="51">
         <f t="shared" ref="AD3:AD66" si="1">SUM(VLOOKUP(AC3,$S$2:$V$97,4,FALSE), VLOOKUP(AC3,$X$2:$AA$97,4,FALSE))</f>
-        <v>1139.5291631647374</v>
+        <v>1050.483522983579</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -12261,7 +12285,7 @@
       </c>
       <c r="V4" s="32">
         <f>IFERROR(($L$18*(U4^2) + 'Prot 96-well Smpls Analysis'!$L$19*U4+$L$20),0)</f>
-        <v>552.61223238419552</v>
+        <v>557.41486436573723</v>
       </c>
       <c r="X4" s="38" t="s">
         <v>59</v>
@@ -12282,7 +12306,7 @@
       </c>
       <c r="AD4" s="51">
         <f t="shared" si="1"/>
-        <v>552.61223238419552</v>
+        <v>557.41486436573723</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -12342,7 +12366,7 @@
       </c>
       <c r="V5" s="32">
         <f>IFERROR(($L$18*(U5^2) + 'Prot 96-well Smpls Analysis'!$L$19*U5+$L$20),0)</f>
-        <v>1403.0103739456633</v>
+        <v>1246.077421802981</v>
       </c>
       <c r="X5" s="38" t="s">
         <v>60</v>
@@ -12363,7 +12387,7 @@
       </c>
       <c r="AD5" s="51">
         <f t="shared" si="1"/>
-        <v>1403.0103739456633</v>
+        <v>1246.077421802981</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -12423,7 +12447,7 @@
       </c>
       <c r="V6" s="32">
         <f>IFERROR(($L$18*(U6^2) + 'Prot 96-well Smpls Analysis'!$L$19*U6+$L$20),0)</f>
-        <v>983.37362850168233</v>
+        <v>927.9447206940946</v>
       </c>
       <c r="X6" s="38" t="s">
         <v>61</v>
@@ -12444,7 +12468,7 @@
       </c>
       <c r="AD6" s="51">
         <f t="shared" si="1"/>
-        <v>983.37362850168233</v>
+        <v>927.9447206940946</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -12504,7 +12528,7 @@
       </c>
       <c r="V7" s="32">
         <f>IFERROR(($L$18*(U7^2) + 'Prot 96-well Smpls Analysis'!$L$19*U7+$L$20),0)</f>
-        <v>843.31775620164387</v>
+        <v>813.17921272623869</v>
       </c>
       <c r="X7" s="38" t="s">
         <v>62</v>
@@ -12525,7 +12549,7 @@
       </c>
       <c r="AD7" s="51">
         <f t="shared" si="1"/>
-        <v>843.31775620164387</v>
+        <v>813.17921272623869</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -12585,7 +12609,7 @@
       </c>
       <c r="V8" s="32">
         <f>IFERROR(($L$18*(U8^2) + 'Prot 96-well Smpls Analysis'!$L$19*U8+$L$20),0)</f>
-        <v>706.9720917639595</v>
+        <v>696.43968110102958</v>
       </c>
       <c r="X8" s="38" t="s">
         <v>63</v>
@@ -12606,7 +12630,7 @@
       </c>
       <c r="AD8" s="51">
         <f t="shared" si="1"/>
-        <v>706.9720917639595</v>
+        <v>696.43968110102958</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -12668,7 +12692,7 @@
       </c>
       <c r="V9" s="32">
         <f>IFERROR(($L$18*(U9^2) + 'Prot 96-well Smpls Analysis'!$L$19*U9+$L$20),0)</f>
-        <v>972.05445336083426</v>
+        <v>918.84832359211896</v>
       </c>
       <c r="X9" s="38" t="s">
         <v>64</v>
@@ -12689,7 +12713,7 @@
       </c>
       <c r="AD9" s="51">
         <f t="shared" si="1"/>
-        <v>972.05445336083426</v>
+        <v>918.84832359211896</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -12751,7 +12775,7 @@
       </c>
       <c r="V10" s="32">
         <f>IFERROR(($L$18*(U10^2) + 'Prot 96-well Smpls Analysis'!$L$19*U10+$L$20),0)</f>
-        <v>971.10710126905451</v>
+        <v>918.0856318268842</v>
       </c>
       <c r="X10" s="38" t="s">
         <v>65</v>
@@ -12772,7 +12796,7 @@
       </c>
       <c r="AD10" s="51">
         <f t="shared" si="1"/>
-        <v>971.10710126905451</v>
+        <v>918.0856318268842</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -12834,7 +12858,7 @@
       </c>
       <c r="V11" s="32">
         <f>IFERROR(($L$18*(U11^2) + 'Prot 96-well Smpls Analysis'!$L$19*U11+$L$20),0)</f>
-        <v>555.97720671167724</v>
+        <v>560.53124473586627</v>
       </c>
       <c r="X11" s="38" t="s">
         <v>66</v>
@@ -12855,7 +12879,7 @@
       </c>
       <c r="AD11" s="51">
         <f t="shared" si="1"/>
-        <v>555.97720671167724</v>
+        <v>560.53124473586627</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -12917,7 +12941,7 @@
       </c>
       <c r="V12" s="32">
         <f>IFERROR(($L$18*(U12^2) + 'Prot 96-well Smpls Analysis'!$L$19*U12+$L$20),0)</f>
-        <v>837.89207703447914</v>
+        <v>808.63247556330055</v>
       </c>
       <c r="X12" s="38" t="s">
         <v>67</v>
@@ -12938,7 +12962,7 @@
       </c>
       <c r="AD12" s="51">
         <f t="shared" si="1"/>
-        <v>837.89207703447914</v>
+        <v>808.63247556330055</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -13063,7 +13087,7 @@
       </c>
       <c r="V14" s="32">
         <f>IFERROR(($L$18*(U14^2) + 'Prot 96-well Smpls Analysis'!$L$19*U14+$L$20),0)</f>
-        <v>835.05010620271594</v>
+        <v>806.24775858806515</v>
       </c>
       <c r="X14" s="38" t="s">
         <v>69</v>
@@ -13084,7 +13108,7 @@
       </c>
       <c r="AD14" s="51">
         <f t="shared" si="1"/>
-        <v>835.05010620271594</v>
+        <v>806.24775858806515</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -13124,7 +13148,7 @@
       </c>
       <c r="V15" s="32">
         <f>IFERROR(($L$18*(U15^2) + 'Prot 96-well Smpls Analysis'!$L$19*U15+$L$20),0)</f>
-        <v>1233.6620207542173</v>
+        <v>1121.8713972123082</v>
       </c>
       <c r="X15" s="38" t="s">
         <v>70</v>
@@ -13145,7 +13169,7 @@
       </c>
       <c r="AD15" s="51">
         <f t="shared" si="1"/>
-        <v>1233.6620207542173</v>
+        <v>1121.8713972123082</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
@@ -13189,7 +13213,7 @@
       </c>
       <c r="V16" s="32">
         <f>IFERROR(($L$18*(U16^2) + 'Prot 96-well Smpls Analysis'!$L$19*U16+$L$20),0)</f>
-        <v>1058.5304774852552</v>
+        <v>987.59296873942105</v>
       </c>
       <c r="X16" s="38" t="s">
         <v>71</v>
@@ -13210,7 +13234,7 @@
       </c>
       <c r="AD16" s="51">
         <f t="shared" si="1"/>
-        <v>1058.5304774852552</v>
+        <v>987.59296873942105</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
@@ -13251,7 +13275,7 @@
       </c>
       <c r="V17" s="32">
         <f>IFERROR(($L$18*(U17^2) + 'Prot 96-well Smpls Analysis'!$L$19*U17+$L$20),0)</f>
-        <v>923.27701046359334</v>
+        <v>879.2980901324687</v>
       </c>
       <c r="X17" s="38" t="s">
         <v>72</v>
@@ -13272,7 +13296,7 @@
       </c>
       <c r="AD17" s="51">
         <f t="shared" si="1"/>
-        <v>923.27701046359334</v>
+        <v>879.2980901324687</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
@@ -13303,7 +13327,7 @@
       </c>
       <c r="L18">
         <f>ProtStdCrvSmpls!L18</f>
-        <v>6.9999999999999997E-7</v>
+        <v>-2E-8</v>
       </c>
       <c r="S18" s="32" t="s">
         <v>73</v>
@@ -13317,7 +13341,7 @@
       </c>
       <c r="V18" s="32">
         <f>IFERROR(($L$18*(U18^2) + 'Prot 96-well Smpls Analysis'!$L$19*U18+$L$20),0)</f>
-        <v>737.05678119268873</v>
+        <v>722.65718287749451</v>
       </c>
       <c r="X18" s="38" t="s">
         <v>73</v>
@@ -13338,7 +13362,7 @@
       </c>
       <c r="AD18" s="51">
         <f t="shared" si="1"/>
-        <v>737.05678119268873</v>
+        <v>722.65718287749451</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
@@ -13369,7 +13393,7 @@
       </c>
       <c r="L19">
         <f>ProtStdCrvSmpls!L19</f>
-        <v>4.8000000000000001E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="S19" s="32" t="s">
         <v>74</v>
@@ -13383,7 +13407,7 @@
       </c>
       <c r="V19" s="32">
         <f>IFERROR(($L$18*(U19^2) + 'Prot 96-well Smpls Analysis'!$L$19*U19+$L$20),0)</f>
-        <v>854.50680014173622</v>
+        <v>822.53100467837885</v>
       </c>
       <c r="X19" s="38" t="s">
         <v>74</v>
@@ -13404,7 +13428,7 @@
       </c>
       <c r="AD19" s="51">
         <f t="shared" si="1"/>
-        <v>854.50680014173622</v>
+        <v>822.53100467837885</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
@@ -13435,7 +13459,7 @@
       </c>
       <c r="L20">
         <f>ProtStdCrvSmpls!L20</f>
-        <v>37.472999999999999</v>
+        <v>20.507000000000001</v>
       </c>
       <c r="S20" s="32" t="s">
         <v>75</v>
@@ -13449,7 +13473,7 @@
       </c>
       <c r="V20" s="32">
         <f>IFERROR(($L$18*(U20^2) + 'Prot 96-well Smpls Analysis'!$L$19*U20+$L$20),0)</f>
-        <v>522.20794389798584</v>
+        <v>529.07160770241467</v>
       </c>
       <c r="X20" s="38" t="s">
         <v>75</v>
@@ -13470,7 +13494,7 @@
       </c>
       <c r="AD20" s="51">
         <f t="shared" si="1"/>
-        <v>522.20794389798584</v>
+        <v>529.07160770241467</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
@@ -13508,7 +13532,7 @@
       </c>
       <c r="V21" s="32">
         <f>IFERROR(($L$18*(U21^2) + 'Prot 96-well Smpls Analysis'!$L$19*U21+$L$20),0)</f>
-        <v>529.28403183916055</v>
+        <v>535.69809246082389</v>
       </c>
       <c r="X21" s="38" t="s">
         <v>76</v>
@@ -13529,7 +13553,7 @@
       </c>
       <c r="AD21" s="51">
         <f t="shared" si="1"/>
-        <v>529.28403183916055</v>
+        <v>535.69809246082389</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
@@ -13626,7 +13650,7 @@
       </c>
       <c r="V23" s="32">
         <f>IFERROR(($L$18*(U23^2) + 'Prot 96-well Smpls Analysis'!$L$19*U23+$L$20),0)</f>
-        <v>649.50142276609529</v>
+        <v>645.58674511496861</v>
       </c>
       <c r="X23" s="38" t="s">
         <v>78</v>
@@ -13647,7 +13671,7 @@
       </c>
       <c r="AD23" s="51">
         <f t="shared" si="1"/>
-        <v>649.50142276609529</v>
+        <v>645.58674511496861</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
@@ -13685,7 +13709,7 @@
       </c>
       <c r="V24" s="32">
         <f>IFERROR(($L$18*(U24^2) + 'Prot 96-well Smpls Analysis'!$L$19*U24+$L$20),0)</f>
-        <v>630.7051667859688</v>
+        <v>628.72748845454373</v>
       </c>
       <c r="X24" s="38" t="s">
         <v>79</v>
@@ -13706,7 +13730,7 @@
       </c>
       <c r="AD24" s="51">
         <f t="shared" si="1"/>
-        <v>630.7051667859688</v>
+        <v>628.72748845454373</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -13744,7 +13768,7 @@
       </c>
       <c r="V25" s="32">
         <f>IFERROR(($L$18*(U25^2) + 'Prot 96-well Smpls Analysis'!$L$19*U25+$L$20),0)</f>
-        <v>348.55656966052049</v>
+        <v>360.25228513224226</v>
       </c>
       <c r="X25" s="38" t="s">
         <v>80</v>
@@ -13765,7 +13789,7 @@
       </c>
       <c r="AD25" s="51">
         <f t="shared" si="1"/>
-        <v>348.55656966052049</v>
+        <v>360.25228513224226</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
@@ -13805,7 +13829,7 @@
       </c>
       <c r="V26" s="32">
         <f>IFERROR(($L$18*(U26^2) + 'Prot 96-well Smpls Analysis'!$L$19*U26+$L$20),0)</f>
-        <v>472.69985172768406</v>
+        <v>482.18300488795188</v>
       </c>
       <c r="X26" s="38" t="s">
         <v>81</v>
@@ -13826,7 +13850,7 @@
       </c>
       <c r="AD26" s="51">
         <f t="shared" si="1"/>
-        <v>472.69985172768406</v>
+        <v>482.18300488795188</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
@@ -13862,7 +13886,7 @@
       </c>
       <c r="V27" s="32">
         <f>IFERROR(($L$18*(U27^2) + 'Prot 96-well Smpls Analysis'!$L$19*U27+$L$20),0)</f>
-        <v>668.00534970550598</v>
+        <v>662.07284959669983</v>
       </c>
       <c r="X27" s="38" t="s">
         <v>82</v>
@@ -13883,7 +13907,7 @@
       </c>
       <c r="AD27" s="51">
         <f t="shared" si="1"/>
-        <v>668.00534970550598</v>
+        <v>662.07284959669983</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
@@ -13919,7 +13943,7 @@
       </c>
       <c r="V28" s="32">
         <f>IFERROR(($L$18*(U28^2) + 'Prot 96-well Smpls Analysis'!$L$19*U28+$L$20),0)</f>
-        <v>533.40177958884408</v>
+        <v>539.54574829251874</v>
       </c>
       <c r="X28" s="38" t="s">
         <v>83</v>
@@ -13940,7 +13964,7 @@
       </c>
       <c r="AD28" s="51">
         <f t="shared" si="1"/>
-        <v>533.40177958884408</v>
+        <v>539.54574829251874</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
@@ -13976,7 +14000,7 @@
       </c>
       <c r="V29" s="32">
         <f>IFERROR(($L$18*(U29^2) + 'Prot 96-well Smpls Analysis'!$L$19*U29+$L$20),0)</f>
-        <v>585.02589578371089</v>
+        <v>587.26805438459394</v>
       </c>
       <c r="X29" s="38" t="s">
         <v>84</v>
@@ -13997,7 +14021,7 @@
       </c>
       <c r="AD29" s="51">
         <f t="shared" si="1"/>
-        <v>585.02589578371089</v>
+        <v>587.26805438459394</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
@@ -14033,7 +14057,7 @@
       </c>
       <c r="V30" s="32">
         <f>IFERROR(($L$18*(U30^2) + 'Prot 96-well Smpls Analysis'!$L$19*U30+$L$20),0)</f>
-        <v>370.96688279054143</v>
+        <v>382.75327201997027</v>
       </c>
       <c r="X30" s="38" t="s">
         <v>85</v>
@@ -14054,7 +14078,7 @@
       </c>
       <c r="AD30" s="51">
         <f t="shared" si="1"/>
-        <v>370.96688279054143</v>
+        <v>382.75327201997027</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -14090,7 +14114,7 @@
       </c>
       <c r="V31" s="32">
         <f>IFERROR(($L$18*(U31^2) + 'Prot 96-well Smpls Analysis'!$L$19*U31+$L$20),0)</f>
-        <v>83.227424221427185</v>
+        <v>74.181730319489219</v>
       </c>
       <c r="X31" s="38" t="s">
         <v>86</v>
@@ -14111,7 +14135,7 @@
       </c>
       <c r="AD31" s="51">
         <f t="shared" si="1"/>
-        <v>83.227424221427185</v>
+        <v>74.181730319489219</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
@@ -14147,7 +14171,7 @@
       </c>
       <c r="V32" s="32">
         <f>IFERROR(($L$18*(U32^2) + 'Prot 96-well Smpls Analysis'!$L$19*U32+$L$20),0)</f>
-        <v>675.72098866602403</v>
+        <v>668.91509587597068</v>
       </c>
       <c r="X32" s="38" t="s">
         <v>87</v>
@@ -14168,7 +14192,7 @@
       </c>
       <c r="AD32" s="51">
         <f t="shared" si="1"/>
-        <v>675.72098866602403</v>
+        <v>668.91509587597068</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
@@ -14204,7 +14228,7 @@
       </c>
       <c r="V33" s="32">
         <f>IFERROR(($L$18*(U33^2) + 'Prot 96-well Smpls Analysis'!$L$19*U33+$L$20),0)</f>
-        <v>516.48369497865212</v>
+        <v>523.69753776536709</v>
       </c>
       <c r="X33" s="38" t="s">
         <v>88</v>
@@ -14225,7 +14249,7 @@
       </c>
       <c r="AD33" s="51">
         <f t="shared" si="1"/>
-        <v>516.48369497865212</v>
+        <v>523.69753776536709</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
@@ -14263,7 +14287,7 @@
       </c>
       <c r="V34" s="32">
         <f>IFERROR(($L$18*(U34^2) + 'Prot 96-well Smpls Analysis'!$L$19*U34+$L$20),0)</f>
-        <v>707.42265062523325</v>
+        <v>696.8343263662789</v>
       </c>
       <c r="X34" s="38" t="s">
         <v>89</v>
@@ -14284,7 +14308,7 @@
       </c>
       <c r="AD34" s="51">
         <f t="shared" si="1"/>
-        <v>707.42265062523325</v>
+        <v>696.8343263662789</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
@@ -14322,7 +14346,7 @@
       </c>
       <c r="V35" s="32">
         <f>IFERROR(($L$18*(U35^2) + 'Prot 96-well Smpls Analysis'!$L$19*U35+$L$20),0)</f>
-        <v>570.39876802870629</v>
+        <v>573.84195898272264</v>
       </c>
       <c r="X35" s="38" t="s">
         <v>90</v>
@@ -14343,7 +14367,7 @@
       </c>
       <c r="AD35" s="51">
         <f t="shared" si="1"/>
-        <v>570.39876802870629</v>
+        <v>573.84195898272264</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
@@ -14381,7 +14405,7 @@
       </c>
       <c r="V36" s="32">
         <f>IFERROR(($L$18*(U36^2) + 'Prot 96-well Smpls Analysis'!$L$19*U36+$L$20),0)</f>
-        <v>348.69772501010948</v>
+        <v>360.39472369401113</v>
       </c>
       <c r="X36" s="38" t="s">
         <v>91</v>
@@ -14402,7 +14426,7 @@
       </c>
       <c r="AD36" s="51">
         <f t="shared" si="1"/>
-        <v>348.69772501010948</v>
+        <v>360.39472369401113</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
@@ -14499,7 +14523,7 @@
       </c>
       <c r="V38" s="32">
         <f>IFERROR(($L$18*(U38^2) + 'Prot 96-well Smpls Analysis'!$L$19*U38+$L$20),0)</f>
-        <v>368.88622613212374</v>
+        <v>380.67369486615365</v>
       </c>
       <c r="X38" s="40" t="s">
         <v>93</v>
@@ -14520,7 +14544,7 @@
       </c>
       <c r="AD38" s="51">
         <f t="shared" si="1"/>
-        <v>368.88622613212374</v>
+        <v>380.67369486615365</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
@@ -14558,7 +14582,7 @@
       </c>
       <c r="V39" s="32">
         <f>IFERROR(($L$18*(U39^2) + 'Prot 96-well Smpls Analysis'!$L$19*U39+$L$20),0)</f>
-        <v>189.83903442868331</v>
+        <v>193.8809960215662</v>
       </c>
       <c r="X39" s="40" t="s">
         <v>94</v>
@@ -14579,7 +14603,7 @@
       </c>
       <c r="AD39" s="51">
         <f t="shared" si="1"/>
-        <v>189.83903442868331</v>
+        <v>193.8809960215662</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
@@ -14617,7 +14641,7 @@
       </c>
       <c r="V40" s="32">
         <f>IFERROR(($L$18*(U40^2) + 'Prot 96-well Smpls Analysis'!$L$19*U40+$L$20),0)</f>
-        <v>249.22980104191623</v>
+        <v>257.65762418871668</v>
       </c>
       <c r="X40" s="40" t="s">
         <v>95</v>
@@ -14638,7 +14662,7 @@
       </c>
       <c r="AD40" s="51">
         <f t="shared" si="1"/>
-        <v>249.22980104191623</v>
+        <v>257.65762418871668</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
@@ -14676,7 +14700,7 @@
       </c>
       <c r="V41" s="32">
         <f>IFERROR(($L$18*(U41^2) + 'Prot 96-well Smpls Analysis'!$L$19*U41+$L$20),0)</f>
-        <v>145.28415494528605</v>
+        <v>144.71626049476325</v>
       </c>
       <c r="X41" s="40" t="s">
         <v>96</v>
@@ -14697,7 +14721,7 @@
       </c>
       <c r="AD41" s="51">
         <f t="shared" si="1"/>
-        <v>145.28415494528605</v>
+        <v>144.71626049476325</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
@@ -14735,7 +14759,7 @@
       </c>
       <c r="V42" s="32">
         <f>IFERROR(($L$18*(U42^2) + 'Prot 96-well Smpls Analysis'!$L$19*U42+$L$20),0)</f>
-        <v>138.65964818051879</v>
+        <v>137.3040955460423</v>
       </c>
       <c r="X42" s="40" t="s">
         <v>97</v>
@@ -14756,7 +14780,7 @@
       </c>
       <c r="AD42" s="51">
         <f t="shared" si="1"/>
-        <v>138.65964818051879</v>
+        <v>137.3040955460423</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
@@ -14794,7 +14818,7 @@
       </c>
       <c r="V43" s="32">
         <f>IFERROR(($L$18*(U43^2) + 'Prot 96-well Smpls Analysis'!$L$19*U43+$L$20),0)</f>
-        <v>181.04896081285722</v>
+        <v>184.27417907454696</v>
       </c>
       <c r="X43" s="40" t="s">
         <v>98</v>
@@ -14815,7 +14839,7 @@
       </c>
       <c r="AD43" s="51">
         <f t="shared" si="1"/>
-        <v>181.04896081285722</v>
+        <v>184.27417907454696</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
@@ -14853,7 +14877,7 @@
       </c>
       <c r="V44" s="32">
         <f>IFERROR(($L$18*(U44^2) + 'Prot 96-well Smpls Analysis'!$L$19*U44+$L$20),0)</f>
-        <v>373.72344556677342</v>
+        <v>385.50544314077791</v>
       </c>
       <c r="X44" s="40" t="s">
         <v>99</v>
@@ -14874,7 +14898,7 @@
       </c>
       <c r="AD44" s="51">
         <f t="shared" si="1"/>
-        <v>373.72344556677342</v>
+        <v>385.50544314077791</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
@@ -14912,7 +14936,7 @@
       </c>
       <c r="V45" s="32">
         <f>IFERROR(($L$18*(U45^2) + 'Prot 96-well Smpls Analysis'!$L$19*U45+$L$20),0)</f>
-        <v>141.39810279847813</v>
+        <v>140.37144715858634</v>
       </c>
       <c r="X45" s="40" t="s">
         <v>100</v>
@@ -14933,7 +14957,7 @@
       </c>
       <c r="AD45" s="51">
         <f t="shared" si="1"/>
-        <v>141.39810279847813</v>
+        <v>140.37144715858634</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
@@ -14971,7 +14995,7 @@
       </c>
       <c r="V46" s="32">
         <f>IFERROR(($L$18*(U46^2) + 'Prot 96-well Smpls Analysis'!$L$19*U46+$L$20),0)</f>
-        <v>437.65201882509979</v>
+        <v>448.41252205693996</v>
       </c>
       <c r="X46" s="40" t="s">
         <v>101</v>
@@ -14992,7 +15016,7 @@
       </c>
       <c r="AD46" s="51">
         <f t="shared" si="1"/>
-        <v>437.65201882509979</v>
+        <v>448.41252205693996</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
@@ -15030,7 +15054,7 @@
       </c>
       <c r="V47" s="32">
         <f>IFERROR(($L$18*(U47^2) + 'Prot 96-well Smpls Analysis'!$L$19*U47+$L$20),0)</f>
-        <v>415.6902903823804</v>
+        <v>426.99680996287481</v>
       </c>
       <c r="X47" s="40" t="s">
         <v>102</v>
@@ -15051,7 +15075,7 @@
       </c>
       <c r="AD47" s="51">
         <f t="shared" si="1"/>
-        <v>415.6902903823804</v>
+        <v>426.99680996287481</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
@@ -15091,7 +15115,7 @@
       </c>
       <c r="V48" s="32">
         <f>IFERROR(($L$18*(U48^2) + 'Prot 96-well Smpls Analysis'!$L$19*U48+$L$20),0)</f>
-        <v>496.08880546274349</v>
+        <v>504.45066609467881</v>
       </c>
       <c r="X48" s="40" t="s">
         <v>103</v>
@@ -15112,7 +15136,7 @@
       </c>
       <c r="AD48" s="51">
         <f t="shared" si="1"/>
-        <v>496.08880546274349</v>
+        <v>504.45066609467881</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
@@ -15205,7 +15229,7 @@
       </c>
       <c r="V50" s="32">
         <f>IFERROR(($L$18*(U50^2) + 'Prot 96-well Smpls Analysis'!$L$19*U50+$L$20),0)</f>
-        <v>345.73420957244355</v>
+        <v>357.40235177918731</v>
       </c>
       <c r="X50" s="40" t="s">
         <v>105</v>
@@ -15226,7 +15250,7 @@
       </c>
       <c r="AD50" s="51">
         <f t="shared" si="1"/>
-        <v>345.73420957244355</v>
+        <v>357.40235177918731</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
@@ -15262,7 +15286,7 @@
       </c>
       <c r="V51" s="32">
         <f>IFERROR(($L$18*(U51^2) + 'Prot 96-well Smpls Analysis'!$L$19*U51+$L$20),0)</f>
-        <v>244.2397466637774</v>
+        <v>252.37262739297779</v>
       </c>
       <c r="X51" s="40" t="s">
         <v>106</v>
@@ -15283,7 +15307,7 @@
       </c>
       <c r="AD51" s="51">
         <f t="shared" si="1"/>
-        <v>244.2397466637774</v>
+        <v>252.37262739297779</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
@@ -15319,7 +15343,7 @@
       </c>
       <c r="V52" s="32">
         <f>IFERROR(($L$18*(U52^2) + 'Prot 96-well Smpls Analysis'!$L$19*U52+$L$20),0)</f>
-        <v>307.16419875513935</v>
+        <v>318.08299071851036</v>
       </c>
       <c r="X52" s="40" t="s">
         <v>107</v>
@@ -15340,7 +15364,7 @@
       </c>
       <c r="AD52" s="51">
         <f t="shared" si="1"/>
-        <v>307.16419875513935</v>
+        <v>318.08299071851036</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
@@ -15376,7 +15400,7 @@
       </c>
       <c r="V53" s="32">
         <f>IFERROR(($L$18*(U53^2) + 'Prot 96-well Smpls Analysis'!$L$19*U53+$L$20),0)</f>
-        <v>306.80223922391156</v>
+        <v>317.71064837980254</v>
       </c>
       <c r="X53" s="40" t="s">
         <v>108</v>
@@ -15397,7 +15421,7 @@
       </c>
       <c r="AD53" s="51">
         <f t="shared" si="1"/>
-        <v>306.80223922391156</v>
+        <v>317.71064837980254</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
@@ -15433,7 +15457,7 @@
       </c>
       <c r="V54" s="32">
         <f>IFERROR(($L$18*(U54^2) + 'Prot 96-well Smpls Analysis'!$L$19*U54+$L$20),0)</f>
-        <v>139.53502304272445</v>
+        <v>138.28511190099357</v>
       </c>
       <c r="X54" s="40" t="s">
         <v>109</v>
@@ -15454,7 +15478,7 @@
       </c>
       <c r="AD54" s="51">
         <f t="shared" si="1"/>
-        <v>139.53502304272445</v>
+        <v>138.28511190099357</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
@@ -15490,7 +15514,7 @@
       </c>
       <c r="V55" s="32">
         <f>IFERROR(($L$18*(U55^2) + 'Prot 96-well Smpls Analysis'!$L$19*U55+$L$20),0)</f>
-        <v>198.2644770680854</v>
+        <v>203.04768642019758</v>
       </c>
       <c r="X55" s="40" t="s">
         <v>110</v>
@@ -15511,7 +15535,7 @@
       </c>
       <c r="AD55" s="51">
         <f t="shared" si="1"/>
-        <v>198.2644770680854</v>
+        <v>203.04768642019758</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
@@ -15549,7 +15573,7 @@
       </c>
       <c r="V56" s="32">
         <f>IFERROR(($L$18*(U56^2) + 'Prot 96-well Smpls Analysis'!$L$19*U56+$L$20),0)</f>
-        <v>155.1937850187573</v>
+        <v>155.75382563859264</v>
       </c>
       <c r="X56" s="40" t="s">
         <v>111</v>
@@ -15570,7 +15594,7 @@
       </c>
       <c r="AD56" s="51">
         <f t="shared" si="1"/>
-        <v>155.1937850187573</v>
+        <v>155.75382563859264</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
@@ -15608,7 +15632,7 @@
       </c>
       <c r="V57" s="32">
         <f>IFERROR(($L$18*(U57^2) + 'Prot 96-well Smpls Analysis'!$L$19*U57+$L$20),0)</f>
-        <v>131.47965728379492</v>
+        <v>129.23956371619158</v>
       </c>
       <c r="X57" s="40" t="s">
         <v>112</v>
@@ -15629,7 +15653,7 @@
       </c>
       <c r="AD57" s="51">
         <f t="shared" si="1"/>
-        <v>131.47965728379492</v>
+        <v>129.23956371619158</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
@@ -15667,7 +15691,7 @@
       </c>
       <c r="V58" s="32">
         <f>IFERROR(($L$18*(U58^2) + 'Prot 96-well Smpls Analysis'!$L$19*U58+$L$20),0)</f>
-        <v>462.50368632162412</v>
+        <v>472.40896266551073</v>
       </c>
       <c r="X58" s="40" t="s">
         <v>113</v>
@@ -15688,7 +15712,7 @@
       </c>
       <c r="AD58" s="51">
         <f t="shared" si="1"/>
-        <v>462.50368632162412</v>
+        <v>472.40896266551073</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
@@ -15726,7 +15750,7 @@
       </c>
       <c r="V59" s="32">
         <f>IFERROR(($L$18*(U59^2) + 'Prot 96-well Smpls Analysis'!$L$19*U59+$L$20),0)</f>
-        <v>192.43024367965171</v>
+        <v>196.70448498963853</v>
       </c>
       <c r="X59" s="40" t="s">
         <v>114</v>
@@ -15747,7 +15771,7 @@
       </c>
       <c r="AD59" s="51">
         <f t="shared" si="1"/>
-        <v>192.43024367965171</v>
+        <v>196.70448498963853</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
@@ -15785,7 +15809,7 @@
       </c>
       <c r="V60" s="32">
         <f>IFERROR(($L$18*(U60^2) + 'Prot 96-well Smpls Analysis'!$L$19*U60+$L$20),0)</f>
-        <v>142.19009961796829</v>
+        <v>141.25769862221517</v>
       </c>
       <c r="X60" s="40" t="s">
         <v>115</v>
@@ -15806,7 +15830,7 @@
       </c>
       <c r="AD60" s="51">
         <f t="shared" si="1"/>
-        <v>142.19009961796829</v>
+        <v>141.25769862221517</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
@@ -15900,7 +15924,7 @@
       </c>
       <c r="V62" s="32">
         <f>IFERROR(($L$18*(U62^2) + 'Prot 96-well Smpls Analysis'!$L$19*U62+$L$20),0)</f>
-        <v>498.00211036401447</v>
+        <v>506.26294787317102</v>
       </c>
       <c r="X62" s="40" t="s">
         <v>18</v>
@@ -15921,7 +15945,7 @@
       </c>
       <c r="AD62" s="51">
         <f t="shared" si="1"/>
-        <v>498.00211036401447</v>
+        <v>506.26294787317102</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
@@ -15961,7 +15985,7 @@
       </c>
       <c r="V63" s="32">
         <f>IFERROR(($L$18*(U63^2) + 'Prot 96-well Smpls Analysis'!$L$19*U63+$L$20),0)</f>
-        <v>41.167902356394777</v>
+        <v>24.897352868637007</v>
       </c>
       <c r="X63" s="40" t="s">
         <v>20</v>
@@ -15982,7 +16006,7 @@
       </c>
       <c r="AD63" s="51">
         <f t="shared" si="1"/>
-        <v>41.167902356394777</v>
+        <v>24.897352868637007</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
@@ -16018,7 +16042,7 @@
       </c>
       <c r="V64" s="32">
         <f>IFERROR(($L$18*(U64^2) + 'Prot 96-well Smpls Analysis'!$L$19*U64+$L$20),0)</f>
-        <v>110.51856608377155</v>
+        <v>105.50913607372081</v>
       </c>
       <c r="X64" s="40" t="s">
         <v>21</v>
@@ -16039,7 +16063,7 @@
       </c>
       <c r="AD64" s="51">
         <f t="shared" si="1"/>
-        <v>110.51856608377155</v>
+        <v>105.50913607372081</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
@@ -16075,7 +16099,7 @@
       </c>
       <c r="V65" s="32">
         <f>IFERROR(($L$18*(U65^2) + 'Prot 96-well Smpls Analysis'!$L$19*U65+$L$20),0)</f>
-        <v>240.3546241386897</v>
+        <v>248.24875809979457</v>
       </c>
       <c r="X65" s="40" t="s">
         <v>22</v>
@@ -16096,7 +16120,7 @@
       </c>
       <c r="AD65" s="51">
         <f t="shared" si="1"/>
-        <v>240.3546241386897</v>
+        <v>248.24875809979457</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
@@ -16132,7 +16156,7 @@
       </c>
       <c r="V66" s="32">
         <f>IFERROR(($L$18*(U66^2) + 'Prot 96-well Smpls Analysis'!$L$19*U66+$L$20),0)</f>
-        <v>315.03902637576965</v>
+        <v>326.16807072869227</v>
       </c>
       <c r="X66" s="40" t="s">
         <v>23</v>
@@ -16153,7 +16177,7 @@
       </c>
       <c r="AD66" s="51">
         <f t="shared" si="1"/>
-        <v>315.03902637576965</v>
+        <v>326.16807072869227</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
@@ -16189,7 +16213,7 @@
       </c>
       <c r="V67" s="32">
         <f>IFERROR(($L$18*(U67^2) + 'Prot 96-well Smpls Analysis'!$L$19*U67+$L$20),0)</f>
-        <v>535.66113204261308</v>
+        <v>541.65427495702522</v>
       </c>
       <c r="X67" s="40" t="s">
         <v>24</v>
@@ -16210,7 +16234,7 @@
       </c>
       <c r="AD67" s="51">
         <f t="shared" ref="AD67:AD96" si="4">SUM(VLOOKUP(AC67,$S$2:$V$97,4,FALSE), VLOOKUP(AC67,$X$2:$AA$97,4,FALSE))</f>
-        <v>535.66113204261308</v>
+        <v>541.65427495702522</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
@@ -16246,7 +16270,7 @@
       </c>
       <c r="V68" s="32">
         <f>IFERROR(($L$18*(U68^2) + 'Prot 96-well Smpls Analysis'!$L$19*U68+$L$20),0)</f>
-        <v>132.79677784753781</v>
+        <v>130.72136597452749</v>
       </c>
       <c r="X68" s="40" t="s">
         <v>37</v>
@@ -16267,7 +16291,7 @@
       </c>
       <c r="AD68" s="51">
         <f t="shared" si="4"/>
-        <v>132.79677784753781</v>
+        <v>130.72136597452749</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
@@ -16303,7 +16327,7 @@
       </c>
       <c r="V69" s="32">
         <f>IFERROR(($L$18*(U69^2) + 'Prot 96-well Smpls Analysis'!$L$19*U69+$L$20),0)</f>
-        <v>171.40791059151451</v>
+        <v>173.68562330292815</v>
       </c>
       <c r="X69" s="40" t="s">
         <v>38</v>
@@ -16324,7 +16348,7 @@
       </c>
       <c r="AD69" s="51">
         <f t="shared" si="4"/>
-        <v>171.40791059151451</v>
+        <v>173.68562330292815</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
@@ -16362,7 +16386,7 @@
       </c>
       <c r="V70" s="32">
         <f>IFERROR(($L$18*(U70^2) + 'Prot 96-well Smpls Analysis'!$L$19*U70+$L$20),0)</f>
-        <v>123.13307458296914</v>
+        <v>119.82391606324374</v>
       </c>
       <c r="X70" s="40" t="s">
         <v>39</v>
@@ -16383,7 +16407,7 @@
       </c>
       <c r="AD70" s="51">
         <f t="shared" si="4"/>
-        <v>123.13307458296914</v>
+        <v>119.82391606324374</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
@@ -16421,7 +16445,7 @@
       </c>
       <c r="V71" s="32">
         <f>IFERROR(($L$18*(U71^2) + 'Prot 96-well Smpls Analysis'!$L$19*U71+$L$20),0)</f>
-        <v>116.38897280476674</v>
+        <v>112.18356296174952</v>
       </c>
       <c r="X71" s="40" t="s">
         <v>40</v>
@@ -16442,7 +16466,7 @@
       </c>
       <c r="AD71" s="51">
         <f t="shared" si="4"/>
-        <v>116.38897280476674</v>
+        <v>112.18356296174952</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
@@ -16480,7 +16504,7 @@
       </c>
       <c r="V72" s="32">
         <f>IFERROR(($L$18*(U72^2) + 'Prot 96-well Smpls Analysis'!$L$19*U72+$L$20),0)</f>
-        <v>55.866393062986461</v>
+        <v>42.263643220296103</v>
       </c>
       <c r="X72" s="40" t="s">
         <v>41</v>
@@ -16501,7 +16525,7 @@
       </c>
       <c r="AD72" s="51">
         <f t="shared" si="4"/>
-        <v>55.866393062986461</v>
+        <v>42.263643220296103</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
@@ -16654,7 +16678,7 @@
       </c>
       <c r="V75" s="32">
         <f>IFERROR(($L$18*(U75^2) + 'Prot 96-well Smpls Analysis'!$L$19*U75+$L$20),0)</f>
-        <v>611.92956276899542</v>
+        <v>611.77110540945716</v>
       </c>
       <c r="X75" s="40" t="s">
         <v>26</v>
@@ -16675,7 +16699,7 @@
       </c>
       <c r="AD75" s="51">
         <f t="shared" si="4"/>
-        <v>611.92956276899542</v>
+        <v>611.77110540945716</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
@@ -16713,7 +16737,7 @@
       </c>
       <c r="V76" s="32">
         <f>IFERROR(($L$18*(U76^2) + 'Prot 96-well Smpls Analysis'!$L$19*U76+$L$20),0)</f>
-        <v>203.08837666843903</v>
+        <v>208.27784799264458</v>
       </c>
       <c r="X76" s="40" t="s">
         <v>27</v>
@@ -16734,7 +16758,7 @@
       </c>
       <c r="AD76" s="51">
         <f t="shared" si="4"/>
-        <v>203.08837666843903</v>
+        <v>208.27784799264458</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
@@ -16831,7 +16855,7 @@
       </c>
       <c r="V78" s="32">
         <f>IFERROR(($L$18*(U78^2) + 'Prot 96-well Smpls Analysis'!$L$19*U78+$L$20),0)</f>
-        <v>158.26400180410053</v>
+        <v>159.16138834783999</v>
       </c>
       <c r="X78" s="40" t="s">
         <v>29</v>
@@ -16852,7 +16876,7 @@
       </c>
       <c r="AD78" s="51">
         <f t="shared" si="4"/>
-        <v>158.26400180410053</v>
+        <v>159.16138834783999</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
@@ -16890,7 +16914,7 @@
       </c>
       <c r="V79" s="32">
         <f>IFERROR(($L$18*(U79^2) + 'Prot 96-well Smpls Analysis'!$L$19*U79+$L$20),0)</f>
-        <v>301.56484203221532</v>
+        <v>312.31590295675102</v>
       </c>
       <c r="X79" s="40" t="s">
         <v>30</v>
@@ -16911,7 +16935,7 @@
       </c>
       <c r="AD79" s="51">
         <f t="shared" si="4"/>
-        <v>301.56484203221532</v>
+        <v>312.31590295675102</v>
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
@@ -16951,7 +16975,7 @@
       </c>
       <c r="V80" s="32">
         <f>IFERROR(($L$18*(U80^2) + 'Prot 96-well Smpls Analysis'!$L$19*U80+$L$20),0)</f>
-        <v>73.751988589419796</v>
+        <v>63.187219770189429</v>
       </c>
       <c r="X80" s="40" t="s">
         <v>43</v>
@@ -16972,7 +16996,7 @@
       </c>
       <c r="AD80" s="51">
         <f t="shared" si="4"/>
-        <v>73.751988589419796</v>
+        <v>63.187219770189429</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
@@ -17008,7 +17032,7 @@
       </c>
       <c r="V81" s="32">
         <f>IFERROR(($L$18*(U81^2) + 'Prot 96-well Smpls Analysis'!$L$19*U81+$L$20),0)</f>
-        <v>208.87962551185325</v>
+        <v>214.53955539184705</v>
       </c>
       <c r="X81" s="40" t="s">
         <v>44</v>
@@ -17029,7 +17053,7 @@
       </c>
       <c r="AD81" s="51">
         <f t="shared" si="4"/>
-        <v>208.87962551185325</v>
+        <v>214.53955539184705</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
@@ -17065,7 +17089,7 @@
       </c>
       <c r="V82" s="32">
         <f>IFERROR(($L$18*(U82^2) + 'Prot 96-well Smpls Analysis'!$L$19*U82+$L$20),0)</f>
-        <v>457.57893212425301</v>
+        <v>467.67336796029275</v>
       </c>
       <c r="X82" s="40" t="s">
         <v>45</v>
@@ -17086,7 +17110,7 @@
       </c>
       <c r="AD82" s="51">
         <f t="shared" si="4"/>
-        <v>457.57893212425301</v>
+        <v>467.67336796029275</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
@@ -17122,7 +17146,7 @@
       </c>
       <c r="V83" s="32">
         <f>IFERROR(($L$18*(U83^2) + 'Prot 96-well Smpls Analysis'!$L$19*U83+$L$20),0)</f>
-        <v>119.19890841252598</v>
+        <v>115.3704698524564</v>
       </c>
       <c r="X83" s="40" t="s">
         <v>46</v>
@@ -17143,7 +17167,7 @@
       </c>
       <c r="AD83" s="51">
         <f t="shared" si="4"/>
-        <v>119.19890841252598</v>
+        <v>115.3704698524564</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
@@ -17293,7 +17317,7 @@
       </c>
       <c r="V86" s="32">
         <f>IFERROR(($L$18*(U86^2) + 'Prot 96-well Smpls Analysis'!$L$19*U86+$L$20),0)</f>
-        <v>200.13181357258912</v>
+        <v>205.0738453969546</v>
       </c>
       <c r="X86" s="40" t="s">
         <v>31</v>
@@ -17314,7 +17338,7 @@
       </c>
       <c r="AD86" s="51">
         <f t="shared" si="4"/>
-        <v>200.13181357258912</v>
+        <v>205.0738453969546</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
@@ -17350,7 +17374,7 @@
       </c>
       <c r="V87" s="32">
         <f>IFERROR(($L$18*(U87^2) + 'Prot 96-well Smpls Analysis'!$L$19*U87+$L$20),0)</f>
-        <v>132.52467088773767</v>
+        <v>130.41532640692176</v>
       </c>
       <c r="X87" s="40" t="s">
         <v>32</v>
@@ -17371,7 +17395,7 @@
       </c>
       <c r="AD87" s="51">
         <f t="shared" si="4"/>
-        <v>132.52467088773767</v>
+        <v>130.41532640692176</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
@@ -17409,7 +17433,7 @@
       </c>
       <c r="V88" s="32">
         <f>IFERROR(($L$18*(U88^2) + 'Prot 96-well Smpls Analysis'!$L$19*U88+$L$20),0)</f>
-        <v>129.73813897708709</v>
+        <v>127.27862408099752</v>
       </c>
       <c r="X88" s="40" t="s">
         <v>33</v>
@@ -17430,7 +17454,7 @@
       </c>
       <c r="AD88" s="51">
         <f t="shared" si="4"/>
-        <v>129.73813897708709</v>
+        <v>127.27862408099752</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
@@ -17468,7 +17492,7 @@
       </c>
       <c r="V89" s="32">
         <f>IFERROR(($L$18*(U89^2) + 'Prot 96-well Smpls Analysis'!$L$19*U89+$L$20),0)</f>
-        <v>173.51416174922576</v>
+        <v>176.0035290363364</v>
       </c>
       <c r="X89" s="40" t="s">
         <v>34</v>
@@ -17489,7 +17513,7 @@
       </c>
       <c r="AD89" s="51">
         <f t="shared" si="4"/>
-        <v>173.51416174922576</v>
+        <v>176.0035290363364</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
@@ -17527,7 +17551,7 @@
       </c>
       <c r="V90" s="32">
         <f>IFERROR(($L$18*(U90^2) + 'Prot 96-well Smpls Analysis'!$L$19*U90+$L$20),0)</f>
-        <v>117.65288499228426</v>
+        <v>113.6176661988633</v>
       </c>
       <c r="X90" s="40" t="s">
         <v>35</v>
@@ -17548,7 +17572,7 @@
       </c>
       <c r="AD90" s="51">
         <f t="shared" si="4"/>
-        <v>117.65288499228426</v>
+        <v>113.6176661988633</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
@@ -17586,7 +17610,7 @@
       </c>
       <c r="V91" s="32">
         <f>IFERROR(($L$18*(U91^2) + 'Prot 96-well Smpls Analysis'!$L$19*U91+$L$20),0)</f>
-        <v>195.37235184014867</v>
+        <v>199.90567757986716</v>
       </c>
       <c r="X91" s="40" t="s">
         <v>36</v>
@@ -17607,7 +17631,7 @@
       </c>
       <c r="AD91" s="51">
         <f t="shared" si="4"/>
-        <v>195.37235184014867</v>
+        <v>199.90567757986716</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
@@ -17645,7 +17669,7 @@
       </c>
       <c r="V92" s="32">
         <f>IFERROR(($L$18*(U92^2) + 'Prot 96-well Smpls Analysis'!$L$19*U92+$L$20),0)</f>
-        <v>226.90012593274065</v>
+        <v>233.90513034502166</v>
       </c>
       <c r="X92" s="40" t="s">
         <v>52</v>
@@ -17666,7 +17690,7 @@
       </c>
       <c r="AD92" s="51">
         <f t="shared" si="4"/>
-        <v>226.90012593274065</v>
+        <v>233.90513034502166</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
@@ -17704,7 +17728,7 @@
       </c>
       <c r="V93" s="32">
         <f>IFERROR(($L$18*(U93^2) + 'Prot 96-well Smpls Analysis'!$L$19*U93+$L$20),0)</f>
-        <v>199.41264708584788</v>
+        <v>204.29374514274721</v>
       </c>
       <c r="X93" s="40" t="s">
         <v>53</v>
@@ -17725,7 +17749,7 @@
       </c>
       <c r="AD93" s="51">
         <f t="shared" si="4"/>
-        <v>199.41264708584788</v>
+        <v>204.29374514274721</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
@@ -17763,7 +17787,7 @@
       </c>
       <c r="V94" s="32">
         <f>IFERROR(($L$18*(U94^2) + 'Prot 96-well Smpls Analysis'!$L$19*U94+$L$20),0)</f>
-        <v>88.934002805481015</v>
+        <v>80.773541823314829</v>
       </c>
       <c r="X94" s="40" t="s">
         <v>54</v>
@@ -17784,7 +17808,7 @@
       </c>
       <c r="AD94" s="51">
         <f t="shared" si="4"/>
-        <v>88.934002805481015</v>
+        <v>80.773541823314829</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.3">
@@ -17822,7 +17846,7 @@
       </c>
       <c r="V95" s="32">
         <f>IFERROR(($L$18*(U95^2) + 'Prot 96-well Smpls Analysis'!$L$19*U95+$L$20),0)</f>
-        <v>146.92054366666594</v>
+        <v>146.54304634990953</v>
       </c>
       <c r="X95" s="40" t="s">
         <v>55</v>
@@ -17843,7 +17867,7 @@
       </c>
       <c r="AD95" s="51">
         <f t="shared" si="4"/>
-        <v>146.92054366666594</v>
+        <v>146.54304634990953</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.3">
@@ -17881,7 +17905,7 @@
       </c>
       <c r="V96" s="32">
         <f>IFERROR(($L$18*(U96^2) + 'Prot 96-well Smpls Analysis'!$L$19*U96+$L$20),0)</f>
-        <v>121.38344002787368</v>
+        <v>117.84456616764648</v>
       </c>
       <c r="X96" s="40" t="s">
         <v>56</v>
@@ -17902,7 +17926,7 @@
       </c>
       <c r="AD96" s="51">
         <f t="shared" si="4"/>
-        <v>121.38344002787368</v>
+        <v>117.84456616764648</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.3">
@@ -17940,7 +17964,7 @@
       </c>
       <c r="V97" s="32">
         <f>IFERROR(($L$18*(U97^2) + 'Prot 96-well Smpls Analysis'!$L$19*U97+$L$20),0)</f>
-        <v>86.838815675736257</v>
+        <v>78.35590708585039</v>
       </c>
       <c r="X97" s="40" t="s">
         <v>117</v>
@@ -17961,7 +17985,7 @@
       </c>
       <c r="AD97" s="51">
         <f t="shared" ref="AD97" si="6">SUM(VLOOKUP(AC97,$S$2:$V$97,4,FALSE), VLOOKUP(AC97,$X$2:$AA$97,4,FALSE))</f>
-        <v>86.838815675736257</v>
+        <v>78.35590708585039</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.3">
@@ -55953,19 +55977,19 @@
       </c>
       <c r="C3" s="43">
         <f>IFERROR(VLOOKUP(A3,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>1312.9272562804695</v>
+        <v>1180.6549336092723</v>
       </c>
       <c r="D3" s="44">
         <f>(C3*0.001)/VLOOKUP(B3,Platemap!B$19:C$23,2)</f>
-        <v>8.7528483752031305E-6</v>
+        <v>7.8710328907284824E-6</v>
       </c>
       <c r="E3" s="43">
         <f>D3*1000000000</f>
-        <v>8752.8483752031298</v>
+        <v>7871.032890728482</v>
       </c>
       <c r="F3" s="43">
         <f>E3/F$1</f>
-        <v>875.28483752031298</v>
+        <v>787.10328907284816</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
@@ -56013,19 +56037,19 @@
       </c>
       <c r="C4" s="43">
         <f>IFERROR(VLOOKUP(A4,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>1139.5291631647374</v>
+        <v>1050.483522983579</v>
       </c>
       <c r="D4" s="44">
         <f>(C4*0.001)/VLOOKUP(B4,Platemap!B$19:C$23,2)</f>
-        <v>7.5968610877649165E-6</v>
+        <v>7.0032234865571927E-6</v>
       </c>
       <c r="E4" s="43">
         <f t="shared" ref="E4:E13" si="0">D4*1000000000</f>
-        <v>7596.8610877649162</v>
+        <v>7003.2234865571927</v>
       </c>
       <c r="F4" s="43">
         <f t="shared" ref="F4:F13" si="1">E4/F$1</f>
-        <v>759.68610877649166</v>
+        <v>700.32234865571922</v>
       </c>
       <c r="H4" t="s">
         <v>69</v>
@@ -56073,19 +56097,19 @@
       </c>
       <c r="C5" s="43">
         <f>IFERROR(VLOOKUP(A5,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>552.61223238419552</v>
+        <v>557.41486436573723</v>
       </c>
       <c r="D5" s="44">
         <f>(C5*0.001)/VLOOKUP(B5,Platemap!B$19:C$23,2)</f>
-        <v>3.6840815492279703E-6</v>
+        <v>3.7160990957715819E-6</v>
       </c>
       <c r="E5" s="43">
         <f t="shared" si="0"/>
-        <v>3684.0815492279703</v>
+        <v>3716.0990957715817</v>
       </c>
       <c r="F5" s="43">
         <f t="shared" si="1"/>
-        <v>368.40815492279705</v>
+        <v>371.60990957715819</v>
       </c>
       <c r="H5" t="s">
         <v>81</v>
@@ -56133,19 +56157,19 @@
       </c>
       <c r="C6" s="43">
         <f>IFERROR(VLOOKUP(A6,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>1403.0103739456633</v>
+        <v>1246.077421802981</v>
       </c>
       <c r="D6" s="44">
         <f>(C6*0.001)/VLOOKUP(B6,Platemap!B$19:C$23,2)</f>
-        <v>9.3534024929710896E-6</v>
+        <v>8.3071828120198745E-6</v>
       </c>
       <c r="E6" s="43">
         <f t="shared" si="0"/>
-        <v>9353.4024929710904</v>
+        <v>8307.1828120198752</v>
       </c>
       <c r="F6" s="43">
         <f t="shared" si="1"/>
-        <v>935.34024929710904</v>
+        <v>830.71828120198757</v>
       </c>
       <c r="H6" t="s">
         <v>93</v>
@@ -56193,19 +56217,19 @@
       </c>
       <c r="C7" s="43">
         <f>IFERROR(VLOOKUP(A7,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>983.37362850168233</v>
+        <v>927.9447206940946</v>
       </c>
       <c r="D7" s="44">
         <f>(C7*0.001)/VLOOKUP(B7,Platemap!B$19:C$23,2)</f>
-        <v>6.5558241900112154E-6</v>
+        <v>6.1862981379606309E-6</v>
       </c>
       <c r="E7" s="43">
         <f t="shared" si="0"/>
-        <v>6555.8241900112153</v>
+        <v>6186.2981379606308</v>
       </c>
       <c r="F7" s="43">
         <f t="shared" si="1"/>
-        <v>655.58241900112148</v>
+        <v>618.6298137960631</v>
       </c>
       <c r="H7" t="s">
         <v>105</v>
@@ -56253,19 +56277,19 @@
       </c>
       <c r="C8" s="43">
         <f>IFERROR(VLOOKUP(A8,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>843.31775620164387</v>
+        <v>813.17921272623869</v>
       </c>
       <c r="D8" s="44">
         <f>(C8*0.001)/VLOOKUP(B8,Platemap!B$19:C$23,2)</f>
-        <v>5.6221183746776254E-6</v>
+        <v>5.4211947515082579E-6</v>
       </c>
       <c r="E8" s="43">
         <f t="shared" si="0"/>
-        <v>5622.1183746776251</v>
+        <v>5421.1947515082575</v>
       </c>
       <c r="F8" s="43">
         <f t="shared" si="1"/>
-        <v>562.21183746776251</v>
+        <v>542.11947515082579</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -56313,19 +56337,19 @@
       </c>
       <c r="C9" s="43">
         <f>IFERROR(VLOOKUP(A9,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>706.9720917639595</v>
+        <v>696.43968110102958</v>
       </c>
       <c r="D9" s="44">
         <f>(C9*0.001)/VLOOKUP(B9,Platemap!B$19:C$23,2)</f>
-        <v>4.7131472784263968E-6</v>
+        <v>4.6429312073401975E-6</v>
       </c>
       <c r="E9" s="43">
         <f t="shared" si="0"/>
-        <v>4713.147278426397</v>
+        <v>4642.9312073401979</v>
       </c>
       <c r="F9" s="43">
         <f t="shared" si="1"/>
-        <v>471.31472784263968</v>
+        <v>464.29312073401979</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -56373,19 +56397,19 @@
       </c>
       <c r="C10" s="43">
         <f>IFERROR(VLOOKUP(A10,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>972.05445336083426</v>
+        <v>918.84832359211896</v>
       </c>
       <c r="D10" s="44">
         <f>(C10*0.001)/VLOOKUP(B10,Platemap!B$19:C$23,2)</f>
-        <v>6.4803630224055616E-6</v>
+        <v>6.1256554906141266E-6</v>
       </c>
       <c r="E10" s="43">
         <f t="shared" si="0"/>
-        <v>6480.3630224055614</v>
+        <v>6125.6554906141264</v>
       </c>
       <c r="F10" s="43">
         <f t="shared" si="1"/>
-        <v>648.0363022405561</v>
+        <v>612.56554906141264</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
@@ -56433,19 +56457,19 @@
       </c>
       <c r="C11" s="43">
         <f>IFERROR(VLOOKUP(A11,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>971.10710126905451</v>
+        <v>918.0856318268842</v>
       </c>
       <c r="D11" s="44">
         <f>(C11*0.001)/VLOOKUP(B11,Platemap!B$19:C$23,2)</f>
-        <v>6.4740473417936968E-6</v>
+        <v>6.1205708788458945E-6</v>
       </c>
       <c r="E11" s="43">
         <f t="shared" si="0"/>
-        <v>6474.0473417936964</v>
+        <v>6120.5708788458942</v>
       </c>
       <c r="F11" s="43">
         <f t="shared" si="1"/>
-        <v>647.4047341793696</v>
+        <v>612.05708788458946</v>
       </c>
       <c r="S11" t="s">
         <v>161</v>
@@ -56460,19 +56484,19 @@
       </c>
       <c r="C12" s="43">
         <f>IFERROR(VLOOKUP(A12,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>555.97720671167724</v>
+        <v>560.53124473586627</v>
       </c>
       <c r="D12" s="44">
         <f>(C12*0.001)/VLOOKUP(B12,Platemap!B$19:C$23,2)</f>
-        <v>3.7065147114111817E-6</v>
+        <v>3.7368749649057751E-6</v>
       </c>
       <c r="E12" s="43">
         <f t="shared" si="0"/>
-        <v>3706.5147114111815</v>
+        <v>3736.874964905775</v>
       </c>
       <c r="F12" s="43">
         <f t="shared" si="1"/>
-        <v>370.65147114111812</v>
+        <v>373.68749649057747</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -56484,19 +56508,19 @@
       </c>
       <c r="C13" s="43">
         <f>IFERROR(VLOOKUP(A13,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>837.89207703447914</v>
+        <v>808.63247556330055</v>
       </c>
       <c r="D13" s="44">
         <f>(C13*0.001)/VLOOKUP(B13,Platemap!B$19:C$23,2)</f>
-        <v>5.5859471802298617E-6</v>
+        <v>5.3908831704220037E-6</v>
       </c>
       <c r="E13" s="43">
         <f t="shared" si="0"/>
-        <v>5585.9471802298613</v>
+        <v>5390.8831704220038</v>
       </c>
       <c r="F13" s="43">
         <f t="shared" si="1"/>
-        <v>558.59471802298617</v>
+        <v>539.0883170422004</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -56532,19 +56556,19 @@
       </c>
       <c r="C15" s="43">
         <f>IFERROR(VLOOKUP(A15,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>835.05010620271594</v>
+        <v>806.24775858806515</v>
       </c>
       <c r="D15" s="44">
         <f>(C15*0.001)/VLOOKUP(B15,Platemap!B$19:C$23,2)</f>
-        <v>5.567000708018106E-6</v>
+        <v>5.3749850572537682E-6</v>
       </c>
       <c r="E15" s="43">
         <f t="shared" si="2"/>
-        <v>5567.0007080181058</v>
+        <v>5374.985057253768</v>
       </c>
       <c r="F15" s="43">
         <f t="shared" si="3"/>
-        <v>556.70007080181063</v>
+        <v>537.49850572537684</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -56556,19 +56580,19 @@
       </c>
       <c r="C16" s="43">
         <f>IFERROR(VLOOKUP(A16,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>1233.6620207542173</v>
+        <v>1121.8713972123082</v>
       </c>
       <c r="D16" s="44">
         <f>(C16*0.001)/VLOOKUP(B16,Platemap!B$19:C$23,2)</f>
-        <v>8.224413471694782E-6</v>
+        <v>7.4791426480820544E-6</v>
       </c>
       <c r="E16" s="43">
         <f t="shared" si="2"/>
-        <v>8224.4134716947829</v>
+        <v>7479.1426480820546</v>
       </c>
       <c r="F16" s="43">
         <f t="shared" si="3"/>
-        <v>822.44134716947826</v>
+        <v>747.91426480820542</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -56580,19 +56604,19 @@
       </c>
       <c r="C17" s="43">
         <f>IFERROR(VLOOKUP(A17,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>1058.5304774852552</v>
+        <v>987.59296873942105</v>
       </c>
       <c r="D17" s="44">
         <f>(C17*0.001)/VLOOKUP(B17,Platemap!B$19:C$23,2)</f>
-        <v>7.0568698499017017E-6</v>
+        <v>6.5839531249294736E-6</v>
       </c>
       <c r="E17" s="43">
         <f t="shared" si="2"/>
-        <v>7056.8698499017019</v>
+        <v>6583.9531249294732</v>
       </c>
       <c r="F17" s="43">
         <f t="shared" si="3"/>
-        <v>705.68698499017023</v>
+        <v>658.39531249294737</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -56604,19 +56628,19 @@
       </c>
       <c r="C18" s="43">
         <f>IFERROR(VLOOKUP(A18,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>923.27701046359334</v>
+        <v>879.2980901324687</v>
       </c>
       <c r="D18" s="44">
         <f>(C18*0.001)/VLOOKUP(B18,Platemap!B$19:C$23,2)</f>
-        <v>6.1551800697572894E-6</v>
+        <v>5.8619872675497918E-6</v>
       </c>
       <c r="E18" s="43">
         <f t="shared" si="2"/>
-        <v>6155.1800697572889</v>
+        <v>5861.9872675497918</v>
       </c>
       <c r="F18" s="43">
         <f t="shared" si="3"/>
-        <v>615.51800697572889</v>
+        <v>586.19872675497913</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -56628,19 +56652,19 @@
       </c>
       <c r="C19" s="43">
         <f>IFERROR(VLOOKUP(A19,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>737.05678119268873</v>
+        <v>722.65718287749451</v>
       </c>
       <c r="D19" s="44">
         <f>(C19*0.001)/VLOOKUP(B19,Platemap!B$19:C$23,2)</f>
-        <v>4.9137118746179247E-6</v>
+        <v>4.8177145525166299E-6</v>
       </c>
       <c r="E19" s="43">
         <f t="shared" si="2"/>
-        <v>4913.7118746179249</v>
+        <v>4817.7145525166297</v>
       </c>
       <c r="F19" s="43">
         <f t="shared" si="3"/>
-        <v>491.37118746179249</v>
+        <v>481.77145525166299</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -56652,19 +56676,19 @@
       </c>
       <c r="C20" s="43">
         <f>IFERROR(VLOOKUP(A20,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>854.50680014173622</v>
+        <v>822.53100467837885</v>
       </c>
       <c r="D20" s="44">
         <f>(C20*0.001)/VLOOKUP(B20,Platemap!B$19:C$23,2)</f>
-        <v>5.696712000944908E-6</v>
+        <v>5.4835400311891926E-6</v>
       </c>
       <c r="E20" s="43">
         <f t="shared" si="2"/>
-        <v>5696.7120009449081</v>
+        <v>5483.5400311891926</v>
       </c>
       <c r="F20" s="43">
         <f t="shared" si="3"/>
-        <v>569.67120009449081</v>
+        <v>548.35400311891931</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -56676,19 +56700,19 @@
       </c>
       <c r="C21" s="43">
         <f>IFERROR(VLOOKUP(A21,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>522.20794389798584</v>
+        <v>529.07160770241467</v>
       </c>
       <c r="D21" s="44">
         <f>(C21*0.001)/VLOOKUP(B21,Platemap!B$19:C$23,2)</f>
-        <v>3.4813862926532391E-6</v>
+        <v>3.527144051349431E-6</v>
       </c>
       <c r="E21" s="43">
         <f t="shared" si="2"/>
-        <v>3481.3862926532393</v>
+        <v>3527.1440513494313</v>
       </c>
       <c r="F21" s="43">
         <f t="shared" si="3"/>
-        <v>348.13862926532391</v>
+        <v>352.71440513494315</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -56700,19 +56724,19 @@
       </c>
       <c r="C22" s="43">
         <f>IFERROR(VLOOKUP(A22,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>529.28403183916055</v>
+        <v>535.69809246082389</v>
       </c>
       <c r="D22" s="44">
         <f>(C22*0.001)/VLOOKUP(B22,Platemap!B$19:C$23,2)</f>
-        <v>3.52856021226107E-6</v>
+        <v>3.5713206164054927E-6</v>
       </c>
       <c r="E22" s="43">
         <f t="shared" si="2"/>
-        <v>3528.5602122610699</v>
+        <v>3571.3206164054927</v>
       </c>
       <c r="F22" s="43">
         <f t="shared" si="3"/>
-        <v>352.85602122610698</v>
+        <v>357.1320616405493</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -56748,19 +56772,19 @@
       </c>
       <c r="C24" s="43">
         <f>IFERROR(VLOOKUP(A24,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>649.50142276609529</v>
+        <v>645.58674511496861</v>
       </c>
       <c r="D24" s="44">
         <f>(C24*0.001)/VLOOKUP(B24,Platemap!B$19:C$23,2)</f>
-        <v>4.3300094851073026E-6</v>
+        <v>4.3039116340997907E-6</v>
       </c>
       <c r="E24" s="43">
         <f t="shared" si="2"/>
-        <v>4330.0094851073027</v>
+        <v>4303.9116340997907</v>
       </c>
       <c r="F24" s="43">
         <f t="shared" si="3"/>
-        <v>433.00094851073027</v>
+        <v>430.39116340997907</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -56772,19 +56796,19 @@
       </c>
       <c r="C25" s="43">
         <f>IFERROR(VLOOKUP(A25,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>630.7051667859688</v>
+        <v>628.72748845454373</v>
       </c>
       <c r="D25" s="44">
         <f>(C25*0.001)/VLOOKUP(B25,Platemap!B$19:C$23,2)</f>
-        <v>4.2047011119064583E-6</v>
+        <v>4.1915165896969586E-6</v>
       </c>
       <c r="E25" s="43">
         <f t="shared" si="2"/>
-        <v>4204.7011119064582</v>
+        <v>4191.5165896969584</v>
       </c>
       <c r="F25" s="43">
         <f t="shared" si="3"/>
-        <v>420.47011119064581</v>
+        <v>419.15165896969586</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -56796,19 +56820,19 @@
       </c>
       <c r="C26" s="43">
         <f>IFERROR(VLOOKUP(A26,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>348.55656966052049</v>
+        <v>360.25228513224226</v>
       </c>
       <c r="D26" s="44">
         <f>(C26*0.001)/VLOOKUP(B26,Platemap!B$19:C$23,2)</f>
-        <v>2.3237104644034699E-6</v>
+        <v>2.401681900881615E-6</v>
       </c>
       <c r="E26" s="43">
         <f t="shared" si="2"/>
-        <v>2323.7104644034698</v>
+        <v>2401.6819008816151</v>
       </c>
       <c r="F26" s="43">
         <f t="shared" si="3"/>
-        <v>232.37104644034699</v>
+        <v>240.16819008816151</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -56820,19 +56844,19 @@
       </c>
       <c r="C27" s="43">
         <f>IFERROR(VLOOKUP(A27,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>472.69985172768406</v>
+        <v>482.18300488795188</v>
       </c>
       <c r="D27" s="44">
         <f>(C27*0.001)/VLOOKUP(B27,Platemap!B$19:C$23,2)</f>
-        <v>3.1513323448512273E-6</v>
+        <v>3.2145533659196794E-6</v>
       </c>
       <c r="E27" s="43">
         <f t="shared" si="2"/>
-        <v>3151.3323448512274</v>
+        <v>3214.5533659196794</v>
       </c>
       <c r="F27" s="43">
         <f t="shared" si="3"/>
-        <v>315.13323448512273</v>
+        <v>321.45533659196792</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -56844,19 +56868,19 @@
       </c>
       <c r="C28" s="43">
         <f>IFERROR(VLOOKUP(A28,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>668.00534970550598</v>
+        <v>662.07284959669983</v>
       </c>
       <c r="D28" s="44">
         <f>(C28*0.001)/VLOOKUP(B28,Platemap!B$19:C$23,2)</f>
-        <v>4.4533689980367062E-6</v>
+        <v>4.4138189973113322E-6</v>
       </c>
       <c r="E28" s="43">
         <f t="shared" si="2"/>
-        <v>4453.3689980367062</v>
+        <v>4413.8189973113322</v>
       </c>
       <c r="F28" s="43">
         <f t="shared" si="3"/>
-        <v>445.33689980367063</v>
+        <v>441.38189973113322</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -56868,19 +56892,19 @@
       </c>
       <c r="C29" s="43">
         <f>IFERROR(VLOOKUP(A29,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>533.40177958884408</v>
+        <v>539.54574829251874</v>
       </c>
       <c r="D29" s="44">
         <f>(C29*0.001)/VLOOKUP(B29,Platemap!B$19:C$23,2)</f>
-        <v>3.5560118639256269E-6</v>
+        <v>3.5969716552834585E-6</v>
       </c>
       <c r="E29" s="43">
         <f t="shared" si="2"/>
-        <v>3556.011863925627</v>
+        <v>3596.9716552834584</v>
       </c>
       <c r="F29" s="43">
         <f t="shared" si="3"/>
-        <v>355.60118639256268</v>
+        <v>359.69716552834586</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -56892,19 +56916,19 @@
       </c>
       <c r="C30" s="43">
         <f>IFERROR(VLOOKUP(A30,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>585.02589578371089</v>
+        <v>587.26805438459394</v>
       </c>
       <c r="D30" s="44">
         <f>(C30*0.001)/VLOOKUP(B30,Platemap!B$19:C$23,2)</f>
-        <v>3.9001726385580723E-6</v>
+        <v>3.9151203625639596E-6</v>
       </c>
       <c r="E30" s="43">
         <f t="shared" si="2"/>
-        <v>3900.1726385580723</v>
+        <v>3915.1203625639596</v>
       </c>
       <c r="F30" s="43">
         <f t="shared" si="3"/>
-        <v>390.01726385580724</v>
+        <v>391.51203625639596</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -56916,19 +56940,19 @@
       </c>
       <c r="C31" s="43">
         <f>IFERROR(VLOOKUP(A31,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>370.96688279054143</v>
+        <v>382.75327201997027</v>
       </c>
       <c r="D31" s="44">
         <f>(C31*0.001)/VLOOKUP(B31,Platemap!B$19:C$23,2)</f>
-        <v>2.4731125519369429E-6</v>
+        <v>2.5516884801331351E-6</v>
       </c>
       <c r="E31" s="43">
         <f t="shared" si="2"/>
-        <v>2473.112551936943</v>
+        <v>2551.6884801331353</v>
       </c>
       <c r="F31" s="43">
         <f t="shared" si="3"/>
-        <v>247.31125519369431</v>
+        <v>255.16884801331352</v>
       </c>
       <c r="W31" t="s">
         <v>160</v>
@@ -56943,19 +56967,19 @@
       </c>
       <c r="C32" s="43">
         <f>IFERROR(VLOOKUP(A32,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>83.227424221427185</v>
+        <v>74.181730319489219</v>
       </c>
       <c r="D32" s="44">
         <f>(C32*0.001)/VLOOKUP(B32,Platemap!B$19:C$23,2)</f>
-        <v>5.5484949480951461E-7</v>
+        <v>4.9454486879659479E-7</v>
       </c>
       <c r="E32" s="43">
         <f t="shared" si="2"/>
-        <v>554.84949480951457</v>
+        <v>494.54486879659481</v>
       </c>
       <c r="F32" s="43">
         <f t="shared" si="3"/>
-        <v>55.484949480951457</v>
+        <v>49.454486879659484</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -56967,19 +56991,19 @@
       </c>
       <c r="C33" s="43">
         <f>IFERROR(VLOOKUP(A33,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>675.72098866602403</v>
+        <v>668.91509587597068</v>
       </c>
       <c r="D33" s="44">
         <f>(C33*0.001)/VLOOKUP(B33,Platemap!B$19:C$23,2)</f>
-        <v>4.5048065911068273E-6</v>
+        <v>4.4594339725064707E-6</v>
       </c>
       <c r="E33" s="43">
         <f t="shared" si="2"/>
-        <v>4504.806591106827</v>
+        <v>4459.433972506471</v>
       </c>
       <c r="F33" s="43">
         <f t="shared" si="3"/>
-        <v>450.48065911068272</v>
+        <v>445.94339725064708</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -56991,19 +57015,19 @@
       </c>
       <c r="C34" s="43">
         <f>IFERROR(VLOOKUP(A34,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>516.48369497865212</v>
+        <v>523.69753776536709</v>
       </c>
       <c r="D34" s="44">
         <f>(C34*0.001)/VLOOKUP(B34,Platemap!B$19:C$23,2)</f>
-        <v>3.4432246331910138E-6</v>
+        <v>3.4913169184357808E-6</v>
       </c>
       <c r="E34" s="43">
         <f t="shared" si="2"/>
-        <v>3443.2246331910137</v>
+        <v>3491.3169184357807</v>
       </c>
       <c r="F34" s="43">
         <f t="shared" si="3"/>
-        <v>344.32246331910136</v>
+        <v>349.1316918435781</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -57015,19 +57039,19 @@
       </c>
       <c r="C35" s="43">
         <f>IFERROR(VLOOKUP(A35,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>707.42265062523325</v>
+        <v>696.8343263662789</v>
       </c>
       <c r="D35" s="44">
         <f>(C35*0.001)/VLOOKUP(B35,Platemap!B$19:C$23,2)</f>
-        <v>4.716151004168222E-6</v>
+        <v>4.6455621757751933E-6</v>
       </c>
       <c r="E35" s="43">
         <f t="shared" si="2"/>
-        <v>4716.1510041682222</v>
+        <v>4645.5621757751933</v>
       </c>
       <c r="F35" s="43">
         <f t="shared" si="3"/>
-        <v>471.6151004168222</v>
+        <v>464.55621757751931</v>
       </c>
       <c r="W35" t="s">
         <v>160</v>
@@ -57042,19 +57066,19 @@
       </c>
       <c r="C36" s="43">
         <f>IFERROR(VLOOKUP(A36,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>570.39876802870629</v>
+        <v>573.84195898272264</v>
       </c>
       <c r="D36" s="44">
         <f>(C36*0.001)/VLOOKUP(B36,Platemap!B$19:C$23,2)</f>
-        <v>3.8026584535247085E-6</v>
+        <v>3.8256130598848177E-6</v>
       </c>
       <c r="E36" s="43">
         <f t="shared" si="2"/>
-        <v>3802.6584535247084</v>
+        <v>3825.6130598848176</v>
       </c>
       <c r="F36" s="43">
         <f t="shared" si="3"/>
-        <v>380.26584535247082</v>
+        <v>382.56130598848176</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -57066,19 +57090,19 @@
       </c>
       <c r="C37" s="43">
         <f>IFERROR(VLOOKUP(A37,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>348.69772501010948</v>
+        <v>360.39472369401113</v>
       </c>
       <c r="D37" s="44">
         <f>(C37*0.001)/VLOOKUP(B37,Platemap!B$19:C$23,2)</f>
-        <v>2.3246515000673965E-6</v>
+        <v>2.4026314912934076E-6</v>
       </c>
       <c r="E37" s="43">
         <f t="shared" si="2"/>
-        <v>2324.6515000673967</v>
+        <v>2402.6314912934076</v>
       </c>
       <c r="F37" s="43">
         <f t="shared" si="3"/>
-        <v>232.46515000673966</v>
+        <v>240.26314912934077</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -57114,19 +57138,19 @@
       </c>
       <c r="C39" s="43">
         <f>IFERROR(VLOOKUP(A39,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>368.88622613212374</v>
+        <v>380.67369486615365</v>
       </c>
       <c r="D39" s="44">
         <f>(C39*0.001)/VLOOKUP(B39,Platemap!B$19:C$23,2)</f>
-        <v>2.4592415075474916E-6</v>
+        <v>2.5378246324410243E-6</v>
       </c>
       <c r="E39" s="43">
         <f t="shared" si="2"/>
-        <v>2459.2415075474914</v>
+        <v>2537.8246324410243</v>
       </c>
       <c r="F39" s="43">
         <f t="shared" si="3"/>
-        <v>245.92415075474915</v>
+        <v>253.78246324410242</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -57138,19 +57162,19 @@
       </c>
       <c r="C40" s="43">
         <f>IFERROR(VLOOKUP(A40,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>189.83903442868331</v>
+        <v>193.8809960215662</v>
       </c>
       <c r="D40" s="44">
         <f>(C40*0.001)/VLOOKUP(B40,Platemap!B$19:C$23,2)</f>
-        <v>1.2655935628578887E-6</v>
+        <v>1.2925399734771082E-6</v>
       </c>
       <c r="E40" s="43">
         <f t="shared" si="2"/>
-        <v>1265.5935628578886</v>
+        <v>1292.5399734771081</v>
       </c>
       <c r="F40" s="43">
         <f t="shared" si="3"/>
-        <v>126.55935628578887</v>
+        <v>129.25399734771082</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -57162,19 +57186,19 @@
       </c>
       <c r="C41" s="43">
         <f>IFERROR(VLOOKUP(A41,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>249.22980104191623</v>
+        <v>257.65762418871668</v>
       </c>
       <c r="D41" s="44">
         <f>(C41*0.001)/VLOOKUP(B41,Platemap!B$19:C$23,2)</f>
-        <v>1.6615320069461084E-6</v>
+        <v>1.7177174945914446E-6</v>
       </c>
       <c r="E41" s="43">
         <f t="shared" si="2"/>
-        <v>1661.5320069461084</v>
+        <v>1717.7174945914446</v>
       </c>
       <c r="F41" s="43">
         <f t="shared" si="3"/>
-        <v>166.15320069461083</v>
+        <v>171.77174945914447</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -57186,19 +57210,19 @@
       </c>
       <c r="C42" s="43">
         <f>IFERROR(VLOOKUP(A42,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>145.28415494528605</v>
+        <v>144.71626049476325</v>
       </c>
       <c r="D42" s="44">
         <f>(C42*0.001)/VLOOKUP(B42,Platemap!B$19:C$23,2)</f>
-        <v>9.6856103296857352E-7</v>
+        <v>9.6477506996508832E-7</v>
       </c>
       <c r="E42" s="43">
         <f t="shared" si="2"/>
-        <v>968.5610329685735</v>
+        <v>964.77506996508828</v>
       </c>
       <c r="F42" s="43">
         <f t="shared" si="3"/>
-        <v>96.856103296857356</v>
+        <v>96.477506996508822</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -57210,19 +57234,19 @@
       </c>
       <c r="C43" s="43">
         <f>IFERROR(VLOOKUP(A43,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>138.65964818051879</v>
+        <v>137.3040955460423</v>
       </c>
       <c r="D43" s="44">
         <f>(C43*0.001)/VLOOKUP(B43,Platemap!B$19:C$23,2)</f>
-        <v>9.2439765453679194E-7</v>
+        <v>9.1536063697361545E-7</v>
       </c>
       <c r="E43" s="43">
         <f t="shared" si="2"/>
-        <v>924.39765453679195</v>
+        <v>915.36063697361544</v>
       </c>
       <c r="F43" s="43">
         <f t="shared" si="3"/>
-        <v>92.4397654536792</v>
+        <v>91.536063697361541</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -57234,19 +57258,19 @@
       </c>
       <c r="C44" s="43">
         <f>IFERROR(VLOOKUP(A44,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>181.04896081285722</v>
+        <v>184.27417907454696</v>
       </c>
       <c r="D44" s="44">
         <f>(C44*0.001)/VLOOKUP(B44,Platemap!B$19:C$23,2)</f>
-        <v>1.206993072085715E-6</v>
+        <v>1.2284945271636465E-6</v>
       </c>
       <c r="E44" s="43">
         <f t="shared" si="2"/>
-        <v>1206.9930720857151</v>
+        <v>1228.4945271636466</v>
       </c>
       <c r="F44" s="43">
         <f t="shared" si="3"/>
-        <v>120.69930720857151</v>
+        <v>122.84945271636465</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -57258,19 +57282,19 @@
       </c>
       <c r="C45" s="43">
         <f>IFERROR(VLOOKUP(A45,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>373.72344556677342</v>
+        <v>385.50544314077791</v>
       </c>
       <c r="D45" s="44">
         <f>(C45*0.001)/VLOOKUP(B45,Platemap!B$19:C$23,2)</f>
-        <v>2.4914896371118229E-6</v>
+        <v>2.5700362876051864E-6</v>
       </c>
       <c r="E45" s="43">
         <f t="shared" si="2"/>
-        <v>2491.489637111823</v>
+        <v>2570.0362876051863</v>
       </c>
       <c r="F45" s="43">
         <f t="shared" si="3"/>
-        <v>249.14896371118229</v>
+        <v>257.00362876051861</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -57282,19 +57306,19 @@
       </c>
       <c r="C46" s="43">
         <f>IFERROR(VLOOKUP(A46,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>141.39810279847813</v>
+        <v>140.37144715858634</v>
       </c>
       <c r="D46" s="44">
         <f>(C46*0.001)/VLOOKUP(B46,Platemap!B$19:C$23,2)</f>
-        <v>9.42654018656521E-7</v>
+        <v>9.3580964772390904E-7</v>
       </c>
       <c r="E46" s="43">
         <f t="shared" si="2"/>
-        <v>942.65401865652098</v>
+        <v>935.80964772390905</v>
       </c>
       <c r="F46" s="43">
         <f t="shared" si="3"/>
-        <v>94.265401865652095</v>
+        <v>93.580964772390899</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -57306,19 +57330,19 @@
       </c>
       <c r="C47" s="43">
         <f>IFERROR(VLOOKUP(A47,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>437.65201882509979</v>
+        <v>448.41252205693996</v>
       </c>
       <c r="D47" s="44">
         <f>(C47*0.001)/VLOOKUP(B47,Platemap!B$19:C$23,2)</f>
-        <v>2.9176801255006653E-6</v>
+        <v>2.9894168137129333E-6</v>
       </c>
       <c r="E47" s="43">
         <f t="shared" si="2"/>
-        <v>2917.6801255006653</v>
+        <v>2989.4168137129332</v>
       </c>
       <c r="F47" s="43">
         <f t="shared" si="3"/>
-        <v>291.76801255006654</v>
+        <v>298.94168137129333</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -57330,19 +57354,19 @@
       </c>
       <c r="C48" s="43">
         <f>IFERROR(VLOOKUP(A48,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>415.6902903823804</v>
+        <v>426.99680996287481</v>
       </c>
       <c r="D48" s="44">
         <f>(C48*0.001)/VLOOKUP(B48,Platemap!B$19:C$23,2)</f>
-        <v>2.7712686025492029E-6</v>
+        <v>2.8466453997524986E-6</v>
       </c>
       <c r="E48" s="43">
         <f t="shared" si="2"/>
-        <v>2771.268602549203</v>
+        <v>2846.6453997524986</v>
       </c>
       <c r="F48" s="43">
         <f t="shared" si="3"/>
-        <v>277.1268602549203</v>
+        <v>284.66453997524985</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -57354,19 +57378,19 @@
       </c>
       <c r="C49" s="43">
         <f>IFERROR(VLOOKUP(A49,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>496.08880546274349</v>
+        <v>504.45066609467881</v>
       </c>
       <c r="D49" s="44">
         <f>(C49*0.001)/VLOOKUP(B49,Platemap!B$19:C$23,2)</f>
-        <v>3.3072587030849569E-6</v>
+        <v>3.3630044406311923E-6</v>
       </c>
       <c r="E49" s="43">
         <f t="shared" si="2"/>
-        <v>3307.2587030849568</v>
+        <v>3363.0044406311922</v>
       </c>
       <c r="F49" s="43">
         <f t="shared" si="3"/>
-        <v>330.7258703084957</v>
+        <v>336.30044406311924</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -57402,19 +57426,19 @@
       </c>
       <c r="C51" s="43">
         <f>IFERROR(VLOOKUP(A51,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>345.73420957244355</v>
+        <v>357.40235177918731</v>
       </c>
       <c r="D51" s="44">
         <f>(C51*0.001)/VLOOKUP(B51,Platemap!B$19:C$23,2)</f>
-        <v>2.3048947304829569E-6</v>
+        <v>2.3826823451945824E-6</v>
       </c>
       <c r="E51" s="43">
         <f t="shared" si="2"/>
-        <v>2304.8947304829567</v>
+        <v>2382.6823451945825</v>
       </c>
       <c r="F51" s="43">
         <f t="shared" si="3"/>
-        <v>230.48947304829568</v>
+        <v>238.26823451945825</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -57426,19 +57450,19 @@
       </c>
       <c r="C52" s="43">
         <f>IFERROR(VLOOKUP(A52,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>244.2397466637774</v>
+        <v>252.37262739297779</v>
       </c>
       <c r="D52" s="44">
         <f>(C52*0.001)/VLOOKUP(B52,Platemap!B$19:C$23,2)</f>
-        <v>1.6282649777585159E-6</v>
+        <v>1.6824841826198519E-6</v>
       </c>
       <c r="E52" s="43">
         <f t="shared" si="2"/>
-        <v>1628.2649777585159</v>
+        <v>1682.4841826198519</v>
       </c>
       <c r="F52" s="43">
         <f t="shared" si="3"/>
-        <v>162.82649777585158</v>
+        <v>168.24841826198519</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -57450,19 +57474,19 @@
       </c>
       <c r="C53" s="43">
         <f>IFERROR(VLOOKUP(A53,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>307.16419875513935</v>
+        <v>318.08299071851036</v>
       </c>
       <c r="D53" s="44">
         <f>(C53*0.001)/VLOOKUP(B53,Platemap!B$19:C$23,2)</f>
-        <v>2.0477613250342624E-6</v>
+        <v>2.1205532714567359E-6</v>
       </c>
       <c r="E53" s="43">
         <f t="shared" si="2"/>
-        <v>2047.7613250342624</v>
+        <v>2120.5532714567357</v>
       </c>
       <c r="F53" s="43">
         <f t="shared" si="3"/>
-        <v>204.77613250342625</v>
+        <v>212.05532714567357</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -57474,19 +57498,19 @@
       </c>
       <c r="C54" s="43">
         <f>IFERROR(VLOOKUP(A54,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>306.80223922391156</v>
+        <v>317.71064837980254</v>
       </c>
       <c r="D54" s="44">
         <f>(C54*0.001)/VLOOKUP(B54,Platemap!B$19:C$23,2)</f>
-        <v>2.0453482614927438E-6</v>
+        <v>2.1180709891986836E-6</v>
       </c>
       <c r="E54" s="43">
         <f t="shared" si="2"/>
-        <v>2045.3482614927439</v>
+        <v>2118.0709891986835</v>
       </c>
       <c r="F54" s="43">
         <f t="shared" si="3"/>
-        <v>204.53482614927438</v>
+        <v>211.80709891986834</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -57498,19 +57522,19 @@
       </c>
       <c r="C55" s="43">
         <f>IFERROR(VLOOKUP(A55,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>139.53502304272445</v>
+        <v>138.28511190099357</v>
       </c>
       <c r="D55" s="44">
         <f>(C55*0.001)/VLOOKUP(B55,Platemap!B$19:C$23,2)</f>
-        <v>9.3023348695149628E-7</v>
+        <v>9.2190074600662387E-7</v>
       </c>
       <c r="E55" s="43">
         <f t="shared" si="2"/>
-        <v>930.23348695149627</v>
+        <v>921.90074600662388</v>
       </c>
       <c r="F55" s="43">
         <f t="shared" si="3"/>
-        <v>93.023348695149622</v>
+        <v>92.190074600662385</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -57522,19 +57546,19 @@
       </c>
       <c r="C56" s="43">
         <f>IFERROR(VLOOKUP(A56,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>198.2644770680854</v>
+        <v>203.04768642019758</v>
       </c>
       <c r="D56" s="44">
         <f>(C56*0.001)/VLOOKUP(B56,Platemap!B$19:C$23,2)</f>
-        <v>1.3217631804539026E-6</v>
+        <v>1.3536512428013171E-6</v>
       </c>
       <c r="E56" s="43">
         <f t="shared" si="2"/>
-        <v>1321.7631804539026</v>
+        <v>1353.651242801317</v>
       </c>
       <c r="F56" s="43">
         <f t="shared" si="3"/>
-        <v>132.17631804539025</v>
+        <v>135.36512428013171</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -57546,19 +57570,19 @@
       </c>
       <c r="C57" s="43">
         <f>IFERROR(VLOOKUP(A57,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>155.1937850187573</v>
+        <v>155.75382563859264</v>
       </c>
       <c r="D57" s="44">
         <f>(C57*0.001)/VLOOKUP(B57,Platemap!B$19:C$23,2)</f>
-        <v>1.034625233458382E-6</v>
+        <v>1.0383588375906176E-6</v>
       </c>
       <c r="E57" s="43">
         <f t="shared" si="2"/>
-        <v>1034.6252334583819</v>
+        <v>1038.3588375906177</v>
       </c>
       <c r="F57" s="43">
         <f t="shared" si="3"/>
-        <v>103.46252334583819</v>
+        <v>103.83588375906177</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -57570,19 +57594,19 @@
       </c>
       <c r="C58" s="43">
         <f>IFERROR(VLOOKUP(A58,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>131.47965728379492</v>
+        <v>129.23956371619158</v>
       </c>
       <c r="D58" s="44">
         <f>(C58*0.001)/VLOOKUP(B58,Platemap!B$19:C$23,2)</f>
-        <v>8.7653104855863291E-7</v>
+        <v>8.6159709144127724E-7</v>
       </c>
       <c r="E58" s="43">
         <f t="shared" si="2"/>
-        <v>876.53104855863296</v>
+        <v>861.59709144127726</v>
       </c>
       <c r="F58" s="43">
         <f t="shared" si="3"/>
-        <v>87.65310485586329</v>
+        <v>86.159709144127731</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -57594,19 +57618,19 @@
       </c>
       <c r="C59" s="43">
         <f>IFERROR(VLOOKUP(A59,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>462.50368632162412</v>
+        <v>472.40896266551073</v>
       </c>
       <c r="D59" s="44">
         <f>(C59*0.001)/VLOOKUP(B59,Platemap!B$19:C$23,2)</f>
-        <v>3.0833579088108276E-6</v>
+        <v>3.1493930844367384E-6</v>
       </c>
       <c r="E59" s="43">
         <f t="shared" si="2"/>
-        <v>3083.3579088108277</v>
+        <v>3149.3930844367383</v>
       </c>
       <c r="F59" s="43">
         <f t="shared" si="3"/>
-        <v>308.33579088108274</v>
+        <v>314.93930844367384</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -57618,19 +57642,19 @@
       </c>
       <c r="C60" s="43">
         <f>IFERROR(VLOOKUP(A60,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>192.43024367965171</v>
+        <v>196.70448498963853</v>
       </c>
       <c r="D60" s="44">
         <f>(C60*0.001)/VLOOKUP(B60,Platemap!B$19:C$23,2)</f>
-        <v>1.2828682911976781E-6</v>
+        <v>1.3113632332642569E-6</v>
       </c>
       <c r="E60" s="43">
         <f t="shared" si="2"/>
-        <v>1282.8682911976782</v>
+        <v>1311.3632332642569</v>
       </c>
       <c r="F60" s="43">
         <f t="shared" si="3"/>
-        <v>128.28682911976782</v>
+        <v>131.1363233264257</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -57642,19 +57666,19 @@
       </c>
       <c r="C61" s="43">
         <f>IFERROR(VLOOKUP(A61,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>142.19009961796829</v>
+        <v>141.25769862221517</v>
       </c>
       <c r="D61" s="44">
         <f>(C61*0.001)/VLOOKUP(B61,Platemap!B$19:C$23,2)</f>
-        <v>9.4793399745312201E-7</v>
+        <v>9.4171799081476793E-7</v>
       </c>
       <c r="E61" s="43">
         <f t="shared" si="2"/>
-        <v>947.93399745312206</v>
+        <v>941.71799081476797</v>
       </c>
       <c r="F61" s="43">
         <f t="shared" si="3"/>
-        <v>94.7933997453122</v>
+        <v>94.171799081476792</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -57690,19 +57714,19 @@
       </c>
       <c r="C63" s="43">
         <f>IFERROR(VLOOKUP(A63,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>498.00211036401447</v>
+        <v>506.26294787317102</v>
       </c>
       <c r="D63" s="44">
         <f>(C63*0.001)/VLOOKUP(B63,Platemap!B$19:C$23,2)</f>
-        <v>3.3200140690934299E-6</v>
+        <v>3.3750863191544735E-6</v>
       </c>
       <c r="E63" s="43">
         <f t="shared" si="2"/>
-        <v>3320.01406909343</v>
+        <v>3375.0863191544736</v>
       </c>
       <c r="F63" s="43">
         <f t="shared" si="3"/>
-        <v>332.00140690934302</v>
+        <v>337.50863191544738</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -57714,19 +57738,19 @@
       </c>
       <c r="C64" s="43">
         <f>IFERROR(VLOOKUP(A64,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>41.167902356394777</v>
+        <v>24.897352868637007</v>
       </c>
       <c r="D64" s="44">
         <f>(C64*0.001)/VLOOKUP(B64,Platemap!B$19:C$23,2)</f>
-        <v>2.7445268237596517E-7</v>
+        <v>1.6598235245758005E-7</v>
       </c>
       <c r="E64" s="43">
         <f t="shared" si="2"/>
-        <v>274.4526823759652</v>
+        <v>165.98235245758005</v>
       </c>
       <c r="F64" s="43">
         <f t="shared" si="3"/>
-        <v>27.445268237596519</v>
+        <v>16.598235245758005</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
@@ -57738,19 +57762,19 @@
       </c>
       <c r="C65" s="43">
         <f>IFERROR(VLOOKUP(A65,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>110.51856608377155</v>
+        <v>105.50913607372081</v>
       </c>
       <c r="D65" s="44">
         <f>(C65*0.001)/VLOOKUP(B65,Platemap!B$19:C$23,2)</f>
-        <v>7.3679044055847691E-7</v>
+        <v>7.033942404914721E-7</v>
       </c>
       <c r="E65" s="43">
         <f t="shared" si="2"/>
-        <v>736.79044055847692</v>
+        <v>703.39424049147215</v>
       </c>
       <c r="F65" s="43">
         <f t="shared" si="3"/>
-        <v>73.679044055847697</v>
+        <v>70.339424049147212</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
@@ -57762,19 +57786,19 @@
       </c>
       <c r="C66" s="43">
         <f>IFERROR(VLOOKUP(A66,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>240.3546241386897</v>
+        <v>248.24875809979457</v>
       </c>
       <c r="D66" s="44">
         <f>(C66*0.001)/VLOOKUP(B66,Platemap!B$19:C$23,2)</f>
-        <v>1.6023641609245982E-6</v>
+        <v>1.6549917206652972E-6</v>
       </c>
       <c r="E66" s="43">
         <f t="shared" si="2"/>
-        <v>1602.3641609245983</v>
+        <v>1654.9917206652972</v>
       </c>
       <c r="F66" s="43">
         <f t="shared" si="3"/>
-        <v>160.23641609245982</v>
+        <v>165.49917206652972</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
@@ -57786,19 +57810,19 @@
       </c>
       <c r="C67" s="43">
         <f>IFERROR(VLOOKUP(A67,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>315.03902637576965</v>
+        <v>326.16807072869227</v>
       </c>
       <c r="D67" s="44">
         <f>(C67*0.001)/VLOOKUP(B67,Platemap!B$19:C$23,2)</f>
-        <v>2.1002601758384645E-6</v>
+        <v>2.1744538048579489E-6</v>
       </c>
       <c r="E67" s="43">
         <f t="shared" si="2"/>
-        <v>2100.2601758384644</v>
+        <v>2174.4538048579489</v>
       </c>
       <c r="F67" s="43">
         <f t="shared" si="3"/>
-        <v>210.02601758384645</v>
+        <v>217.44538048579489</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
@@ -57810,19 +57834,19 @@
       </c>
       <c r="C68" s="43">
         <f>IFERROR(VLOOKUP(A68,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>535.66113204261308</v>
+        <v>541.65427495702522</v>
       </c>
       <c r="D68" s="44">
         <f>(C68*0.001)/VLOOKUP(B68,Platemap!B$19:C$23,2)</f>
-        <v>3.5710742136174209E-6</v>
+        <v>3.6110284997135016E-6</v>
       </c>
       <c r="E68" s="43">
         <f t="shared" si="2"/>
-        <v>3571.0742136174208</v>
+        <v>3611.0284997135013</v>
       </c>
       <c r="F68" s="43">
         <f t="shared" si="3"/>
-        <v>357.10742136174207</v>
+        <v>361.10284997135011</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
@@ -57834,19 +57858,19 @@
       </c>
       <c r="C69" s="43">
         <f>IFERROR(VLOOKUP(A69,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>132.79677784753781</v>
+        <v>130.72136597452749</v>
       </c>
       <c r="D69" s="44">
         <f>(C69*0.001)/VLOOKUP(B69,Platemap!B$19:C$23,2)</f>
-        <v>8.8531185231691878E-7</v>
+        <v>8.7147577316351657E-7</v>
       </c>
       <c r="E69" s="43">
         <f t="shared" si="2"/>
-        <v>885.31185231691882</v>
+        <v>871.47577316351658</v>
       </c>
       <c r="F69" s="43">
         <f t="shared" si="3"/>
-        <v>88.531185231691879</v>
+        <v>87.147577316351658</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
@@ -57858,19 +57882,19 @@
       </c>
       <c r="C70" s="43">
         <f>IFERROR(VLOOKUP(A70,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>171.40791059151451</v>
+        <v>173.68562330292815</v>
       </c>
       <c r="D70" s="44">
         <f>(C70*0.001)/VLOOKUP(B70,Platemap!B$19:C$23,2)</f>
-        <v>1.14271940394343E-6</v>
+        <v>1.1579041553528543E-6</v>
       </c>
       <c r="E70" s="43">
         <f t="shared" si="2"/>
-        <v>1142.7194039434301</v>
+        <v>1157.9041553528543</v>
       </c>
       <c r="F70" s="43">
         <f t="shared" si="3"/>
-        <v>114.27194039434301</v>
+        <v>115.79041553528543</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
@@ -57882,19 +57906,19 @@
       </c>
       <c r="C71" s="43">
         <f>IFERROR(VLOOKUP(A71,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>123.13307458296914</v>
+        <v>119.82391606324374</v>
       </c>
       <c r="D71" s="44">
         <f>(C71*0.001)/VLOOKUP(B71,Platemap!B$19:C$23,2)</f>
-        <v>8.2088716388646092E-7</v>
+        <v>7.9882610708829167E-7</v>
       </c>
       <c r="E71" s="43">
         <f t="shared" si="2"/>
-        <v>820.88716388646094</v>
+        <v>798.82610708829168</v>
       </c>
       <c r="F71" s="43">
         <f t="shared" si="3"/>
-        <v>82.088716388646091</v>
+        <v>79.882610708829162</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
@@ -57906,19 +57930,19 @@
       </c>
       <c r="C72" s="43">
         <f>IFERROR(VLOOKUP(A72,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>116.38897280476674</v>
+        <v>112.18356296174952</v>
       </c>
       <c r="D72" s="44">
         <f>(C72*0.001)/VLOOKUP(B72,Platemap!B$19:C$23,2)</f>
-        <v>7.7592648536511164E-7</v>
+        <v>7.4789041974499676E-7</v>
       </c>
       <c r="E72" s="43">
         <f t="shared" si="2"/>
-        <v>775.9264853651116</v>
+        <v>747.89041974499673</v>
       </c>
       <c r="F72" s="43">
         <f t="shared" si="3"/>
-        <v>77.592648536511163</v>
+        <v>74.789041974499668</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
@@ -57930,19 +57954,19 @@
       </c>
       <c r="C73" s="43">
         <f>IFERROR(VLOOKUP(A73,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>55.866393062986461</v>
+        <v>42.263643220296103</v>
       </c>
       <c r="D73" s="44">
         <f>(C73*0.001)/VLOOKUP(B73,Platemap!B$19:C$23,2)</f>
-        <v>3.7244262041990975E-7</v>
+        <v>2.8175762146864067E-7</v>
       </c>
       <c r="E73" s="43">
         <f t="shared" si="2"/>
-        <v>372.44262041990976</v>
+        <v>281.75762146864065</v>
       </c>
       <c r="F73" s="43">
         <f t="shared" si="3"/>
-        <v>37.244262041990979</v>
+        <v>28.175762146864066</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
@@ -58002,19 +58026,19 @@
       </c>
       <c r="C76" s="43">
         <f>IFERROR(VLOOKUP(A76,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>611.92956276899542</v>
+        <v>611.77110540945716</v>
       </c>
       <c r="D76" s="44">
         <f>(C76*0.001)/VLOOKUP(B76,Platemap!B$19:C$23,2)</f>
-        <v>4.0795304184599699E-6</v>
+        <v>4.0784740360630483E-6</v>
       </c>
       <c r="E76" s="43">
         <f t="shared" si="2"/>
-        <v>4079.53041845997</v>
+        <v>4078.4740360630485</v>
       </c>
       <c r="F76" s="43">
         <f t="shared" si="3"/>
-        <v>407.95304184599701</v>
+        <v>407.84740360630485</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
@@ -58026,19 +58050,19 @@
       </c>
       <c r="C77" s="43">
         <f>IFERROR(VLOOKUP(A77,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>203.08837666843903</v>
+        <v>208.27784799264458</v>
       </c>
       <c r="D77" s="44">
         <f>(C77*0.001)/VLOOKUP(B77,Platemap!B$19:C$23,2)</f>
-        <v>1.353922511122927E-6</v>
+        <v>1.3885189866176306E-6</v>
       </c>
       <c r="E77" s="43">
         <f t="shared" si="2"/>
-        <v>1353.9225111229271</v>
+        <v>1388.5189866176306</v>
       </c>
       <c r="F77" s="43">
         <f t="shared" si="3"/>
-        <v>135.39225111229271</v>
+        <v>138.85189866176307</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
@@ -58074,19 +58098,19 @@
       </c>
       <c r="C79" s="43">
         <f>IFERROR(VLOOKUP(A79,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>158.26400180410053</v>
+        <v>159.16138834783999</v>
       </c>
       <c r="D79" s="44">
         <f>(C79*0.001)/VLOOKUP(B79,Platemap!B$19:C$23,2)</f>
-        <v>1.0550933453606702E-6</v>
+        <v>1.0610759223189333E-6</v>
       </c>
       <c r="E79" s="43">
         <f t="shared" si="4"/>
-        <v>1055.0933453606701</v>
+        <v>1061.0759223189334</v>
       </c>
       <c r="F79" s="43">
         <f t="shared" si="5"/>
-        <v>105.50933453606702</v>
+        <v>106.10759223189334</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -58098,19 +58122,19 @@
       </c>
       <c r="C80" s="43">
         <f>IFERROR(VLOOKUP(A80,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>301.56484203221532</v>
+        <v>312.31590295675102</v>
       </c>
       <c r="D80" s="44">
         <f>(C80*0.001)/VLOOKUP(B80,Platemap!B$19:C$23,2)</f>
-        <v>2.0104322802147691E-6</v>
+        <v>2.0821060197116735E-6</v>
       </c>
       <c r="E80" s="43">
         <f t="shared" si="4"/>
-        <v>2010.432280214769</v>
+        <v>2082.1060197116735</v>
       </c>
       <c r="F80" s="43">
         <f t="shared" si="5"/>
-        <v>201.04322802147689</v>
+        <v>208.21060197116736</v>
       </c>
       <c r="U80" t="s">
         <v>160</v>
@@ -58125,19 +58149,19 @@
       </c>
       <c r="C81" s="43">
         <f>IFERROR(VLOOKUP(A81,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>73.751988589419796</v>
+        <v>63.187219770189429</v>
       </c>
       <c r="D81" s="44">
         <f>(C81*0.001)/VLOOKUP(B81,Platemap!B$19:C$23,2)</f>
-        <v>4.9167992392946535E-7</v>
+        <v>4.2124813180126287E-7</v>
       </c>
       <c r="E81" s="43">
         <f t="shared" si="4"/>
-        <v>491.67992392946536</v>
+        <v>421.2481318012629</v>
       </c>
       <c r="F81" s="43">
         <f t="shared" si="5"/>
-        <v>49.167992392946537</v>
+        <v>42.124813180126289</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -58149,19 +58173,19 @@
       </c>
       <c r="C82" s="43">
         <f>IFERROR(VLOOKUP(A82,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>208.87962551185325</v>
+        <v>214.53955539184705</v>
       </c>
       <c r="D82" s="44">
         <f>(C82*0.001)/VLOOKUP(B82,Platemap!B$19:C$23,2)</f>
-        <v>1.3925308367456883E-6</v>
+        <v>1.4302637026123137E-6</v>
       </c>
       <c r="E82" s="43">
         <f t="shared" si="4"/>
-        <v>1392.5308367456882</v>
+        <v>1430.2637026123136</v>
       </c>
       <c r="F82" s="43">
         <f t="shared" si="5"/>
-        <v>139.25308367456881</v>
+        <v>143.02637026123136</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -58173,19 +58197,19 @@
       </c>
       <c r="C83" s="43">
         <f>IFERROR(VLOOKUP(A83,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>457.57893212425301</v>
+        <v>467.67336796029275</v>
       </c>
       <c r="D83" s="44">
         <f>(C83*0.001)/VLOOKUP(B83,Platemap!B$19:C$23,2)</f>
-        <v>3.050526214161687E-6</v>
+        <v>3.1178224530686182E-6</v>
       </c>
       <c r="E83" s="43">
         <f t="shared" si="4"/>
-        <v>3050.5262141616872</v>
+        <v>3117.8224530686184</v>
       </c>
       <c r="F83" s="43">
         <f t="shared" si="5"/>
-        <v>305.05262141616873</v>
+        <v>311.78224530686185</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -58197,19 +58221,19 @@
       </c>
       <c r="C84" s="43">
         <f>IFERROR(VLOOKUP(A84,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>119.19890841252598</v>
+        <v>115.3704698524564</v>
       </c>
       <c r="D84" s="44">
         <f>(C84*0.001)/VLOOKUP(B84,Platemap!B$19:C$23,2)</f>
-        <v>7.946593894168399E-7</v>
+        <v>7.6913646568304272E-7</v>
       </c>
       <c r="E84" s="43">
         <f t="shared" si="4"/>
-        <v>794.65938941683987</v>
+        <v>769.13646568304273</v>
       </c>
       <c r="F84" s="43">
         <f t="shared" si="5"/>
-        <v>79.465938941683987</v>
+        <v>76.913646568304273</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -58269,19 +58293,19 @@
       </c>
       <c r="C87" s="43">
         <f>IFERROR(VLOOKUP(A87,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>200.13181357258912</v>
+        <v>205.0738453969546</v>
       </c>
       <c r="D87" s="44">
         <f>(C87*0.001)/VLOOKUP(B87,Platemap!B$19:C$23,2)</f>
-        <v>1.3342120904839276E-6</v>
+        <v>1.3671589693130307E-6</v>
       </c>
       <c r="E87" s="43">
         <f t="shared" si="4"/>
-        <v>1334.2120904839276</v>
+        <v>1367.1589693130306</v>
       </c>
       <c r="F87" s="43">
         <f t="shared" si="5"/>
-        <v>133.42120904839277</v>
+        <v>136.71589693130306</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -58293,19 +58317,19 @@
       </c>
       <c r="C88" s="43">
         <f>IFERROR(VLOOKUP(A88,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>132.52467088773767</v>
+        <v>130.41532640692176</v>
       </c>
       <c r="D88" s="44">
         <f>(C88*0.001)/VLOOKUP(B88,Platemap!B$19:C$23,2)</f>
-        <v>8.8349780591825113E-7</v>
+        <v>8.6943550937947843E-7</v>
       </c>
       <c r="E88" s="43">
         <f t="shared" si="4"/>
-        <v>883.49780591825117</v>
+        <v>869.43550937947839</v>
       </c>
       <c r="F88" s="43">
         <f t="shared" si="5"/>
-        <v>88.349780591825123</v>
+        <v>86.943550937947833</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -58317,19 +58341,19 @@
       </c>
       <c r="C89" s="43">
         <f>IFERROR(VLOOKUP(A89,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>129.73813897708709</v>
+        <v>127.27862408099752</v>
       </c>
       <c r="D89" s="44">
         <f>(C89*0.001)/VLOOKUP(B89,Platemap!B$19:C$23,2)</f>
-        <v>8.6492092651391391E-7</v>
+        <v>8.4852416053998348E-7</v>
       </c>
       <c r="E89" s="43">
         <f t="shared" si="4"/>
-        <v>864.92092651391386</v>
+        <v>848.52416053998354</v>
       </c>
       <c r="F89" s="43">
         <f t="shared" si="5"/>
-        <v>86.492092651391388</v>
+        <v>84.852416053998354</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -58341,19 +58365,19 @@
       </c>
       <c r="C90" s="43">
         <f>IFERROR(VLOOKUP(A90,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>173.51416174922576</v>
+        <v>176.0035290363364</v>
       </c>
       <c r="D90" s="44">
         <f>(C90*0.001)/VLOOKUP(B90,Platemap!B$19:C$23,2)</f>
-        <v>1.1567610783281718E-6</v>
+        <v>1.1733568602422426E-6</v>
       </c>
       <c r="E90" s="43">
         <f t="shared" si="4"/>
-        <v>1156.7610783281718</v>
+        <v>1173.3568602422426</v>
       </c>
       <c r="F90" s="43">
         <f t="shared" si="5"/>
-        <v>115.67610783281718</v>
+        <v>117.33568602422426</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -58365,19 +58389,19 @@
       </c>
       <c r="C91" s="43">
         <f>IFERROR(VLOOKUP(A91,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>117.65288499228426</v>
+        <v>113.6176661988633</v>
       </c>
       <c r="D91" s="44">
         <f>(C91*0.001)/VLOOKUP(B91,Platemap!B$19:C$23,2)</f>
-        <v>7.8435256661522835E-7</v>
+        <v>7.5745110799242206E-7</v>
       </c>
       <c r="E91" s="43">
         <f t="shared" si="4"/>
-        <v>784.3525666152284</v>
+        <v>757.45110799242207</v>
       </c>
       <c r="F91" s="43">
         <f t="shared" si="5"/>
-        <v>78.435256661522843</v>
+        <v>75.745110799242212</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -58389,19 +58413,19 @@
       </c>
       <c r="C92" s="43">
         <f>IFERROR(VLOOKUP(A92,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>195.37235184014867</v>
+        <v>199.90567757986716</v>
       </c>
       <c r="D92" s="44">
         <f>(C92*0.001)/VLOOKUP(B92,Platemap!B$19:C$23,2)</f>
-        <v>1.3024823456009911E-6</v>
+        <v>1.3327045171991143E-6</v>
       </c>
       <c r="E92" s="43">
         <f t="shared" si="4"/>
-        <v>1302.482345600991</v>
+        <v>1332.7045171991142</v>
       </c>
       <c r="F92" s="43">
         <f t="shared" si="5"/>
-        <v>130.24823456009909</v>
+        <v>133.27045171991142</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -58413,19 +58437,19 @@
       </c>
       <c r="C93" s="43">
         <f>IFERROR(VLOOKUP(A93,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>226.90012593274065</v>
+        <v>233.90513034502166</v>
       </c>
       <c r="D93" s="44">
         <f>(C93*0.001)/VLOOKUP(B93,Platemap!B$19:C$23,2)</f>
-        <v>1.5126675062182709E-6</v>
+        <v>1.5593675356334779E-6</v>
       </c>
       <c r="E93" s="43">
         <f t="shared" si="4"/>
-        <v>1512.6675062182708</v>
+        <v>1559.3675356334779</v>
       </c>
       <c r="F93" s="43">
         <f t="shared" si="5"/>
-        <v>151.26675062182707</v>
+        <v>155.93675356334779</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -58437,19 +58461,19 @@
       </c>
       <c r="C94" s="43">
         <f>IFERROR(VLOOKUP(A94,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>199.41264708584788</v>
+        <v>204.29374514274721</v>
       </c>
       <c r="D94" s="44">
         <f>(C94*0.001)/VLOOKUP(B94,Platemap!B$19:C$23,2)</f>
-        <v>1.3294176472389858E-6</v>
+        <v>1.3619583009516483E-6</v>
       </c>
       <c r="E94" s="43">
         <f t="shared" si="4"/>
-        <v>1329.4176472389859</v>
+        <v>1361.9583009516482</v>
       </c>
       <c r="F94" s="43">
         <f t="shared" si="5"/>
-        <v>132.94176472389859</v>
+        <v>136.19583009516481</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -58461,19 +58485,19 @@
       </c>
       <c r="C95" s="43">
         <f>IFERROR(VLOOKUP(A95,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>88.934002805481015</v>
+        <v>80.773541823314829</v>
       </c>
       <c r="D95" s="44">
         <f>(C95*0.001)/VLOOKUP(B95,Platemap!B$19:C$23,2)</f>
-        <v>5.9289335203654004E-7</v>
+        <v>5.3849027882209895E-7</v>
       </c>
       <c r="E95" s="43">
         <f t="shared" si="4"/>
-        <v>592.89335203654002</v>
+        <v>538.49027882209896</v>
       </c>
       <c r="F95" s="43">
         <f t="shared" si="5"/>
-        <v>59.289335203654005</v>
+        <v>53.849027882209896</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -58485,19 +58509,19 @@
       </c>
       <c r="C96" s="43">
         <f>IFERROR(VLOOKUP(A96,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>146.92054366666594</v>
+        <v>146.54304634990953</v>
       </c>
       <c r="D96" s="44">
         <f>(C96*0.001)/VLOOKUP(B96,Platemap!B$19:C$23,2)</f>
-        <v>9.7947029111110618E-7</v>
+        <v>9.7695364233273011E-7</v>
       </c>
       <c r="E96" s="43">
         <f t="shared" si="4"/>
-        <v>979.47029111110612</v>
+        <v>976.95364233273006</v>
       </c>
       <c r="F96" s="43">
         <f t="shared" si="5"/>
-        <v>97.947029111110609</v>
+        <v>97.695364233273011</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -58509,19 +58533,19 @@
       </c>
       <c r="C97" s="43">
         <f>IFERROR(VLOOKUP(A97,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>121.38344002787368</v>
+        <v>117.84456616764648</v>
       </c>
       <c r="D97" s="44">
         <f>(C97*0.001)/VLOOKUP(B97,Platemap!B$19:C$23,2)</f>
-        <v>8.0922293351915781E-7</v>
+        <v>7.8563044111764317E-7</v>
       </c>
       <c r="E97" s="43">
         <f t="shared" si="4"/>
-        <v>809.22293351915778</v>
+        <v>785.63044111764316</v>
       </c>
       <c r="F97" s="43">
         <f t="shared" si="5"/>
-        <v>80.922293351915783</v>
+        <v>78.563044111764313</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -58533,19 +58557,19 @@
       </c>
       <c r="C98" s="43">
         <f>IFERROR(VLOOKUP(A98,'Prot 96-well Smpls Analysis'!$AC$2:$AD$97,2,FALSE),0)</f>
-        <v>86.838815675736257</v>
+        <v>78.35590708585039</v>
       </c>
       <c r="D98" s="44">
         <f>(C98*0.001)/VLOOKUP(B98,Platemap!B$19:C$23,2)</f>
-        <v>5.7892543783824173E-7</v>
+        <v>5.2237271390566931E-7</v>
       </c>
       <c r="E98" s="43">
         <f t="shared" si="4"/>
-        <v>578.92543783824169</v>
+        <v>522.37271390566934</v>
       </c>
       <c r="F98" s="43">
         <f t="shared" si="5"/>
-        <v>57.892543783824166</v>
+        <v>52.237271390566931</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -58554,7 +58578,7 @@
       </c>
       <c r="C99" s="42">
         <f>'Prot 96-well Smpls Analysis'!L20</f>
-        <v>37.472999999999999</v>
+        <v>20.507000000000001</v>
       </c>
       <c r="D99" s="44" t="e">
         <f>(C99*0.001)/VLOOKUP(B99,Platemap!B$19:C$23,2)</f>
@@ -58572,7 +58596,7 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E100" s="42">
         <f>COUNTIF(E3:E98,"&lt;325")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" s="42">
         <f>COUNTIF(F3:F98,"&lt;325")</f>
@@ -58660,11 +58684,11 @@
       <c r="E2" s="55"/>
       <c r="F2" s="59">
         <f>IF('All Conc Summary'!C3=0,"not detected",'All Conc Summary'!C3)</f>
-        <v>1312.9272562804695</v>
+        <v>1180.6549336092723</v>
       </c>
       <c r="G2" s="59">
         <f>'All Conc Summary'!E3</f>
-        <v>8752.8483752031298</v>
+        <v>7871.032890728482</v>
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="77"/>
@@ -58694,11 +58718,11 @@
       <c r="E3" s="77"/>
       <c r="F3" s="59">
         <f>IF('All Conc Summary'!C4=0,"not detected",'All Conc Summary'!C4)</f>
-        <v>1139.5291631647374</v>
+        <v>1050.483522983579</v>
       </c>
       <c r="G3" s="59">
         <f>'All Conc Summary'!E4</f>
-        <v>7596.8610877649162</v>
+        <v>7003.2234865571927</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="77"/>
@@ -58728,11 +58752,11 @@
       <c r="E4" s="77"/>
       <c r="F4" s="59">
         <f>IF('All Conc Summary'!C5=0,"not detected",'All Conc Summary'!C5)</f>
-        <v>552.61223238419552</v>
+        <v>557.41486436573723</v>
       </c>
       <c r="G4" s="59">
         <f>'All Conc Summary'!E5</f>
-        <v>3684.0815492279703</v>
+        <v>3716.0990957715817</v>
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="77"/>
@@ -58762,11 +58786,11 @@
       <c r="E5" s="77"/>
       <c r="F5" s="59">
         <f>IF('All Conc Summary'!C6=0,"not detected",'All Conc Summary'!C6)</f>
-        <v>1403.0103739456633</v>
+        <v>1246.077421802981</v>
       </c>
       <c r="G5" s="59">
         <f>'All Conc Summary'!E6</f>
-        <v>9353.4024929710904</v>
+        <v>8307.1828120198752</v>
       </c>
       <c r="H5" s="53"/>
       <c r="I5" s="77"/>
@@ -58796,11 +58820,11 @@
       <c r="E6" s="77"/>
       <c r="F6" s="59">
         <f>IF('All Conc Summary'!C7=0,"not detected",'All Conc Summary'!C7)</f>
-        <v>983.37362850168233</v>
+        <v>927.9447206940946</v>
       </c>
       <c r="G6" s="59">
         <f>'All Conc Summary'!E7</f>
-        <v>6555.8241900112153</v>
+        <v>6186.2981379606308</v>
       </c>
       <c r="H6" s="53"/>
       <c r="I6" s="77"/>
@@ -58830,11 +58854,11 @@
       <c r="E7" s="77"/>
       <c r="F7" s="59">
         <f>IF('All Conc Summary'!C8=0,"not detected",'All Conc Summary'!C8)</f>
-        <v>843.31775620164387</v>
+        <v>813.17921272623869</v>
       </c>
       <c r="G7" s="59">
         <f>'All Conc Summary'!E8</f>
-        <v>5622.1183746776251</v>
+        <v>5421.1947515082575</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="77"/>
@@ -58864,11 +58888,11 @@
       <c r="E8" s="77"/>
       <c r="F8" s="59">
         <f>IF('All Conc Summary'!C9=0,"not detected",'All Conc Summary'!C9)</f>
-        <v>706.9720917639595</v>
+        <v>696.43968110102958</v>
       </c>
       <c r="G8" s="59">
         <f>'All Conc Summary'!E9</f>
-        <v>4713.147278426397</v>
+        <v>4642.9312073401979</v>
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="77"/>
@@ -58898,11 +58922,11 @@
       <c r="E9" s="77"/>
       <c r="F9" s="59">
         <f>IF('All Conc Summary'!C10=0,"not detected",'All Conc Summary'!C10)</f>
-        <v>972.05445336083426</v>
+        <v>918.84832359211896</v>
       </c>
       <c r="G9" s="59">
         <f>'All Conc Summary'!E10</f>
-        <v>6480.3630224055614</v>
+        <v>6125.6554906141264</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="77"/>
@@ -58932,11 +58956,11 @@
       <c r="E10" s="77"/>
       <c r="F10" s="59">
         <f>IF('All Conc Summary'!C11=0,"not detected",'All Conc Summary'!C11)</f>
-        <v>971.10710126905451</v>
+        <v>918.0856318268842</v>
       </c>
       <c r="G10" s="59">
         <f>'All Conc Summary'!E11</f>
-        <v>6474.0473417936964</v>
+        <v>6120.5708788458942</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="77"/>
@@ -58966,11 +58990,11 @@
       <c r="E11" s="77"/>
       <c r="F11" s="59">
         <f>IF('All Conc Summary'!C12=0,"not detected",'All Conc Summary'!C12)</f>
-        <v>555.97720671167724</v>
+        <v>560.53124473586627</v>
       </c>
       <c r="G11" s="59">
         <f>'All Conc Summary'!E12</f>
-        <v>3706.5147114111815</v>
+        <v>3736.874964905775</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="77"/>
@@ -59000,11 +59024,11 @@
       <c r="E12" s="77"/>
       <c r="F12" s="59">
         <f>IF('All Conc Summary'!C13=0,"not detected",'All Conc Summary'!C13)</f>
-        <v>837.89207703447914</v>
+        <v>808.63247556330055</v>
       </c>
       <c r="G12" s="59">
         <f>'All Conc Summary'!E13</f>
-        <v>5585.9471802298613</v>
+        <v>5390.8831704220038</v>
       </c>
       <c r="H12" s="53"/>
       <c r="I12" s="77"/>
@@ -59068,11 +59092,11 @@
       <c r="E14" s="77"/>
       <c r="F14" s="59">
         <f>IF('All Conc Summary'!C15=0,"not detected",'All Conc Summary'!C15)</f>
-        <v>835.05010620271594</v>
+        <v>806.24775858806515</v>
       </c>
       <c r="G14" s="59">
         <f>'All Conc Summary'!E15</f>
-        <v>5567.0007080181058</v>
+        <v>5374.985057253768</v>
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="77"/>
@@ -59102,11 +59126,11 @@
       <c r="E15" s="77"/>
       <c r="F15" s="59">
         <f>IF('All Conc Summary'!C16=0,"not detected",'All Conc Summary'!C16)</f>
-        <v>1233.6620207542173</v>
+        <v>1121.8713972123082</v>
       </c>
       <c r="G15" s="59">
         <f>'All Conc Summary'!E16</f>
-        <v>8224.4134716947829</v>
+        <v>7479.1426480820546</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="77"/>
@@ -59136,11 +59160,11 @@
       <c r="E16" s="77"/>
       <c r="F16" s="59">
         <f>IF('All Conc Summary'!C17=0,"not detected",'All Conc Summary'!C17)</f>
-        <v>1058.5304774852552</v>
+        <v>987.59296873942105</v>
       </c>
       <c r="G16" s="59">
         <f>'All Conc Summary'!E17</f>
-        <v>7056.8698499017019</v>
+        <v>6583.9531249294732</v>
       </c>
       <c r="H16" s="53"/>
       <c r="I16" s="77"/>
@@ -59170,11 +59194,11 @@
       <c r="E17" s="77"/>
       <c r="F17" s="59">
         <f>IF('All Conc Summary'!C18=0,"not detected",'All Conc Summary'!C18)</f>
-        <v>923.27701046359334</v>
+        <v>879.2980901324687</v>
       </c>
       <c r="G17" s="59">
         <f>'All Conc Summary'!E18</f>
-        <v>6155.1800697572889</v>
+        <v>5861.9872675497918</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="77"/>
@@ -59204,11 +59228,11 @@
       <c r="E18" s="77"/>
       <c r="F18" s="59">
         <f>IF('All Conc Summary'!C19=0,"not detected",'All Conc Summary'!C19)</f>
-        <v>737.05678119268873</v>
+        <v>722.65718287749451</v>
       </c>
       <c r="G18" s="59">
         <f>'All Conc Summary'!E19</f>
-        <v>4913.7118746179249</v>
+        <v>4817.7145525166297</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="77"/>
@@ -59238,11 +59262,11 @@
       <c r="E19" s="77"/>
       <c r="F19" s="59">
         <f>IF('All Conc Summary'!C20=0,"not detected",'All Conc Summary'!C20)</f>
-        <v>854.50680014173622</v>
+        <v>822.53100467837885</v>
       </c>
       <c r="G19" s="59">
         <f>'All Conc Summary'!E20</f>
-        <v>5696.7120009449081</v>
+        <v>5483.5400311891926</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="77"/>
@@ -59272,11 +59296,11 @@
       <c r="E20" s="77"/>
       <c r="F20" s="59">
         <f>IF('All Conc Summary'!C21=0,"not detected",'All Conc Summary'!C21)</f>
-        <v>522.20794389798584</v>
+        <v>529.07160770241467</v>
       </c>
       <c r="G20" s="59">
         <f>'All Conc Summary'!E21</f>
-        <v>3481.3862926532393</v>
+        <v>3527.1440513494313</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="77"/>
@@ -59306,11 +59330,11 @@
       <c r="E21" s="77"/>
       <c r="F21" s="59">
         <f>IF('All Conc Summary'!C22=0,"not detected",'All Conc Summary'!C22)</f>
-        <v>529.28403183916055</v>
+        <v>535.69809246082389</v>
       </c>
       <c r="G21" s="59">
         <f>'All Conc Summary'!E22</f>
-        <v>3528.5602122610699</v>
+        <v>3571.3206164054927</v>
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="77"/>
@@ -59374,11 +59398,11 @@
       <c r="E23" s="77"/>
       <c r="F23" s="59">
         <f>IF('All Conc Summary'!C24=0,"not detected",'All Conc Summary'!C24)</f>
-        <v>649.50142276609529</v>
+        <v>645.58674511496861</v>
       </c>
       <c r="G23" s="59">
         <f>'All Conc Summary'!E24</f>
-        <v>4330.0094851073027</v>
+        <v>4303.9116340997907</v>
       </c>
       <c r="H23" s="53"/>
       <c r="I23" s="77"/>
@@ -59408,11 +59432,11 @@
       <c r="E24" s="77"/>
       <c r="F24" s="59">
         <f>IF('All Conc Summary'!C25=0,"not detected",'All Conc Summary'!C25)</f>
-        <v>630.7051667859688</v>
+        <v>628.72748845454373</v>
       </c>
       <c r="G24" s="59">
         <f>'All Conc Summary'!E25</f>
-        <v>4204.7011119064582</v>
+        <v>4191.5165896969584</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="77"/>
@@ -59442,11 +59466,11 @@
       <c r="E25" s="70"/>
       <c r="F25" s="59">
         <f>IF('All Conc Summary'!C26=0,"not detected",'All Conc Summary'!C26)</f>
-        <v>348.55656966052049</v>
+        <v>360.25228513224226</v>
       </c>
       <c r="G25" s="59">
         <f>'All Conc Summary'!E26</f>
-        <v>2323.7104644034698</v>
+        <v>2401.6819008816151</v>
       </c>
       <c r="H25" s="53"/>
       <c r="I25" s="77"/>
@@ -59476,11 +59500,11 @@
       <c r="E26" s="77"/>
       <c r="F26" s="59">
         <f>IF('All Conc Summary'!C27=0,"not detected",'All Conc Summary'!C27)</f>
-        <v>472.69985172768406</v>
+        <v>482.18300488795188</v>
       </c>
       <c r="G26" s="59">
         <f>'All Conc Summary'!E27</f>
-        <v>3151.3323448512274</v>
+        <v>3214.5533659196794</v>
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="77"/>
@@ -59510,11 +59534,11 @@
       <c r="E27" s="77"/>
       <c r="F27" s="59">
         <f>IF('All Conc Summary'!C28=0,"not detected",'All Conc Summary'!C28)</f>
-        <v>668.00534970550598</v>
+        <v>662.07284959669983</v>
       </c>
       <c r="G27" s="59">
         <f>'All Conc Summary'!E28</f>
-        <v>4453.3689980367062</v>
+        <v>4413.8189973113322</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="77"/>
@@ -59544,11 +59568,11 @@
       <c r="E28" s="77"/>
       <c r="F28" s="59">
         <f>IF('All Conc Summary'!C29=0,"not detected",'All Conc Summary'!C29)</f>
-        <v>533.40177958884408</v>
+        <v>539.54574829251874</v>
       </c>
       <c r="G28" s="59">
         <f>'All Conc Summary'!E29</f>
-        <v>3556.011863925627</v>
+        <v>3596.9716552834584</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="77"/>
@@ -59578,11 +59602,11 @@
       <c r="E29" s="77"/>
       <c r="F29" s="59">
         <f>IF('All Conc Summary'!C30=0,"not detected",'All Conc Summary'!C30)</f>
-        <v>585.02589578371089</v>
+        <v>587.26805438459394</v>
       </c>
       <c r="G29" s="59">
         <f>'All Conc Summary'!E30</f>
-        <v>3900.1726385580723</v>
+        <v>3915.1203625639596</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="77"/>
@@ -59612,11 +59636,11 @@
       <c r="E30" s="77"/>
       <c r="F30" s="59">
         <f>IF('All Conc Summary'!C31=0,"not detected",'All Conc Summary'!C31)</f>
-        <v>370.96688279054143</v>
+        <v>382.75327201997027</v>
       </c>
       <c r="G30" s="59">
         <f>'All Conc Summary'!E31</f>
-        <v>2473.112551936943</v>
+        <v>2551.6884801331353</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="77"/>
@@ -59646,11 +59670,11 @@
       <c r="E31" s="77"/>
       <c r="F31" s="59">
         <f>IF('All Conc Summary'!C32=0,"not detected",'All Conc Summary'!C32)</f>
-        <v>83.227424221427185</v>
+        <v>74.181730319489219</v>
       </c>
       <c r="G31" s="59">
         <f>'All Conc Summary'!E32</f>
-        <v>554.84949480951457</v>
+        <v>494.54486879659481</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="77"/>
@@ -59680,11 +59704,11 @@
       <c r="E32" s="77"/>
       <c r="F32" s="59">
         <f>IF('All Conc Summary'!C33=0,"not detected",'All Conc Summary'!C33)</f>
-        <v>675.72098866602403</v>
+        <v>668.91509587597068</v>
       </c>
       <c r="G32" s="59">
         <f>'All Conc Summary'!E33</f>
-        <v>4504.806591106827</v>
+        <v>4459.433972506471</v>
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="77"/>
@@ -59714,11 +59738,11 @@
       <c r="E33" s="77"/>
       <c r="F33" s="59">
         <f>IF('All Conc Summary'!C34=0,"not detected",'All Conc Summary'!C34)</f>
-        <v>516.48369497865212</v>
+        <v>523.69753776536709</v>
       </c>
       <c r="G33" s="59">
         <f>'All Conc Summary'!E34</f>
-        <v>3443.2246331910137</v>
+        <v>3491.3169184357807</v>
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="77"/>
@@ -59748,11 +59772,11 @@
       <c r="E34" s="77"/>
       <c r="F34" s="59">
         <f>IF('All Conc Summary'!C35=0,"not detected",'All Conc Summary'!C35)</f>
-        <v>707.42265062523325</v>
+        <v>696.8343263662789</v>
       </c>
       <c r="G34" s="59">
         <f>'All Conc Summary'!E35</f>
-        <v>4716.1510041682222</v>
+        <v>4645.5621757751933</v>
       </c>
       <c r="H34" s="53"/>
       <c r="I34" s="77"/>
@@ -59782,11 +59806,11 @@
       <c r="E35" s="77"/>
       <c r="F35" s="59">
         <f>IF('All Conc Summary'!C36=0,"not detected",'All Conc Summary'!C36)</f>
-        <v>570.39876802870629</v>
+        <v>573.84195898272264</v>
       </c>
       <c r="G35" s="59">
         <f>'All Conc Summary'!E36</f>
-        <v>3802.6584535247084</v>
+        <v>3825.6130598848176</v>
       </c>
       <c r="H35" s="53"/>
       <c r="I35" s="77"/>
@@ -59816,11 +59840,11 @@
       <c r="E36" s="77"/>
       <c r="F36" s="59">
         <f>IF('All Conc Summary'!C37=0,"not detected",'All Conc Summary'!C37)</f>
-        <v>348.69772501010948</v>
+        <v>360.39472369401113</v>
       </c>
       <c r="G36" s="59">
         <f>'All Conc Summary'!E37</f>
-        <v>2324.6515000673967</v>
+        <v>2402.6314912934076</v>
       </c>
       <c r="H36" s="53"/>
       <c r="I36" s="77"/>
@@ -59878,11 +59902,11 @@
       <c r="E38" s="77"/>
       <c r="F38" s="59">
         <f>IF('All Conc Summary'!C39=0,"not detected",'All Conc Summary'!C39)</f>
-        <v>368.88622613212374</v>
+        <v>380.67369486615365</v>
       </c>
       <c r="G38" s="59">
         <f>'All Conc Summary'!E39</f>
-        <v>2459.2415075474914</v>
+        <v>2537.8246324410243</v>
       </c>
       <c r="H38" s="53"/>
       <c r="I38" s="77"/>
@@ -59912,11 +59936,11 @@
       <c r="E39" s="77"/>
       <c r="F39" s="59">
         <f>IF('All Conc Summary'!C40=0,"not detected",'All Conc Summary'!C40)</f>
-        <v>189.83903442868331</v>
+        <v>193.8809960215662</v>
       </c>
       <c r="G39" s="59">
         <f>'All Conc Summary'!E40</f>
-        <v>1265.5935628578886</v>
+        <v>1292.5399734771081</v>
       </c>
       <c r="H39" s="53"/>
       <c r="I39" s="77"/>
@@ -59946,11 +59970,11 @@
       <c r="E40" s="77"/>
       <c r="F40" s="59">
         <f>IF('All Conc Summary'!C41=0,"not detected",'All Conc Summary'!C41)</f>
-        <v>249.22980104191623</v>
+        <v>257.65762418871668</v>
       </c>
       <c r="G40" s="59">
         <f>'All Conc Summary'!E41</f>
-        <v>1661.5320069461084</v>
+        <v>1717.7174945914446</v>
       </c>
       <c r="H40" s="53"/>
       <c r="I40" s="77"/>
@@ -59980,11 +60004,11 @@
       <c r="E41" s="77"/>
       <c r="F41" s="59">
         <f>IF('All Conc Summary'!C42=0,"not detected",'All Conc Summary'!C42)</f>
-        <v>145.28415494528605</v>
+        <v>144.71626049476325</v>
       </c>
       <c r="G41" s="59">
         <f>'All Conc Summary'!E42</f>
-        <v>968.5610329685735</v>
+        <v>964.77506996508828</v>
       </c>
       <c r="H41" s="53"/>
       <c r="I41" s="77"/>
@@ -60014,11 +60038,11 @@
       <c r="E42" s="77"/>
       <c r="F42" s="59">
         <f>IF('All Conc Summary'!C43=0,"not detected",'All Conc Summary'!C43)</f>
-        <v>138.65964818051879</v>
+        <v>137.3040955460423</v>
       </c>
       <c r="G42" s="59">
         <f>'All Conc Summary'!E43</f>
-        <v>924.39765453679195</v>
+        <v>915.36063697361544</v>
       </c>
       <c r="H42" s="53"/>
       <c r="I42" s="77"/>
@@ -60048,11 +60072,11 @@
       <c r="E43" s="77"/>
       <c r="F43" s="59">
         <f>IF('All Conc Summary'!C44=0,"not detected",'All Conc Summary'!C44)</f>
-        <v>181.04896081285722</v>
+        <v>184.27417907454696</v>
       </c>
       <c r="G43" s="59">
         <f>'All Conc Summary'!E44</f>
-        <v>1206.9930720857151</v>
+        <v>1228.4945271636466</v>
       </c>
       <c r="H43" s="53"/>
       <c r="I43" s="77"/>
@@ -60082,11 +60106,11 @@
       <c r="E44" s="70"/>
       <c r="F44" s="59">
         <f>IF('All Conc Summary'!C45=0,"not detected",'All Conc Summary'!C45)</f>
-        <v>373.72344556677342</v>
+        <v>385.50544314077791</v>
       </c>
       <c r="G44" s="59">
         <f>'All Conc Summary'!E45</f>
-        <v>2491.489637111823</v>
+        <v>2570.0362876051863</v>
       </c>
       <c r="H44" s="53"/>
       <c r="I44" s="77"/>
@@ -60116,11 +60140,11 @@
       <c r="E45" s="77"/>
       <c r="F45" s="59">
         <f>IF('All Conc Summary'!C46=0,"not detected",'All Conc Summary'!C46)</f>
-        <v>141.39810279847813</v>
+        <v>140.37144715858634</v>
       </c>
       <c r="G45" s="59">
         <f>'All Conc Summary'!E46</f>
-        <v>942.65401865652098</v>
+        <v>935.80964772390905</v>
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="77"/>
@@ -60150,11 +60174,11 @@
       <c r="E46" s="77"/>
       <c r="F46" s="59">
         <f>IF('All Conc Summary'!C47=0,"not detected",'All Conc Summary'!C47)</f>
-        <v>437.65201882509979</v>
+        <v>448.41252205693996</v>
       </c>
       <c r="G46" s="59">
         <f>'All Conc Summary'!E47</f>
-        <v>2917.6801255006653</v>
+        <v>2989.4168137129332</v>
       </c>
       <c r="H46" s="53"/>
       <c r="I46" s="77"/>
@@ -60184,11 +60208,11 @@
       <c r="E47" s="77"/>
       <c r="F47" s="59">
         <f>IF('All Conc Summary'!C48=0,"not detected",'All Conc Summary'!C48)</f>
-        <v>415.6902903823804</v>
+        <v>426.99680996287481</v>
       </c>
       <c r="G47" s="59">
         <f>'All Conc Summary'!E48</f>
-        <v>2771.268602549203</v>
+        <v>2846.6453997524986</v>
       </c>
       <c r="H47" s="53"/>
       <c r="I47" s="77"/>
@@ -60218,11 +60242,11 @@
       <c r="E48" s="77"/>
       <c r="F48" s="59">
         <f>IF('All Conc Summary'!C49=0,"not detected",'All Conc Summary'!C49)</f>
-        <v>496.08880546274349</v>
+        <v>504.45066609467881</v>
       </c>
       <c r="G48" s="59">
         <f>'All Conc Summary'!E49</f>
-        <v>3307.2587030849568</v>
+        <v>3363.0044406311922</v>
       </c>
       <c r="H48" s="53"/>
       <c r="I48" s="77"/>
@@ -60282,11 +60306,11 @@
       <c r="E50" s="77"/>
       <c r="F50" s="59">
         <f>IF('All Conc Summary'!C51=0,"not detected",'All Conc Summary'!C51)</f>
-        <v>345.73420957244355</v>
+        <v>357.40235177918731</v>
       </c>
       <c r="G50" s="59">
         <f>'All Conc Summary'!E51</f>
-        <v>2304.8947304829567</v>
+        <v>2382.6823451945825</v>
       </c>
       <c r="H50" s="53"/>
       <c r="I50" s="77"/>
@@ -60316,11 +60340,11 @@
       <c r="E51" s="77"/>
       <c r="F51" s="59">
         <f>IF('All Conc Summary'!C52=0,"not detected",'All Conc Summary'!C52)</f>
-        <v>244.2397466637774</v>
+        <v>252.37262739297779</v>
       </c>
       <c r="G51" s="59">
         <f>'All Conc Summary'!E52</f>
-        <v>1628.2649777585159</v>
+        <v>1682.4841826198519</v>
       </c>
       <c r="H51" s="53"/>
       <c r="I51" s="77"/>
@@ -60350,11 +60374,11 @@
       <c r="E52" s="77"/>
       <c r="F52" s="59">
         <f>IF('All Conc Summary'!C53=0,"not detected",'All Conc Summary'!C53)</f>
-        <v>307.16419875513935</v>
+        <v>318.08299071851036</v>
       </c>
       <c r="G52" s="59">
         <f>'All Conc Summary'!E53</f>
-        <v>2047.7613250342624</v>
+        <v>2120.5532714567357</v>
       </c>
       <c r="H52" s="53"/>
       <c r="I52" s="77"/>
@@ -60383,11 +60407,11 @@
       <c r="E53" s="77"/>
       <c r="F53" s="59">
         <f>IF('All Conc Summary'!C54=0,"not detected",'All Conc Summary'!C54)</f>
-        <v>306.80223922391156</v>
+        <v>317.71064837980254</v>
       </c>
       <c r="G53" s="59">
         <f>'All Conc Summary'!E54</f>
-        <v>2045.3482614927439</v>
+        <v>2118.0709891986835</v>
       </c>
       <c r="H53" s="53"/>
       <c r="I53" s="77"/>
@@ -60416,11 +60440,11 @@
       <c r="E54" s="77"/>
       <c r="F54" s="59">
         <f>IF('All Conc Summary'!C55=0,"not detected",'All Conc Summary'!C55)</f>
-        <v>139.53502304272445</v>
+        <v>138.28511190099357</v>
       </c>
       <c r="G54" s="59">
         <f>'All Conc Summary'!E55</f>
-        <v>930.23348695149627</v>
+        <v>921.90074600662388</v>
       </c>
       <c r="H54" s="53"/>
       <c r="I54" s="77"/>
@@ -60449,11 +60473,11 @@
       <c r="E55" s="77"/>
       <c r="F55" s="59">
         <f>IF('All Conc Summary'!C56=0,"not detected",'All Conc Summary'!C56)</f>
-        <v>198.2644770680854</v>
+        <v>203.04768642019758</v>
       </c>
       <c r="G55" s="59">
         <f>'All Conc Summary'!E56</f>
-        <v>1321.7631804539026</v>
+        <v>1353.651242801317</v>
       </c>
       <c r="H55" s="53"/>
       <c r="I55" s="77"/>
@@ -60482,11 +60506,11 @@
       <c r="E56" s="77"/>
       <c r="F56" s="59">
         <f>IF('All Conc Summary'!C57=0,"not detected",'All Conc Summary'!C57)</f>
-        <v>155.1937850187573</v>
+        <v>155.75382563859264</v>
       </c>
       <c r="G56" s="59">
         <f>'All Conc Summary'!E57</f>
-        <v>1034.6252334583819</v>
+        <v>1038.3588375906177</v>
       </c>
       <c r="H56" s="53"/>
       <c r="I56" s="77"/>
@@ -60515,11 +60539,11 @@
       <c r="E57" s="77"/>
       <c r="F57" s="59">
         <f>IF('All Conc Summary'!C58=0,"not detected",'All Conc Summary'!C58)</f>
-        <v>131.47965728379492</v>
+        <v>129.23956371619158</v>
       </c>
       <c r="G57" s="59">
         <f>'All Conc Summary'!E58</f>
-        <v>876.53104855863296</v>
+        <v>861.59709144127726</v>
       </c>
       <c r="H57" s="53"/>
       <c r="I57" s="77"/>
@@ -60548,11 +60572,11 @@
       <c r="E58" s="77"/>
       <c r="F58" s="59">
         <f>IF('All Conc Summary'!C59=0,"not detected",'All Conc Summary'!C59)</f>
-        <v>462.50368632162412</v>
+        <v>472.40896266551073</v>
       </c>
       <c r="G58" s="59">
         <f>'All Conc Summary'!E59</f>
-        <v>3083.3579088108277</v>
+        <v>3149.3930844367383</v>
       </c>
       <c r="H58" s="53"/>
       <c r="I58" s="77"/>
@@ -60581,11 +60605,11 @@
       <c r="E59" s="77"/>
       <c r="F59" s="59">
         <f>IF('All Conc Summary'!C60=0,"not detected",'All Conc Summary'!C60)</f>
-        <v>192.43024367965171</v>
+        <v>196.70448498963853</v>
       </c>
       <c r="G59" s="59">
         <f>'All Conc Summary'!E60</f>
-        <v>1282.8682911976782</v>
+        <v>1311.3632332642569</v>
       </c>
       <c r="H59" s="53"/>
       <c r="I59" s="77"/>
@@ -60614,11 +60638,11 @@
       <c r="E60" s="77"/>
       <c r="F60" s="59">
         <f>IF('All Conc Summary'!C61=0,"not detected",'All Conc Summary'!C61)</f>
-        <v>142.19009961796829</v>
+        <v>141.25769862221517</v>
       </c>
       <c r="G60" s="59">
         <f>'All Conc Summary'!E61</f>
-        <v>947.93399745312206</v>
+        <v>941.71799081476797</v>
       </c>
       <c r="H60" s="53"/>
       <c r="I60" s="77"/>
@@ -60674,11 +60698,11 @@
       <c r="E62" s="77"/>
       <c r="F62" s="59">
         <f>IF('All Conc Summary'!C63=0,"not detected",'All Conc Summary'!C63)</f>
-        <v>498.00211036401447</v>
+        <v>506.26294787317102</v>
       </c>
       <c r="G62" s="59">
         <f>'All Conc Summary'!E63</f>
-        <v>3320.01406909343</v>
+        <v>3375.0863191544736</v>
       </c>
       <c r="H62" s="53"/>
       <c r="I62" s="77"/>
@@ -60707,11 +60731,11 @@
       <c r="E63" s="77"/>
       <c r="F63" s="59">
         <f>IF('All Conc Summary'!C64=0,"not detected",'All Conc Summary'!C64)</f>
-        <v>41.167902356394777</v>
+        <v>24.897352868637007</v>
       </c>
       <c r="G63" s="59">
         <f>'All Conc Summary'!E64</f>
-        <v>274.4526823759652</v>
+        <v>165.98235245758005</v>
       </c>
       <c r="H63" s="53"/>
       <c r="I63" s="77"/>
@@ -60740,11 +60764,11 @@
       <c r="E64" s="77"/>
       <c r="F64" s="59">
         <f>IF('All Conc Summary'!C65=0,"not detected",'All Conc Summary'!C65)</f>
-        <v>110.51856608377155</v>
+        <v>105.50913607372081</v>
       </c>
       <c r="G64" s="59">
         <f>'All Conc Summary'!E65</f>
-        <v>736.79044055847692</v>
+        <v>703.39424049147215</v>
       </c>
       <c r="H64" s="53"/>
       <c r="I64" s="77"/>
@@ -60773,11 +60797,11 @@
       <c r="E65" s="77"/>
       <c r="F65" s="59">
         <f>IF('All Conc Summary'!C66=0,"not detected",'All Conc Summary'!C66)</f>
-        <v>240.3546241386897</v>
+        <v>248.24875809979457</v>
       </c>
       <c r="G65" s="59">
         <f>'All Conc Summary'!E66</f>
-        <v>1602.3641609245983</v>
+        <v>1654.9917206652972</v>
       </c>
       <c r="H65" s="53"/>
       <c r="I65" s="77"/>
@@ -60806,11 +60830,11 @@
       <c r="E66" s="77"/>
       <c r="F66" s="59">
         <f>IF('All Conc Summary'!C67=0,"not detected",'All Conc Summary'!C67)</f>
-        <v>315.03902637576965</v>
+        <v>326.16807072869227</v>
       </c>
       <c r="G66" s="59">
         <f>'All Conc Summary'!E67</f>
-        <v>2100.2601758384644</v>
+        <v>2174.4538048579489</v>
       </c>
       <c r="H66" s="53"/>
       <c r="I66" s="77"/>
@@ -60839,11 +60863,11 @@
       <c r="E67" s="77"/>
       <c r="F67" s="59">
         <f>IF('All Conc Summary'!C68=0,"not detected",'All Conc Summary'!C68)</f>
-        <v>535.66113204261308</v>
+        <v>541.65427495702522</v>
       </c>
       <c r="G67" s="59">
         <f>'All Conc Summary'!E68</f>
-        <v>3571.0742136174208</v>
+        <v>3611.0284997135013</v>
       </c>
       <c r="H67" s="53"/>
       <c r="I67" s="77"/>
@@ -60872,11 +60896,11 @@
       <c r="E68" s="77"/>
       <c r="F68" s="59">
         <f>IF('All Conc Summary'!C69=0,"not detected",'All Conc Summary'!C69)</f>
-        <v>132.79677784753781</v>
+        <v>130.72136597452749</v>
       </c>
       <c r="G68" s="59">
         <f>'All Conc Summary'!E69</f>
-        <v>885.31185231691882</v>
+        <v>871.47577316351658</v>
       </c>
       <c r="H68" s="53"/>
       <c r="I68" s="77"/>
@@ -60905,11 +60929,11 @@
       <c r="E69" s="77"/>
       <c r="F69" s="59">
         <f>IF('All Conc Summary'!C70=0,"not detected",'All Conc Summary'!C70)</f>
-        <v>171.40791059151451</v>
+        <v>173.68562330292815</v>
       </c>
       <c r="G69" s="59">
         <f>'All Conc Summary'!E70</f>
-        <v>1142.7194039434301</v>
+        <v>1157.9041553528543</v>
       </c>
       <c r="H69" s="53"/>
       <c r="I69" s="77"/>
@@ -60938,11 +60962,11 @@
       <c r="E70" s="77"/>
       <c r="F70" s="59">
         <f>IF('All Conc Summary'!C71=0,"not detected",'All Conc Summary'!C71)</f>
-        <v>123.13307458296914</v>
+        <v>119.82391606324374</v>
       </c>
       <c r="G70" s="59">
         <f>'All Conc Summary'!E71</f>
-        <v>820.88716388646094</v>
+        <v>798.82610708829168</v>
       </c>
       <c r="H70" s="53"/>
       <c r="I70" s="77"/>
@@ -60971,11 +60995,11 @@
       <c r="E71" s="77"/>
       <c r="F71" s="59">
         <f>IF('All Conc Summary'!C72=0,"not detected",'All Conc Summary'!C72)</f>
-        <v>116.38897280476674</v>
+        <v>112.18356296174952</v>
       </c>
       <c r="G71" s="59">
         <f>'All Conc Summary'!E72</f>
-        <v>775.9264853651116</v>
+        <v>747.89041974499673</v>
       </c>
       <c r="H71" s="53"/>
       <c r="I71" s="77"/>
@@ -61004,11 +61028,11 @@
       <c r="E72" s="77"/>
       <c r="F72" s="59">
         <f>IF('All Conc Summary'!C73=0,"not detected",'All Conc Summary'!C73)</f>
-        <v>55.866393062986461</v>
+        <v>42.263643220296103</v>
       </c>
       <c r="G72" s="59">
         <f>'All Conc Summary'!E73</f>
-        <v>372.44262041990976</v>
+        <v>281.75762146864065</v>
       </c>
       <c r="H72" s="53"/>
       <c r="I72" s="77"/>
@@ -61102,11 +61126,11 @@
       <c r="E75" s="77"/>
       <c r="F75" s="59">
         <f>IF('All Conc Summary'!C76=0,"not detected",'All Conc Summary'!C76)</f>
-        <v>611.92956276899542</v>
+        <v>611.77110540945716</v>
       </c>
       <c r="G75" s="59">
         <f>'All Conc Summary'!E76</f>
-        <v>4079.53041845997</v>
+        <v>4078.4740360630485</v>
       </c>
       <c r="H75" s="53"/>
       <c r="I75" s="77"/>
@@ -61135,11 +61159,11 @@
       <c r="E76" s="77"/>
       <c r="F76" s="59">
         <f>IF('All Conc Summary'!C77=0,"not detected",'All Conc Summary'!C77)</f>
-        <v>203.08837666843903</v>
+        <v>208.27784799264458</v>
       </c>
       <c r="G76" s="59">
         <f>'All Conc Summary'!E77</f>
-        <v>1353.9225111229271</v>
+        <v>1388.5189866176306</v>
       </c>
       <c r="H76" s="53"/>
       <c r="I76" s="77"/>
@@ -61201,11 +61225,11 @@
       <c r="E78" s="77"/>
       <c r="F78" s="59">
         <f>IF('All Conc Summary'!C79=0,"not detected",'All Conc Summary'!C79)</f>
-        <v>158.26400180410053</v>
+        <v>159.16138834783999</v>
       </c>
       <c r="G78" s="59">
         <f>'All Conc Summary'!E79</f>
-        <v>1055.0933453606701</v>
+        <v>1061.0759223189334</v>
       </c>
       <c r="H78" s="53"/>
       <c r="I78" s="77"/>
@@ -61234,11 +61258,11 @@
       <c r="E79" s="77"/>
       <c r="F79" s="59">
         <f>IF('All Conc Summary'!C80=0,"not detected",'All Conc Summary'!C80)</f>
-        <v>301.56484203221532</v>
+        <v>312.31590295675102</v>
       </c>
       <c r="G79" s="59">
         <f>'All Conc Summary'!E80</f>
-        <v>2010.432280214769</v>
+        <v>2082.1060197116735</v>
       </c>
       <c r="H79" s="53"/>
       <c r="I79" s="77"/>
@@ -61267,11 +61291,11 @@
       <c r="E80" s="77"/>
       <c r="F80" s="59">
         <f>IF('All Conc Summary'!C81=0,"not detected",'All Conc Summary'!C81)</f>
-        <v>73.751988589419796</v>
+        <v>63.187219770189429</v>
       </c>
       <c r="G80" s="59">
         <f>'All Conc Summary'!E81</f>
-        <v>491.67992392946536</v>
+        <v>421.2481318012629</v>
       </c>
       <c r="H80" s="53"/>
       <c r="I80" s="77"/>
@@ -61300,11 +61324,11 @@
       <c r="E81" s="77"/>
       <c r="F81" s="59">
         <f>IF('All Conc Summary'!C82=0,"not detected",'All Conc Summary'!C82)</f>
-        <v>208.87962551185325</v>
+        <v>214.53955539184705</v>
       </c>
       <c r="G81" s="59">
         <f>'All Conc Summary'!E82</f>
-        <v>1392.5308367456882</v>
+        <v>1430.2637026123136</v>
       </c>
       <c r="H81" s="53"/>
       <c r="I81" s="77"/>
@@ -61333,11 +61357,11 @@
       <c r="E82" s="77"/>
       <c r="F82" s="59">
         <f>IF('All Conc Summary'!C83=0,"not detected",'All Conc Summary'!C83)</f>
-        <v>457.57893212425301</v>
+        <v>467.67336796029275</v>
       </c>
       <c r="G82" s="59">
         <f>'All Conc Summary'!E83</f>
-        <v>3050.5262141616872</v>
+        <v>3117.8224530686184</v>
       </c>
       <c r="H82" s="53"/>
       <c r="I82" s="77"/>
@@ -61366,11 +61390,11 @@
       <c r="E83" s="77"/>
       <c r="F83" s="59">
         <f>IF('All Conc Summary'!C84=0,"not detected",'All Conc Summary'!C84)</f>
-        <v>119.19890841252598</v>
+        <v>115.3704698524564</v>
       </c>
       <c r="G83" s="59">
         <f>'All Conc Summary'!E84</f>
-        <v>794.65938941683987</v>
+        <v>769.13646568304273</v>
       </c>
       <c r="H83" s="53"/>
       <c r="I83" s="77"/>
@@ -61459,11 +61483,11 @@
       <c r="E86" s="77"/>
       <c r="F86" s="59">
         <f>IF('All Conc Summary'!C87=0,"not detected",'All Conc Summary'!C87)</f>
-        <v>200.13181357258912</v>
+        <v>205.0738453969546</v>
       </c>
       <c r="G86" s="59">
         <f>'All Conc Summary'!E87</f>
-        <v>1334.2120904839276</v>
+        <v>1367.1589693130306</v>
       </c>
       <c r="H86" s="53"/>
       <c r="I86" s="77"/>
@@ -61492,11 +61516,11 @@
       <c r="E87" s="77"/>
       <c r="F87" s="59">
         <f>IF('All Conc Summary'!C88=0,"not detected",'All Conc Summary'!C88)</f>
-        <v>132.52467088773767</v>
+        <v>130.41532640692176</v>
       </c>
       <c r="G87" s="59">
         <f>'All Conc Summary'!E88</f>
-        <v>883.49780591825117</v>
+        <v>869.43550937947839</v>
       </c>
       <c r="H87" s="53"/>
       <c r="I87" s="77"/>
@@ -61525,11 +61549,11 @@
       <c r="E88" s="77"/>
       <c r="F88" s="59">
         <f>IF('All Conc Summary'!C89=0,"not detected",'All Conc Summary'!C89)</f>
-        <v>129.73813897708709</v>
+        <v>127.27862408099752</v>
       </c>
       <c r="G88" s="59">
         <f>'All Conc Summary'!E89</f>
-        <v>864.92092651391386</v>
+        <v>848.52416053998354</v>
       </c>
       <c r="H88" s="53"/>
       <c r="I88" s="77"/>
@@ -61558,11 +61582,11 @@
       <c r="E89" s="77"/>
       <c r="F89" s="59">
         <f>IF('All Conc Summary'!C90=0,"not detected",'All Conc Summary'!C90)</f>
-        <v>173.51416174922576</v>
+        <v>176.0035290363364</v>
       </c>
       <c r="G89" s="59">
         <f>'All Conc Summary'!E90</f>
-        <v>1156.7610783281718</v>
+        <v>1173.3568602422426</v>
       </c>
       <c r="H89" s="53"/>
       <c r="I89" s="77"/>
@@ -61591,11 +61615,11 @@
       <c r="E90" s="77"/>
       <c r="F90" s="59">
         <f>IF('All Conc Summary'!C91=0,"not detected",'All Conc Summary'!C91)</f>
-        <v>117.65288499228426</v>
+        <v>113.6176661988633</v>
       </c>
       <c r="G90" s="59">
         <f>'All Conc Summary'!E91</f>
-        <v>784.3525666152284</v>
+        <v>757.45110799242207</v>
       </c>
       <c r="H90" s="53"/>
       <c r="I90" s="77"/>
@@ -61624,11 +61648,11 @@
       <c r="E91" s="77"/>
       <c r="F91" s="59">
         <f>IF('All Conc Summary'!C92=0,"not detected",'All Conc Summary'!C92)</f>
-        <v>195.37235184014867</v>
+        <v>199.90567757986716</v>
       </c>
       <c r="G91" s="59">
         <f>'All Conc Summary'!E92</f>
-        <v>1302.482345600991</v>
+        <v>1332.7045171991142</v>
       </c>
       <c r="H91" s="53"/>
       <c r="I91" s="77"/>
@@ -61657,11 +61681,11 @@
       <c r="E92" s="77"/>
       <c r="F92" s="59">
         <f>IF('All Conc Summary'!C93=0,"not detected",'All Conc Summary'!C93)</f>
-        <v>226.90012593274065</v>
+        <v>233.90513034502166</v>
       </c>
       <c r="G92" s="59">
         <f>'All Conc Summary'!E93</f>
-        <v>1512.6675062182708</v>
+        <v>1559.3675356334779</v>
       </c>
       <c r="H92" s="53"/>
       <c r="I92" s="77"/>
@@ -61690,11 +61714,11 @@
       <c r="E93" s="77"/>
       <c r="F93" s="59">
         <f>IF('All Conc Summary'!C94=0,"not detected",'All Conc Summary'!C94)</f>
-        <v>199.41264708584788</v>
+        <v>204.29374514274721</v>
       </c>
       <c r="G93" s="59">
         <f>'All Conc Summary'!E94</f>
-        <v>1329.4176472389859</v>
+        <v>1361.9583009516482</v>
       </c>
       <c r="H93" s="53"/>
       <c r="I93" s="77"/>
@@ -61723,11 +61747,11 @@
       <c r="E94" s="77"/>
       <c r="F94" s="59">
         <f>IF('All Conc Summary'!C95=0,"not detected",'All Conc Summary'!C95)</f>
-        <v>88.934002805481015</v>
+        <v>80.773541823314829</v>
       </c>
       <c r="G94" s="59">
         <f>'All Conc Summary'!E95</f>
-        <v>592.89335203654002</v>
+        <v>538.49027882209896</v>
       </c>
       <c r="H94" s="53"/>
       <c r="I94" s="77"/>
@@ -61756,11 +61780,11 @@
       <c r="E95" s="77"/>
       <c r="F95" s="59">
         <f>IF('All Conc Summary'!C96=0,"not detected",'All Conc Summary'!C96)</f>
-        <v>146.92054366666594</v>
+        <v>146.54304634990953</v>
       </c>
       <c r="G95" s="59">
         <f>'All Conc Summary'!E96</f>
-        <v>979.47029111110612</v>
+        <v>976.95364233273006</v>
       </c>
       <c r="H95" s="53"/>
       <c r="I95" s="77"/>
@@ -61789,11 +61813,11 @@
       <c r="E96" s="77"/>
       <c r="F96" s="59">
         <f>IF('All Conc Summary'!C97=0,"not detected",'All Conc Summary'!C97)</f>
-        <v>121.38344002787368</v>
+        <v>117.84456616764648</v>
       </c>
       <c r="G96" s="59">
         <f>'All Conc Summary'!E97</f>
-        <v>809.22293351915778</v>
+        <v>785.63044111764316</v>
       </c>
       <c r="H96" s="53"/>
       <c r="I96" s="77"/>
